--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,70 @@
   </si>
   <si>
     <t>ss睡眠不足ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师狠烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男气功师很菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先驱者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师狠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很烂丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很屌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,7 +591,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -646,6 +710,188 @@
         <v>0.92</v>
       </c>
       <c r="H7" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="2">
         <v>0.75</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,54 @@
   </si>
   <si>
     <t>气功师很懒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll0110ll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师废了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功运气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功该加强了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功运</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,15 +241,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,14 +275,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -518,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,365 +624,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H2" s="3">
         <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>0.92</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>0.92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="3">
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.81</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.92</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3">
         <v>0.92</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>0.81</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="5">
         <v>0.98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>0.88</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
         <v>0.81</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>0.92</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>0.81</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>0.92</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.75</v>
-      </c>
+      <c r="G14" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,15 +206,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>先</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>功运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +622,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,10 +667,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -684,7 +696,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -707,10 +719,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -736,7 +748,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -745,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="3">
-        <v>0.81</v>
+        <v>0.75</v>
       </c>
       <c r="H5" s="3">
         <v>0.75</v>
@@ -762,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -771,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="3">
-        <v>0.92</v>
+        <v>0.81</v>
       </c>
       <c r="H6" s="3">
         <v>0.75</v>
@@ -788,7 +800,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -797,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="3">
-        <v>0.92</v>
+        <v>0.81</v>
       </c>
       <c r="H7" s="3">
         <v>0.75</v>
@@ -918,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>31</v>
@@ -944,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>22</v>
@@ -996,7 +1008,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>39</v>
@@ -1045,13 +1057,13 @@
         <v>42</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>11</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,15 +206,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#422</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功运</t>
+    <t>#400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -684,7 +700,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -693,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="3">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="H3" s="3">
         <v>0.92</v>
@@ -762,7 +778,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -771,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="3">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="H6" s="3">
         <v>0.75</v>
@@ -918,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>31</v>
@@ -927,7 +943,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="5">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="H12" s="5">
         <v>0.81</v>
@@ -944,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>22</v>
@@ -953,7 +969,7 @@
         <v>23</v>
       </c>
       <c r="G13" s="5">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="H13" s="5">
         <v>0.75</v>
@@ -996,7 +1012,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>39</v>
@@ -1005,7 +1021,7 @@
         <v>40</v>
       </c>
       <c r="G15" s="9">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="H15" s="9">
         <v>0.91</v>
@@ -1045,13 +1061,13 @@
         <v>42</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>11</v>
@@ -1098,6 +1114,52 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="3">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="H6" s="3">
         <v>0.75</v>
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="3">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="H7" s="3">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,14 @@
   </si>
   <si>
     <t>#400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足罗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>49</v>
@@ -816,37 +824,37 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
@@ -855,102 +863,102 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G10" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="5">
         <v>0.98</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="G11" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="5">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="H12" s="5">
         <v>0.81</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
@@ -959,30 +967,30 @@
         <v>51</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G13" s="5">
         <v>0.92</v>
       </c>
       <c r="H13" s="5">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>22</v>
@@ -991,105 +999,105 @@
         <v>23</v>
       </c>
       <c r="G14" s="5">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H14" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>0.92</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <v>0.91</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="9">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="H17" s="9">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>11</v>
@@ -1098,18 +1106,44 @@
         <v>0.95</v>
       </c>
       <c r="H18" s="9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="H19" s="9">
         <v>0.91</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="5">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="H8" s="5">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>睡眠不足罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -853,25 +865,25 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="3">
         <v>0.75</v>
       </c>
     </row>
@@ -880,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
@@ -889,16 +901,16 @@
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="5">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="H10" s="5">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -906,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" s="5">
         <v>0.75</v>
       </c>
       <c r="H11" s="5">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -932,25 +944,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G12" s="5">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="H12" s="5">
-        <v>0.81</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -958,22 +970,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="5">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="H13" s="5">
         <v>0.81</v>
@@ -984,7 +996,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -993,16 +1005,16 @@
         <v>51</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G14" s="5">
         <v>0.92</v>
       </c>
       <c r="H14" s="5">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1010,13 +1022,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
@@ -1025,7 +1037,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="5">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H15" s="5">
         <v>0.75</v>
@@ -1035,26 +1047,26 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.91</v>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1062,25 +1074,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G17" s="9">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H17" s="9">
-        <v>0.81</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1088,25 +1100,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="9">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="H18" s="9">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1114,16 +1126,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>11</v>
@@ -1132,18 +1144,44 @@
         <v>0.95</v>
       </c>
       <c r="H19" s="9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="H20" s="9">
         <v>0.91</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,26 @@
   </si>
   <si>
     <t>#366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士很烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,25 +911,25 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="H10" s="3">
         <v>0.75</v>
       </c>
     </row>
@@ -918,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -927,16 +947,16 @@
         <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="5">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="H11" s="5">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -944,25 +964,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G12" s="5">
         <v>0.75</v>
       </c>
       <c r="H12" s="5">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -970,25 +990,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="H13" s="5">
-        <v>0.81</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -996,22 +1016,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="5">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="H14" s="5">
         <v>0.81</v>
@@ -1022,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1031,16 +1051,16 @@
         <v>51</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="5">
         <v>0.92</v>
       </c>
       <c r="H15" s="5">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1048,13 +1068,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>22</v>
@@ -1063,7 +1083,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="5">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H16" s="5">
         <v>0.75</v>
@@ -1073,26 +1093,26 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.91</v>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1100,25 +1120,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G18" s="9">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H18" s="9">
-        <v>0.81</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1126,25 +1146,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="9">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="H19" s="9">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1152,16 +1172,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>11</v>
@@ -1170,18 +1190,44 @@
         <v>0.95</v>
       </c>
       <c r="H20" s="9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="H21" s="9">
         <v>0.91</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,19 +254,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟空师很烂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇特木偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>高手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很烂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#50</t>
+    <t>偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#434</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -915,16 +931,16 @@
         <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G10" s="3">
         <v>0.88</v>
@@ -1022,7 +1038,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>29</v>
@@ -1119,52 +1135,52 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.91</v>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0.81</v>
+      <c r="E19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.88</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1172,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G20" s="9">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="H20" s="9">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1198,36 +1214,88 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="9">
         <v>0.95</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H22" s="9">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="H23" s="9">
         <v>0.91</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -826,11 +826,11 @@
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,10 @@
   </si>
   <si>
     <t>#434</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -827,10 +831,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -934,7 +938,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>60</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -678,7 +678,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1008,11 +1008,11 @@
       <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>22</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>气功师很屌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>气功师很懒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,6 +279,10 @@
   </si>
   <si>
     <t>#434</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很猛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,14 +362,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -678,7 +677,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -726,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -752,7 +751,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -778,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -801,10 +800,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -856,7 +855,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -876,10 +875,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -902,13 +901,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -928,19 +927,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G10" s="3">
         <v>0.88</v>
@@ -1006,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
@@ -1038,7 +1037,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>29</v>
@@ -1064,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>31</v>
@@ -1090,7 +1089,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>22</v>
@@ -1110,13 +1109,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>22</v>
@@ -1136,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
@@ -1162,19 +1161,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="G19" s="5">
         <v>0.88</v>
@@ -1187,25 +1186,25 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>0.92</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>0.91</v>
       </c>
     </row>
@@ -1213,25 +1212,25 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H21" s="9">
+      <c r="G21" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="8">
         <v>0.81</v>
       </c>
     </row>
@@ -1239,25 +1238,25 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>0.95</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>0.85</v>
       </c>
     </row>
@@ -1265,37 +1264,37 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>0.95</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>0.91</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,14 @@
   </si>
   <si>
     <t>气功师很猛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -878,7 +886,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -901,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>55</v>
@@ -1295,6 +1303,32 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,10 +283,6 @@
   </si>
   <si>
     <t>气功师很猛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -370,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -380,7 +376,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -685,7 +680,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -886,10 +881,10 @@
         <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -898,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H8" s="3">
         <v>0.75</v>
@@ -909,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>55</v>
@@ -963,11 +958,11 @@
       <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>22</v>
@@ -975,8 +970,8 @@
       <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="5">
-        <v>0.81</v>
+      <c r="G11" s="3">
+        <v>0.92</v>
       </c>
       <c r="H11" s="5">
         <v>0.75</v>
@@ -1223,11 +1218,11 @@
       <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>10</v>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>31</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -380,7 +380,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -684,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1223,11 +1222,11 @@
       <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>10</v>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>31</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -680,7 +680,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -826,13 +826,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -852,13 +852,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -867,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="3">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="H7" s="3">
         <v>0.75</v>
@@ -878,13 +878,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -904,13 +904,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -919,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H9" s="3">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,14 +235,6 @@
   </si>
   <si>
     <t>睡眠不足旅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -680,7 +672,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -852,13 +844,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -930,19 +922,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="G10" s="3">
         <v>0.88</v>
@@ -1040,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>29</v>
@@ -1112,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
@@ -1138,7 +1130,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
@@ -1164,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G19" s="5">
         <v>0.88</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,22 @@
   </si>
   <si>
     <t>睡眠不足啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经验值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色识字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很屌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1130,12 +1146,12 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1156,51 +1172,51 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="G19" s="5">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="H19" s="5">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.92</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0.91</v>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.88</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1208,25 +1224,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G21" s="8">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H21" s="8">
-        <v>0.81</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1234,25 +1250,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="8">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="H22" s="8">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1260,16 +1276,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
@@ -1278,43 +1294,80 @@
         <v>0.95</v>
       </c>
       <c r="H23" s="8">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="H24" s="8">
         <v>0.91</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.75</v>
+      <c r="G26" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,38 @@
   </si>
   <si>
     <t>气功师很屌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75-0.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递快递员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -384,6 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -685,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1220,7 +1259,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1324,50 +1363,142 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H26">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
         <v>8</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="G29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>66</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>67</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C47" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1148,7 +1148,7 @@
         <v>23</v>
       </c>
       <c r="G16" s="5">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="H16" s="5">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +327,10 @@
   </si>
   <si>
     <t>快递员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,12 +437,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -480,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,7 +522,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1363,17 +1370,17 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>22</v>
@@ -1393,7 +1400,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>18</v>
@@ -1401,95 +1408,107 @@
       <c r="D26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" t="s">
-        <v>72</v>
+      <c r="E26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G26" s="5">
         <v>0.75</v>
       </c>
-      <c r="H26">
-        <v>0.85</v>
+      <c r="H26" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="B27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H27">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+      <c r="G30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>66</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>67</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48">
-        <v>0.85</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
@@ -1497,7 +1516,21 @@
       <c r="C49" t="s">
         <v>72</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" t="s">
         <v>74</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,50 @@
   </si>
   <si>
     <t>气功师很送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最叼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +489,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -487,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,7 +566,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -731,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1438,7 +1482,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G27" s="5">
         <v>0.75</v>
@@ -1448,90 +1492,184 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49">
-        <v>0.85</v>
+      <c r="G32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>73</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>71</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>72</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,10 @@
   </si>
   <si>
     <t>爷的圣光最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造就师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1670,6 +1674,17 @@
       </c>
       <c r="D55">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -531,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,7 +566,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -775,23 +775,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -867,7 +867,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -893,7 +893,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -997,7 +997,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
@@ -1579,7 +1579,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -1670,6 +1670,11 @@
       </c>
       <c r="D55">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1685,7 +1690,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,7 +1703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,7 +374,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>爷的圣光最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +445,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -471,6 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -489,7 +512,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -531,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,7 +589,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -775,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1440,7 +1463,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1466,63 +1489,63 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H27">
+      <c r="G28" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H28">
         <v>0.85</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1531,36 +1554,36 @@
         <v>10</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="G29" s="6">
         <v>0.75</v>
       </c>
       <c r="H29" s="6">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>19</v>
+      <c r="B30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G30" s="6">
         <v>0.75</v>
@@ -1570,69 +1593,102 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
         <v>8</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" t="s">
-        <v>68</v>
+      <c r="G33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>1111</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51">
-        <v>0.85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
@@ -1640,35 +1696,49 @@
       <c r="C52" t="s">
         <v>72</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54">
-        <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
         <v>81</v>
       </c>
       <c r="D55">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56">
         <v>0.9</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,14 @@
   </si>
   <si>
     <t>熟练者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造就师很狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +462,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -482,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -494,6 +508,7 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -512,7 +527,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -554,7 +569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,7 +604,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1645,100 +1660,138 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46">
+      <c r="G35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52">
-        <v>0.85</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
         <v>71</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>72</v>
       </c>
-      <c r="D53" t="s">
-        <v>74</v>
+      <c r="D54">
+        <v>0.85</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>79</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>80</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" t="s">
         <v>81</v>
       </c>
-      <c r="D55">
+      <c r="D57">
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>82</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C58" t="s">
         <v>81</v>
       </c>
-      <c r="D56">
+      <c r="D58">
         <v>0.9</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,14 @@
   </si>
   <si>
     <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +433,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +476,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -496,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -509,6 +523,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -813,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1013,14 +1029,14 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
+      <c r="B8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1029,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="3">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="H8" s="3">
         <v>0.75</v>
@@ -1039,14 +1055,14 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
+      <c r="B9" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -1055,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="3">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="H9" s="3">
         <v>0.75</v>
@@ -1066,22 +1082,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="H10" s="3">
         <v>0.75</v>
@@ -1091,25 +1107,25 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G11" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="H11" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="H11" s="3">
         <v>0.75</v>
       </c>
     </row>
@@ -1117,40 +1133,40 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.98</v>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>22</v>
@@ -1158,129 +1174,129 @@
       <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="5">
-        <v>0.75</v>
+      <c r="G13" s="3">
+        <v>0.92</v>
       </c>
       <c r="H13" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G16" s="5">
         <v>0.88</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H16" s="5">
         <v>0.81</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G17" s="5">
         <v>0.92</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H17" s="5">
         <v>0.81</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>22</v>
@@ -1289,18 +1305,18 @@
         <v>23</v>
       </c>
       <c r="G18" s="5">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="H18" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1322,198 +1338,198 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G22" s="5">
         <v>0.88</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H22" s="5">
         <v>0.88</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G23" s="8">
         <v>0.92</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H23" s="8">
         <v>0.91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0.85</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="8">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="H24" s="8">
-        <v>0.91</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -1531,10 +1547,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1542,25 +1558,25 @@
       <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" t="s">
-        <v>86</v>
+      <c r="E28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G28" s="5">
         <v>0.75</v>
       </c>
-      <c r="H28">
-        <v>0.85</v>
+      <c r="H28" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>84</v>
+      <c r="A29" s="10">
+        <v>26</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1568,89 +1584,89 @@
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H29" s="6">
+      <c r="E29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.9</v>
+      <c r="A30" s="10">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H30">
+        <v>0.85</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G31" s="6">
         <v>0.75</v>
       </c>
       <c r="H31" s="6">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>31</v>
+      <c r="A32" s="6">
+        <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G32" s="6">
         <v>0.75</v>
@@ -1660,138 +1676,190 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="11">
+      <c r="A33" s="6">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G35" s="5">
         <v>0.85</v>
       </c>
-      <c r="H33" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="11">
+      <c r="H35" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48">
+      <c r="G37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54">
-        <v>0.85</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
         <v>71</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>72</v>
       </c>
-      <c r="D55" t="s">
-        <v>74</v>
+      <c r="D56">
+        <v>0.85</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>79</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>80</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>81</v>
       </c>
-      <c r="D57">
+      <c r="D59">
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>82</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>83</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>81</v>
       </c>
-      <c r="D58">
+      <c r="D60">
         <v>0.9</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,22 @@
   </si>
   <si>
     <t>睡眠不足啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1130,8 +1146,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>53</v>
@@ -1368,13 +1384,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>22</v>
@@ -1417,7 +1433,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>37</v>
@@ -1443,7 +1459,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>40</v>
@@ -1468,8 +1484,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>22</v>
+      <c r="A25" s="9">
+        <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>41</v>
@@ -1495,7 +1511,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>43</v>
@@ -1520,8 +1536,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>24</v>
+      <c r="A27" s="9">
+        <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>78</v>
@@ -1547,7 +1563,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>75</v>
@@ -1573,7 +1589,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>89</v>
@@ -1599,13 +1615,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
@@ -1625,7 +1641,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>84</v>
@@ -1651,7 +1667,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>88</v>
@@ -1675,9 +1691,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>90</v>
@@ -1701,9 +1717,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
-        <v>31</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>92</v>
@@ -1727,9 +1743,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>94</v>
@@ -1753,9 +1769,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1765,7 +1781,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -1789,6 +1805,35 @@
       </c>
       <c r="H37" s="3">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="12">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I38" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,119 +310,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.75-0.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递快递员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造就师很狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一二(l11l)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.75-0.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递快递员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史上最菜气功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造就师很狂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒1</t>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1046,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1072,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1147,7 +1159,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>53</v>
@@ -1384,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1540,7 +1552,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1566,7 +1578,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1592,7 +1604,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1618,19 +1630,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30" s="5">
         <v>0.75</v>
@@ -1640,37 +1652,37 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="6">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="6">
+      <c r="B31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="H31" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="6">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>88</v>
+      <c r="B32" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
@@ -1678,17 +1690,17 @@
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0.9</v>
+      <c r="E32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -1696,25 +1708,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G33" s="6">
         <v>0.75</v>
       </c>
       <c r="H33" s="6">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -1722,19 +1734,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G34" s="6">
         <v>0.75</v>
@@ -1744,167 +1756,219 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="11">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="E37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
         <v>8</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="12">
+        <v>20</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="11">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>8</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="12">
-        <v>20</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50">
+      <c r="G40" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56">
-        <v>0.85</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
         <v>71</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>72</v>
       </c>
-      <c r="D57" t="s">
-        <v>74</v>
+      <c r="D58">
+        <v>0.85</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
         <v>79</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C61" t="s">
         <v>80</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>81</v>
       </c>
-      <c r="D59">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+      <c r="B62" t="s">
         <v>82</v>
       </c>
-      <c r="B60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60">
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62">
         <v>0.9</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,6 +371,10 @@
   </si>
   <si>
     <t>史上最菜气功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -778,7 +782,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1548,7 +1552,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>18</v>
@@ -1570,14 +1574,30 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1">

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,6 +435,26 @@
   </si>
   <si>
     <t>气功师很水i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最叼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1808,49 +1828,63 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="11">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H37" s="11">
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="6">
         <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="11">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="B38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>54</v>
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -1858,117 +1892,233 @@
       <c r="D39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="12">
+      <c r="G44" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="12">
         <v>20</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="G45" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I45" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61">
-        <v>0.9</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>81</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B67" t="s">
         <v>82</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C67" t="s">
         <v>80</v>
       </c>
-      <c r="D62">
+      <c r="D67">
         <v>0.9</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -527,7 +527,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -569,7 +569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,7 +604,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -816,7 +816,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1367,7 +1367,7 @@
         <v>39</v>
       </c>
       <c r="G21" s="8">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="H21" s="8">
         <v>0.91</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="99">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,35 +310,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.75-0.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递快递员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造就师很狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一二(l11l)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.75-0.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递快递员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
+    <t>l11l</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -346,59 +410,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史上最菜气功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造就师很狂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
+    <t>一二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +539,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -569,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,7 +616,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1456,7 +1468,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -1482,7 +1494,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>18</v>
@@ -1508,7 +1520,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>8</v>
@@ -1534,7 +1546,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1543,10 +1555,10 @@
         <v>19</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" s="5">
         <v>0.75</v>
@@ -1556,37 +1568,37 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="6">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H29" s="6">
+      <c r="B29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="H29">
         <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>8</v>
@@ -1595,36 +1607,36 @@
         <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="G30" s="6">
         <v>0.75</v>
       </c>
       <c r="H30" s="6">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G31" s="6">
         <v>0.75</v>
@@ -1634,20 +1646,20 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>31</v>
+      <c r="A32" s="6">
+        <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>68</v>
@@ -1660,138 +1672,164 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0.75</v>
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.9</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="1">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
         <v>8</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48">
+      <c r="G36" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54">
-        <v>0.85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
       </c>
       <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
         <v>72</v>
       </c>
-      <c r="D55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57">
-        <v>0.9</v>
+      <c r="D56" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
         <v>82</v>
       </c>
-      <c r="B58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58">
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59">
         <v>0.9</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="114">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +455,22 @@
   </si>
   <si>
     <t>爷的太阳最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +607,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -633,7 +649,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,7 +684,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -877,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1996,17 +2012,17 @@
       <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="1">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>10</v>
+      <c r="D44" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
@@ -2014,75 +2030,87 @@
       <c r="F44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="G44" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H44" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="12">
+      <c r="A45" s="1">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="12">
         <v>20</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="G46" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I46" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63">
-        <v>0.85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
         <v>71</v>
@@ -2090,36 +2118,64 @@
       <c r="C64" t="s">
         <v>72</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66">
-        <v>0.9</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
       </c>
       <c r="D67">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="122">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,83 +394,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>睡眠不足风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1094,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1120,7 +1152,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1195,7 +1227,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>53</v>
@@ -1432,7 +1464,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1669,7 +1701,7 @@
         <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
@@ -1692,7 +1724,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
@@ -1701,7 +1733,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
@@ -1718,7 +1750,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
@@ -1739,7 +1771,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1765,7 +1797,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1791,7 +1823,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1817,7 +1849,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1843,12 +1875,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -1869,12 +1901,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -1895,12 +1927,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -1921,12 +1953,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -1947,12 +1979,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -1973,7 +2005,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -1984,7 +2016,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>22</v>
@@ -1999,7 +2031,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -2011,12 +2043,12 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="11">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>8</v>
@@ -2037,18 +2069,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="1">
-        <v>8</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>10</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>9</v>
@@ -2056,125 +2088,273 @@
       <c r="F45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="12">
+      <c r="G45" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="12">
         <v>20</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58">
+      <c r="G54" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
         <v>1111</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>66</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B71" t="s">
         <v>67</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B72" t="s">
         <v>71</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C72" t="s">
         <v>72</v>
       </c>
-      <c r="D64">
+      <c r="D72">
         <v>0.85</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s">
         <v>71</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C73" t="s">
         <v>72</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B75" t="s">
         <v>79</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C75" t="s">
         <v>80</v>
       </c>
-      <c r="D67">
+      <c r="D75">
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>81</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C76" t="s">
         <v>80</v>
       </c>
-      <c r="D68">
+      <c r="D76">
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
         <v>110</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C77" t="s">
         <v>111</v>
       </c>
-      <c r="C69" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69">
+      <c r="D77">
         <v>0.8</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="125">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,6 +503,18 @@
   </si>
   <si>
     <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头师很差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑师很牛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -621,6 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -925,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2035,20 +2048,34 @@
       <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>8</v>
@@ -2056,11 +2083,11 @@
       <c r="D44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>11</v>
+      <c r="E44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G44" s="5">
         <v>0.85</v>
@@ -2073,25 +2100,25 @@
       <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="B45" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H45" s="6">
+      <c r="G45" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="H45" s="9">
         <v>0.75</v>
       </c>
     </row>
@@ -2099,25 +2126,25 @@
       <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="B46" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H46" s="6">
+      <c r="G46" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H46" s="9">
         <v>0.75</v>
       </c>
     </row>
@@ -2125,25 +2152,25 @@
       <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="B47" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H47" s="6">
+      <c r="G47" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="H47" s="9">
         <v>0.75</v>
       </c>
     </row>
@@ -2151,36 +2178,48 @@
       <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="11"/>
+      <c r="B48" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="11"/>
+      <c r="B49" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="9">
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2194,7 +2233,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -2208,7 +2247,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -2218,93 +2257,93 @@
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
         <v>8</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="12">
+      <c r="G54" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="12">
         <v>20</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="G55" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I55" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72">
-        <v>0.85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
@@ -2312,30 +2351,30 @@
       <c r="C73" t="s">
         <v>72</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75">
-        <v>0.9</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
         <v>80</v>
@@ -2346,15 +2385,29 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>109</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>110</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>111</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>0.8</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="130">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>气功师很水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>快递快递员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,151 +366,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>爷的圣光最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造就师很狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最叼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头师很差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑师很牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>气功师很丿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爷的圣光最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造就师很狂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨水不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗头师很差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑师很牛</t>
+    <t>气功师很水丨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1139,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1165,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1240,7 +1260,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>53</v>
@@ -1477,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1551,7 +1571,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1603,7 +1623,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1633,7 +1653,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1655,11 +1675,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1681,11 +1701,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1693,11 +1713,11 @@
       <c r="D29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>23</v>
+      <c r="E29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G29" s="5">
         <v>0.75</v>
@@ -1707,28 +1727,28 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s">
-        <v>85</v>
+      <c r="E30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G30" s="5">
         <v>0.75</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
         <v>0.85</v>
       </c>
     </row>
@@ -1737,22 +1757,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
+        <v>128</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G31" s="5">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="H31" s="5">
         <v>0.75</v>
@@ -1763,59 +1783,59 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>84</v>
       </c>
       <c r="G32" s="5">
         <v>0.75</v>
       </c>
-      <c r="H32" s="5">
-        <v>0.75</v>
+      <c r="H32">
+        <v>0.85</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="6">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="B33" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="H33" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="6">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>87</v>
+      <c r="B34" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>8</v>
@@ -1823,17 +1843,17 @@
       <c r="D34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0.9</v>
+      <c r="E34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1841,25 +1861,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G35" s="6">
         <v>0.75</v>
       </c>
       <c r="H35" s="6">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1867,19 +1887,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G36" s="6">
         <v>0.75</v>
@@ -1893,16 +1913,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>68</v>
@@ -1911,7 +1931,7 @@
         <v>0.75</v>
       </c>
       <c r="H37" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -1919,16 +1939,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>68</v>
@@ -1937,7 +1957,7 @@
         <v>0.75</v>
       </c>
       <c r="H38" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
@@ -1945,7 +1965,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -1954,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>68</v>
@@ -1971,7 +1991,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -1980,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>68</v>
@@ -1997,7 +2017,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -2006,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>68</v>
@@ -2019,54 +2039,54 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="11">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H42" s="11">
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H42" s="6">
         <v>0.75</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="11">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="B43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H43" s="11">
+      <c r="G43" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H43" s="6">
         <v>0.75</v>
       </c>
     </row>
@@ -2075,13 +2095,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>22</v>
@@ -2097,54 +2117,54 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="9">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="14">
+      <c r="E45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="5">
         <v>0.85</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="9">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H46" s="9">
+      <c r="B46" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H46" s="11">
         <v>0.75</v>
       </c>
     </row>
@@ -2153,13 +2173,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>9</v>
@@ -2179,13 +2199,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>9</v>
@@ -2205,49 +2225,73 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="9">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="11"/>
+      <c r="B50" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="11"/>
+      <c r="B51" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -2261,7 +2305,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2271,144 +2315,186 @@
       <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="1">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
         <v>8</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="12">
+      <c r="G56" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="12">
         <v>20</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67">
+      <c r="G57" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73">
-        <v>0.85</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
         <v>71</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>72</v>
       </c>
-      <c r="D74" t="s">
-        <v>73</v>
+      <c r="D75">
+        <v>0.85</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77">
-        <v>0.9</v>
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" t="s">
         <v>109</v>
       </c>
-      <c r="B78" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78">
+      <c r="D80">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,526 +16,541 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="135">
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>usr_string1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>usr_color_format1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>usr_string2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>usr_color_format2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>usr_HH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>usr_HH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>睡眠不足十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>挑战者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#366</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ll1ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>先驱者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>像血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>睡眠不足丶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>十睡眠不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>熟练者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>召唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ss睡眠不足ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>师很</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功师狠烂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>狂战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>士拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>男气功师很菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>功师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>先驱者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功师很烂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>师狠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功师很烂丶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功师很懒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ll0110ll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功师废了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功运气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>加强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功该加强了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>先</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>先</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>功运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>熟练者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>睡眠不足罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>睡眠不足旅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>圣骑士很烂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>很烂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>悟空师很烂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>奇特木偶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>偶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#434</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功师很猛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>睡眠不足啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>总经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>背景色识字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功师很屌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>快递员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0.75-0.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>快递快递员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>快递员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功师很送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>能量不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>史上最菜气功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>爷的圣光最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>爷的圣光最混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>熟练者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>造就师很狂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>睡眠不足风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>睡眠不足啊啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>熟练者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功师很懒1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一二(l11l)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头师很差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+  </si>
+  <si>
+    <t>熟练者</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>师很</t>
+  </si>
+  <si>
+    <t>#140</t>
   </si>
   <si>
     <t>一二(l11l)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最叼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨水不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽不足了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗头师很差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑师很牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足巛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶无敌了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -545,7 +560,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,10 +569,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -635,10 +665,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -654,9 +688,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -664,15 +705,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -714,7 +752,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,7 +787,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1679,7 +1717,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1705,7 +1743,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1731,7 +1769,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -1740,7 +1778,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>11</v>
@@ -1753,28 +1791,28 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="B31" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="17">
         <v>0.75</v>
       </c>
     </row>
@@ -1783,51 +1821,51 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H32">
+      <c r="G33" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H33">
         <v>0.85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0.75</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1835,33 +1873,33 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>23</v>
+        <v>134</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
       </c>
       <c r="G34" s="5">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="H34" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="6">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>82</v>
+      <c r="B35" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>8</v>
@@ -1869,16 +1907,16 @@
       <c r="D35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H35" s="6">
+      <c r="E35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -1887,7 +1925,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>8</v>
@@ -1896,16 +1934,16 @@
         <v>10</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="G36" s="6">
         <v>0.75</v>
       </c>
       <c r="H36" s="6">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -1913,19 +1951,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G37" s="6">
         <v>0.75</v>
@@ -1939,10 +1977,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>88</v>
@@ -1965,13 +2003,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>80</v>
@@ -1983,7 +2021,7 @@
         <v>0.75</v>
       </c>
       <c r="H39" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
@@ -1991,7 +2029,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -2017,7 +2055,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -2043,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -2069,7 +2107,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -2091,28 +2129,28 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="11">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H44" s="11">
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H44" s="6">
         <v>0.75</v>
       </c>
     </row>
@@ -2121,13 +2159,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>22</v>
@@ -2147,7 +2185,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>8</v>
@@ -2169,28 +2207,28 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="9">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="B47" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="14">
+      <c r="E47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="5">
         <v>0.85</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="11">
         <v>0.75</v>
       </c>
     </row>
@@ -2199,13 +2237,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>9</v>
@@ -2213,8 +2251,8 @@
       <c r="F48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="9">
-        <v>0.75</v>
+      <c r="G48" s="14">
+        <v>0.85</v>
       </c>
       <c r="H48" s="9">
         <v>0.75</v>
@@ -2225,13 +2263,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>9</v>
@@ -2239,8 +2277,8 @@
       <c r="F49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="14">
-        <v>0.85</v>
+      <c r="G49" s="9">
+        <v>0.75</v>
       </c>
       <c r="H49" s="9">
         <v>0.75</v>
@@ -2251,13 +2289,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>9</v>
@@ -2265,8 +2303,8 @@
       <c r="F50" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="9">
-        <v>0.75</v>
+      <c r="G50" s="14">
+        <v>0.85</v>
       </c>
       <c r="H50" s="9">
         <v>0.75</v>
@@ -2277,35 +2315,47 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="9"/>
+        <v>116</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="11"/>
+      <c r="B52" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2319,7 +2369,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2333,7 +2383,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2343,93 +2393,93 @@
       <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
         <v>8</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="12">
+      <c r="G57" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="12">
         <v>20</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G57" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="G58" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75">
-        <v>0.85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
         <v>71</v>
@@ -2437,30 +2487,30 @@
       <c r="C76" t="s">
         <v>72</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78">
-        <v>0.9</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>79</v>
@@ -2471,34 +2521,48 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D80">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" t="s">
         <v>125</v>
       </c>
-      <c r="B81" t="s">
-        <v>126</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>11</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>0.86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2512,7 +2576,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2525,7 +2589,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1512,10 +1512,10 @@
         <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>22</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="140">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -550,6 +550,26 @@
   </si>
   <si>
     <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶就是混</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -996,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1921,153 +1941,141 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="6">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="19">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="E38" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="19">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0.9</v>
+      <c r="E39" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="6">
+      <c r="A40" s="19">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="B40" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G41" s="6">
         <v>0.75</v>
@@ -2078,42 +2086,42 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G42" s="6">
         <v>0.75</v>
       </c>
       <c r="H42" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>80</v>
@@ -2125,21 +2133,21 @@
         <v>0.75</v>
       </c>
       <c r="H43" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>80</v>
@@ -2151,413 +2159,543 @@
         <v>0.75</v>
       </c>
       <c r="H44" s="6">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="11">
+      <c r="A45" s="6">
+        <v>39</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
+        <v>40</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="6">
+        <v>41</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="6">
+        <v>42</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
+        <v>43</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D50" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G50" s="5">
         <v>0.85</v>
       </c>
-      <c r="H45" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="11">
+      <c r="H50" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G51" s="5">
         <v>0.85</v>
       </c>
-      <c r="H46" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="11">
+      <c r="H51" s="11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B52" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D52" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G52" s="5">
         <v>0.85</v>
       </c>
-      <c r="H47" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="9">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H49" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="9">
-        <v>49</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="9">
-        <v>50</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="9">
-        <v>51</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
-        <v>52</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
-        <v>53</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
-        <v>54</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
+        <v>50</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="9">
+        <v>51</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="9">
+        <v>52</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="9">
+        <v>53</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="9">
+        <v>54</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="9">
         <v>55</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="1">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
         <v>8</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="12">
+      <c r="G62" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="12">
         <v>20</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G58" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="G63" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I63" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75">
         <v>1111</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>66</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B80" t="s">
         <v>67</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C80" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80">
-        <v>0.9</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D81">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>124</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B87" t="s">
         <v>125</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C87" t="s">
         <v>11</v>
       </c>
-      <c r="D82">
+      <c r="D87">
         <v>0.86</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -725,12 +725,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -772,7 +775,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,7 +810,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1018,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>82</v>
@@ -2086,7 +2089,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>86</v>
@@ -2112,7 +2115,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>87</v>
@@ -2138,7 +2141,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>89</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>101</v>
@@ -2190,7 +2193,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>102</v>
@@ -2216,7 +2219,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>103</v>
@@ -2242,7 +2245,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>104</v>
@@ -2268,7 +2271,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>105</v>
@@ -2294,7 +2297,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="11">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>91</v>
@@ -2320,7 +2323,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>119</v>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="11">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>121</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>109</v>
@@ -2398,7 +2401,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>110</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>111</v>
@@ -2450,16 +2453,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>9</v>
@@ -2467,8 +2470,8 @@
       <c r="F56" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="9">
-        <v>0.75</v>
+      <c r="G56" s="14">
+        <v>0.85</v>
       </c>
       <c r="H56" s="9">
         <v>0.75</v>
@@ -2476,35 +2479,59 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="9"/>
+        <v>116</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="11"/>
+      <c r="C58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>113</v>
@@ -2518,7 +2545,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>114</v>
@@ -2532,7 +2559,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>115</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="152">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -570,6 +570,54 @@
   </si>
   <si>
     <t>爷的奶就是混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力气师很大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,6 +708,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -692,7 +746,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -713,6 +767,8 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -733,7 +789,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -775,7 +831,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,7 +866,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1019,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2269,7 +2325,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -2295,7 +2351,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -2321,7 +2377,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -2347,7 +2403,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -2373,7 +2429,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
         <v>52</v>
       </c>
@@ -2399,7 +2455,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>53</v>
       </c>
@@ -2425,7 +2481,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
         <v>54</v>
       </c>
@@ -2451,7 +2507,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
         <v>55</v>
       </c>
@@ -2477,7 +2533,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
         <v>56</v>
       </c>
@@ -2503,7 +2559,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>57</v>
       </c>
@@ -2529,7 +2585,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
         <v>58</v>
       </c>
@@ -2543,7 +2599,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
         <v>59</v>
       </c>
@@ -2557,7 +2613,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
         <v>60</v>
       </c>
@@ -2571,159 +2627,406 @@
       <c r="G61" s="5"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="1">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="20">
+        <v>61</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H62" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="20">
+        <v>62</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H63" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="20">
+        <v>63</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H64" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="20">
+        <v>64</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H65" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="20">
+        <v>65</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H66" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="20">
+        <v>66</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H67" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="20">
+        <v>67</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H68" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="20">
+        <v>68</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="20">
+        <v>69</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="20">
+        <v>70</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="20">
+        <v>71</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="12">
+      <c r="G73" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="12">
         <v>20</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H63" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="G74" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I74" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
         <v>1111</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>66</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B91" t="s">
         <v>67</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C91" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>70</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B92" t="s">
         <v>71</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C92" t="s">
         <v>72</v>
       </c>
-      <c r="D81">
+      <c r="D92">
         <v>0.85</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>98</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B93" t="s">
         <v>71</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C93" t="s">
         <v>72</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D93" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>77</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B95" t="s">
         <v>78</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C95" t="s">
         <v>79</v>
       </c>
-      <c r="D84">
+      <c r="D95">
         <v>0.9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>80</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B96" t="s">
         <v>81</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C96" t="s">
         <v>79</v>
       </c>
-      <c r="D85">
+      <c r="D96">
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>106</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B97" t="s">
         <v>107</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C97" t="s">
         <v>108</v>
       </c>
-      <c r="D86">
+      <c r="D97">
         <v>0.8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>124</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B98" t="s">
         <v>125</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C98" t="s">
         <v>11</v>
       </c>
-      <c r="D87">
+      <c r="D98">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -1213,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H5" s="3">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="158">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -618,6 +618,30 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +683,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +738,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -746,7 +776,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -769,6 +799,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -789,7 +820,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -831,7 +862,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -866,7 +897,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1075,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2852,181 +2883,246 @@
       <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="20">
+      <c r="A72" s="22">
         <v>71</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="11"/>
+      <c r="B72" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H72" s="20">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
-        <v>8</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="A73" s="22">
+        <v>72</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H73" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="22">
+        <v>73</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H73" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="12">
+      <c r="G75" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="12">
         <v>20</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G74" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H74" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="G76" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I76" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>66</v>
-      </c>
-      <c r="B91" t="s">
-        <v>67</v>
-      </c>
-      <c r="C91" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92">
-        <v>0.85</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" t="s">
         <v>71</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>72</v>
       </c>
-      <c r="D93" t="s">
-        <v>73</v>
+      <c r="D94">
+        <v>0.85</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C95" t="s">
-        <v>79</v>
-      </c>
-      <c r="D95">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>80</v>
-      </c>
-      <c r="B96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" t="s">
-        <v>79</v>
-      </c>
-      <c r="D96">
-        <v>0.9</v>
+        <v>72</v>
+      </c>
+      <c r="D95" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D97">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D98">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
         <v>150</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B101" t="s">
         <v>151</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="159">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -642,6 +642,10 @@
   </si>
   <si>
     <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1106,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2941,101 +2945,125 @@
       <c r="B74" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="11"/>
+      <c r="C74" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H74" s="20">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
-        <v>8</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="A75" s="22">
+        <v>74</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H75" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H75" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="12">
+      <c r="G76" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="12">
         <v>20</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G76" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H76" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="G77" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H77" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I77" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94">
-        <v>0.85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B95" t="s">
         <v>71</v>
@@ -3043,30 +3071,30 @@
       <c r="C95" t="s">
         <v>72</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>77</v>
-      </c>
-      <c r="B97" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" t="s">
-        <v>79</v>
-      </c>
-      <c r="D97">
-        <v>0.9</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C98" t="s">
         <v>79</v>
@@ -3077,51 +3105,65 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D99">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="D100">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
       </c>
+      <c r="D101">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>152</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>153</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>154</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -820,7 +820,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -862,7 +862,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -897,7 +897,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2467,11 +2467,11 @@
       <c r="B53" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>68</v>
+      <c r="C53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>9</v>
@@ -2480,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="14">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="H53" s="9">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="109">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,6 @@
   </si>
   <si>
     <t>#400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -465,7 +461,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +471,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -558,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -573,6 +584,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -879,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -999,14 +1012,14 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -1015,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H5" s="3">
         <v>0.75</v>
@@ -1052,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1078,13 +1091,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>94</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1104,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1156,19 +1169,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G11" s="3">
         <v>0.88</v>
@@ -1179,10 +1192,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1292,7 +1305,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>29</v>
@@ -1364,7 +1377,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1390,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1416,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1442,19 +1455,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="G22" s="5">
         <v>0.88</v>
@@ -1572,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1598,7 +1611,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1624,7 +1637,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1650,19 +1663,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" s="5">
         <v>0.75</v>
@@ -1676,7 +1689,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
@@ -1685,10 +1698,10 @@
         <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="5">
         <v>0.92</v>
@@ -1702,7 +1715,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
@@ -1728,7 +1741,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>8</v>
@@ -1754,7 +1767,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>8</v>
@@ -1763,10 +1776,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G34" s="6">
         <v>0.75</v>
@@ -1780,19 +1793,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" s="6">
         <v>0.75</v>
@@ -1806,19 +1819,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" s="6">
         <v>0.75</v>
@@ -1832,7 +1845,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -1841,10 +1854,10 @@
         <v>10</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" s="6">
         <v>0.75</v>
@@ -1858,7 +1871,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -1867,10 +1880,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" s="6">
         <v>0.75</v>
@@ -1884,7 +1897,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -1893,10 +1906,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39" s="6">
         <v>0.75</v>
@@ -1910,7 +1923,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -1919,10 +1932,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G40" s="6">
         <v>0.75</v>
@@ -1936,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -1945,10 +1958,10 @@
         <v>10</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G41" s="6">
         <v>0.75</v>
@@ -1962,13 +1975,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>22</v>
@@ -2000,7 +2013,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -2026,7 +2039,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>18</v>
@@ -2047,7 +2060,7 @@
         <v>0.75</v>
       </c>
       <c r="I45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -2057,24 +2070,24 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>67</v>
-      </c>
-      <c r="C62" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
         <v>70</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>71</v>
-      </c>
-      <c r="C63" t="s">
-        <v>72</v>
       </c>
       <c r="D63">
         <v>0.85</v>
@@ -2082,27 +2095,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
         <v>71</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>72</v>
-      </c>
-      <c r="D64" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
         <v>78</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>79</v>
-      </c>
-      <c r="C66" t="s">
-        <v>80</v>
       </c>
       <c r="D66">
         <v>0.9</v>
@@ -2110,13 +2123,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
         <v>81</v>
       </c>
-      <c r="B67" t="s">
-        <v>82</v>
-      </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67">
         <v>0.9</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -824,7 +824,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -866,7 +866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,7 +901,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1158,10 +1158,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1170,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H2" s="3">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -561,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,6 +610,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -638,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -654,6 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -961,7 +968,7 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1681,10 +1688,10 @@
       <c r="B28" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="4" t="s">

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -968,7 +968,7 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1169,10 +1169,10 @@
         <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,10 +207,6 @@
   </si>
   <si>
     <t>功运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -780,10 +776,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1113,7 +1108,7 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1169,10 +1164,10 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>0.92</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1187,7 +1182,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -1195,10 +1190,10 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.92</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.92</v>
       </c>
     </row>
@@ -1210,10 +1205,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1221,10 +1216,10 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="H4" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1247,10 +1242,10 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.92</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1265,7 +1260,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1273,10 +1268,10 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.92</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1285,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1299,10 +1294,10 @@
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1310,14 +1305,14 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>92</v>
+      <c r="B8" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1325,10 +1320,10 @@
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1336,8 +1331,8 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>93</v>
+      <c r="B9" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1351,10 +1346,10 @@
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1365,10 +1360,10 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1377,10 +1372,10 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.92</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1389,33 +1384,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.88</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1429,18 +1424,18 @@
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>0.92</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1449,50 +1444,50 @@
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>0.92</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="4">
         <v>0.98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1501,103 +1496,103 @@
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.88</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>0.81</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>0.92</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>0.81</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.91</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>64</v>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1605,25 +1600,25 @@
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G19" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H19" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>69</v>
+      <c r="B20" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -1631,25 +1626,25 @@
       <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="G20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H20" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>97</v>
+      <c r="B21" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1657,76 +1652,76 @@
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="G21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>0.88</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>0.88</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>0.92</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>0.91</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1735,77 +1730,77 @@
       <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="G24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="7">
         <v>0.81</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>0.95</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>0.85</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>0.95</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>0.91</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>76</v>
+      <c r="B27" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1813,25 +1808,25 @@
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>128</v>
+      <c r="B28" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1839,143 +1834,143 @@
       <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="G28" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
-        <v>30</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G32" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H32" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>74</v>
+      <c r="B33" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>75</v>
+      <c r="E33" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="5">
+        <v>83</v>
+      </c>
+      <c r="G33" s="4">
         <v>0.75</v>
       </c>
       <c r="H33">
@@ -1983,63 +1978,63 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="19">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>137</v>
+      <c r="B36" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2047,25 +2042,25 @@
       <c r="D36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="G36" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H36" s="7">
         <v>0.81</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>135</v>
+      <c r="B37" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2073,195 +2068,195 @@
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H37" s="17">
+      <c r="G37" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H38" s="17">
+      <c r="G38" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H38" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="18">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H39" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="19">
-        <v>39</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="6">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="E41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="F42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H42" s="6">
+      <c r="C43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H43" s="5">
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H43" s="6">
+      <c r="E44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H44" s="5">
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>101</v>
+      <c r="B45" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -2269,25 +2264,25 @@
       <c r="D45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H45" s="6">
+      <c r="E45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H45" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>102</v>
+      <c r="B46" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2295,25 +2290,25 @@
       <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H46" s="6">
+      <c r="E46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H46" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>103</v>
+      <c r="B47" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -2321,25 +2316,25 @@
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H47" s="6">
+      <c r="E47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H47" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>104</v>
+      <c r="B48" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2347,25 +2342,25 @@
       <c r="D48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H48" s="6">
+      <c r="E48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H48" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>105</v>
+      <c r="B49" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2373,620 +2368,620 @@
       <c r="D49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H49" s="6">
+      <c r="E49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H49" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="11" t="s">
+      <c r="B50" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="C51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G51" s="4">
         <v>0.85</v>
       </c>
-      <c r="H50" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="11">
-        <v>50</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="H51" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="10">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="D55" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="13">
         <v>0.85</v>
       </c>
-      <c r="H51" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="11">
+      <c r="H55" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="H56" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="9">
-        <v>52</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D57" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="9">
-        <v>53</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="G57" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="9">
-        <v>54</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="9">
-        <v>55</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="G58" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="9">
-        <v>56</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="9">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="9">
-        <v>58</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="11"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="9">
+      <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="B60" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="11"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="B61" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="11"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="20">
+      <c r="A62" s="19">
         <v>61</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H62" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="19">
+        <v>62</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="20" t="s">
+      <c r="C63" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H63" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="19">
+        <v>63</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H64" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="19">
+        <v>64</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H65" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="19">
+        <v>65</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H66" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="19">
+        <v>66</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H67" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="19">
+        <v>67</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H68" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="19">
         <v>68</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="B69" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="19">
+        <v>69</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="19">
+        <v>70</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="21">
+        <v>71</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F72" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G72" s="20">
         <v>0.85</v>
       </c>
-      <c r="H62" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="20">
-        <v>62</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="20" t="s">
+      <c r="H72" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="21">
+        <v>72</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F73" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G73" s="20">
         <v>0.85</v>
       </c>
-      <c r="H63" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="20">
-        <v>63</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="20" t="s">
+      <c r="H73" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="21">
+        <v>73</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F74" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G74" s="20">
         <v>0.85</v>
       </c>
-      <c r="H64" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="20">
-        <v>64</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E65" s="20" t="s">
+      <c r="H74" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="21">
+        <v>74</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F75" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G75" s="20">
         <v>0.85</v>
       </c>
-      <c r="H65" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="20">
-        <v>65</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H66" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="20">
-        <v>66</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H67" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="20">
-        <v>67</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H68" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="20">
-        <v>68</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="20">
-        <v>69</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="20">
-        <v>70</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="22">
-        <v>71</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H72" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="22">
-        <v>72</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H73" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="22">
-        <v>73</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H74" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="22">
-        <v>74</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H75" s="20">
+      <c r="H75" s="19">
         <v>0.75</v>
       </c>
     </row>
@@ -2995,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
@@ -3009,19 +3004,19 @@
       <c r="F76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="G76" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H76" s="2">
         <v>0.75</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="12">
+      <c r="A77" s="11">
         <v>20</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>59</v>
+      <c r="B77" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>18</v>
@@ -3029,20 +3024,20 @@
       <c r="D77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H77" s="5">
+      <c r="G77" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H77" s="4">
         <v>0.75</v>
       </c>
       <c r="I77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -3052,24 +3047,24 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" t="s">
         <v>66</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>67</v>
-      </c>
-      <c r="C94" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" t="s">
         <v>70</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>71</v>
-      </c>
-      <c r="C95" t="s">
-        <v>72</v>
       </c>
       <c r="D95">
         <v>0.85</v>
@@ -3077,27 +3072,27 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" t="s">
         <v>71</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>72</v>
-      </c>
-      <c r="D96" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
         <v>77</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>78</v>
-      </c>
-      <c r="C98" t="s">
-        <v>79</v>
       </c>
       <c r="D98">
         <v>0.9</v>
@@ -3105,13 +3100,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" t="s">
         <v>80</v>
       </c>
-      <c r="B99" t="s">
-        <v>81</v>
-      </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D99">
         <v>0.9</v>
@@ -3119,13 +3114,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
         <v>106</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>107</v>
-      </c>
-      <c r="C100" t="s">
-        <v>108</v>
       </c>
       <c r="D100">
         <v>0.8</v>
@@ -3133,10 +3128,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s">
         <v>124</v>
-      </c>
-      <c r="B101" t="s">
-        <v>125</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -3147,10 +3142,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" t="s">
         <v>150</v>
-      </c>
-      <c r="B102" t="s">
-        <v>151</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -3158,13 +3153,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" t="s">
         <v>152</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>153</v>
-      </c>
-      <c r="C103" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1210,10 +1210,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1222,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H4" s="3">
         <v>0.75</v>
@@ -1314,10 +1314,10 @@
         <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -2263,11 +2263,11 @@
       <c r="B45" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>10</v>
+      <c r="C45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>80</v>
@@ -2471,11 +2471,11 @@
       <c r="B53" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>68</v>
+      <c r="C53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>9</v>
@@ -2484,7 +2484,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="14">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="H53" s="9">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1928,10 +1928,10 @@
         <v>82</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>9</v>
@@ -2031,11 +2031,11 @@
       <c r="B40" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>10</v>
+      <c r="C40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>80</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -824,7 +824,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -866,7 +866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,7 +901,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2160,10 +2160,10 @@
         <v>82</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>9</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -495,10 +495,6 @@
   </si>
   <si>
     <t>狗头师很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -780,7 +776,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -795,7 +791,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -824,7 +819,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -866,7 +861,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,7 +896,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1112,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1831,7 +1826,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1857,7 +1852,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1883,7 +1878,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -1892,7 +1887,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>11</v>
@@ -1905,28 +1900,28 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="E31" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="17">
+      <c r="G31" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="16">
         <v>0.75</v>
       </c>
     </row>
@@ -1935,7 +1930,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
@@ -1957,7 +1952,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1987,7 +1982,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>13</v>
@@ -2009,7 +2004,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="19">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -2039,7 +2034,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2061,11 +2056,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2073,16 +2068,16 @@
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H37" s="17">
+      <c r="G37" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="16">
         <v>0.75</v>
       </c>
     </row>
@@ -2091,7 +2086,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>8</v>
@@ -2099,25 +2094,25 @@
       <c r="D38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H38" s="17">
+      <c r="G38" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H38" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>8</v>
@@ -2125,25 +2120,25 @@
       <c r="D39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H39" s="17">
+      <c r="G39" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="19">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2443,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>8</v>
@@ -2472,10 +2467,10 @@
         <v>109</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>9</v>
@@ -2483,8 +2478,8 @@
       <c r="F53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="14">
-        <v>0.85</v>
+      <c r="G53" s="9">
+        <v>0.75</v>
       </c>
       <c r="H53" s="9">
         <v>0.75</v>
@@ -2524,10 +2519,10 @@
         <v>111</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>9</v>
@@ -2535,8 +2530,8 @@
       <c r="F55" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="14">
-        <v>0.85</v>
+      <c r="G55" s="9">
+        <v>0.75</v>
       </c>
       <c r="H55" s="9">
         <v>0.75</v>
@@ -2561,7 +2556,7 @@
       <c r="F56" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="9">
         <v>0.85</v>
       </c>
       <c r="H56" s="9">
@@ -2663,330 +2658,330 @@
       <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="20">
+      <c r="A62" s="19">
         <v>61</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H62" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="19">
+        <v>62</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="20" t="s">
+      <c r="C63" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E63" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F63" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G63" s="20">
         <v>0.85</v>
       </c>
-      <c r="H62" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="20">
-        <v>62</v>
-      </c>
-      <c r="B63" s="20" t="s">
+      <c r="H63" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="19">
+        <v>63</v>
+      </c>
+      <c r="B64" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="20" t="s">
+      <c r="C64" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E64" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F64" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G64" s="20">
         <v>0.85</v>
       </c>
-      <c r="H63" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="20">
-        <v>63</v>
-      </c>
-      <c r="B64" s="20" t="s">
+      <c r="H64" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="19">
+        <v>64</v>
+      </c>
+      <c r="B65" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="20" t="s">
+      <c r="C65" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E65" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F65" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G65" s="20">
         <v>0.85</v>
       </c>
-      <c r="H64" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="20">
-        <v>64</v>
-      </c>
-      <c r="B65" s="20" t="s">
+      <c r="H65" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="19">
+        <v>65</v>
+      </c>
+      <c r="B66" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="20" t="s">
+      <c r="C66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E66" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F66" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G66" s="20">
         <v>0.85</v>
       </c>
-      <c r="H65" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="20">
-        <v>65</v>
-      </c>
-      <c r="B66" s="20" t="s">
+      <c r="H66" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="19">
+        <v>66</v>
+      </c>
+      <c r="B67" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="20" t="s">
+      <c r="C67" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E67" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F67" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G67" s="20">
         <v>0.85</v>
       </c>
-      <c r="H66" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="20">
-        <v>66</v>
-      </c>
-      <c r="B67" s="20" t="s">
+      <c r="H67" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="19">
+        <v>67</v>
+      </c>
+      <c r="B68" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="20" t="s">
+      <c r="C68" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E68" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F68" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G68" s="20">
         <v>0.85</v>
       </c>
-      <c r="H67" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="20">
-        <v>67</v>
-      </c>
-      <c r="B68" s="20" t="s">
+      <c r="H68" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="19">
+        <v>68</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H68" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="20">
-        <v>68</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
       <c r="G69" s="5"/>
       <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="20">
+      <c r="A70" s="19">
         <v>69</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="B70" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
       <c r="G70" s="5"/>
       <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="20">
+      <c r="A71" s="19">
         <v>70</v>
       </c>
-      <c r="B71" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="B71" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
       <c r="G71" s="5"/>
       <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="22">
+      <c r="A72" s="21">
         <v>71</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H72" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="21">
+        <v>72</v>
+      </c>
+      <c r="B73" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="20" t="s">
+      <c r="C73" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E73" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F73" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G73" s="20">
         <v>0.85</v>
       </c>
-      <c r="H72" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="22">
-        <v>72</v>
-      </c>
-      <c r="B73" s="20" t="s">
+      <c r="H73" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="21">
+        <v>73</v>
+      </c>
+      <c r="B74" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="20" t="s">
+      <c r="C74" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E74" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F74" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G74" s="20">
         <v>0.85</v>
       </c>
-      <c r="H73" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="22">
-        <v>73</v>
-      </c>
-      <c r="B74" s="20" t="s">
+      <c r="H74" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="21">
+        <v>74</v>
+      </c>
+      <c r="B75" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="20" t="s">
+      <c r="C75" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E75" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F75" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G74" s="21">
+      <c r="G75" s="20">
         <v>0.85</v>
       </c>
-      <c r="H74" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="22">
-        <v>74</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H75" s="20">
+      <c r="H75" s="19">
         <v>0.75</v>
       </c>
     </row>
@@ -3133,10 +3128,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s">
         <v>124</v>
-      </c>
-      <c r="B101" t="s">
-        <v>125</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -3147,10 +3142,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" t="s">
         <v>150</v>
-      </c>
-      <c r="B102" t="s">
-        <v>151</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -3158,13 +3153,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" t="s">
         <v>152</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>153</v>
-      </c>
-      <c r="C103" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="160">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -646,6 +646,10 @@
   </si>
   <si>
     <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +828,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -866,7 +870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,7 +905,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1110,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2893,11 +2897,11 @@
       <c r="B72" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>68</v>
+      <c r="C72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>22</v>
@@ -2906,7 +2910,7 @@
         <v>23</v>
       </c>
       <c r="G72" s="21">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="H72" s="20">
         <v>0.75</v>
@@ -2932,7 +2936,7 @@
         <v>23</v>
       </c>
       <c r="G73" s="21">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="H73" s="20">
         <v>0.75</v>
@@ -2958,7 +2962,7 @@
         <v>23</v>
       </c>
       <c r="G74" s="21">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="H74" s="20">
         <v>0.75</v>
@@ -2984,100 +2988,112 @@
         <v>23</v>
       </c>
       <c r="G75" s="21">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="H75" s="20">
         <v>0.75</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="1">
+      <c r="A76" s="22">
+        <v>75</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="D76" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="H76" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="12">
+      <c r="G77" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="12">
         <v>20</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H77" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="G78" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I78" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>66</v>
-      </c>
-      <c r="B94" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C95" t="s">
-        <v>72</v>
-      </c>
-      <c r="D95">
-        <v>0.85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B96" t="s">
         <v>71</v>
@@ -3085,30 +3101,30 @@
       <c r="C96" t="s">
         <v>72</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>77</v>
-      </c>
-      <c r="B98" t="s">
-        <v>78</v>
-      </c>
-      <c r="C98" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98">
-        <v>0.9</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C99" t="s">
         <v>79</v>
@@ -3119,51 +3135,65 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D100">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="D101">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
       </c>
+      <c r="D102">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>152</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>153</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>154</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="166">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -502,154 +502,178 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+  </si>
+  <si>
+    <t>熟练者</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>师很</t>
+  </si>
+  <si>
+    <t>#140</t>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶就是混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力气师很大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>建筑师很牛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>睡眠不足巛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶无敌了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水</t>
-  </si>
-  <si>
-    <t>熟练者</t>
-  </si>
-  <si>
-    <t>#81</t>
-  </si>
-  <si>
-    <t>师很</t>
-  </si>
-  <si>
-    <t>#140</t>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很涸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶就是混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力气师很大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解师很哦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解师很油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拯救师很野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很苦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很水</t>
+    <t>拉梅师很开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -828,7 +852,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -870,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -905,7 +929,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1114,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1835,7 +1859,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1861,7 +1885,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1887,7 +1911,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -1896,7 +1920,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>11</v>
@@ -1913,19 +1937,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="G31" s="17">
         <v>0.75</v>
@@ -1939,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
@@ -1991,7 +2015,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>13</v>
@@ -2043,7 +2067,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2069,7 +2093,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2078,10 +2102,10 @@
         <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="G37" s="17">
         <v>0.75</v>
@@ -2095,7 +2119,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>8</v>
@@ -2104,10 +2128,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="G38" s="17">
         <v>0.75</v>
@@ -2121,7 +2145,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>8</v>
@@ -2130,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="G39" s="17">
         <v>0.75</v>
@@ -2147,7 +2171,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2397,11 +2421,11 @@
       <c r="B50" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>118</v>
+      <c r="C50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>22</v>
@@ -2409,8 +2433,8 @@
       <c r="F50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="5">
-        <v>0.85</v>
+      <c r="G50" s="6">
+        <v>0.75</v>
       </c>
       <c r="H50" s="11">
         <v>0.75</v>
@@ -2447,7 +2471,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>8</v>
@@ -2469,365 +2493,329 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="9">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="H53" s="9">
+      <c r="B53" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H53" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="9">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H54" s="9">
+      <c r="B54" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H54" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="9">
+      <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="14">
+      <c r="B55" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="5">
         <v>0.85</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="11">
         <v>0.75</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="9">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0.75</v>
-      </c>
+      <c r="B56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="9">
+      <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0.75</v>
-      </c>
+      <c r="B57" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="9">
+      <c r="A58" s="11">
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0.75</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="11"/>
+      <c r="B59" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="11"/>
+      <c r="B60" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H64" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="20">
-        <v>61</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H62" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="20">
-        <v>62</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H63" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="20">
-        <v>63</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H64" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="20">
-        <v>64</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H65" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="20">
-        <v>65</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H66" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="20">
-        <v>66</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H67" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="20">
         <v>67</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C68" s="20" t="s">
         <v>8</v>
@@ -2848,60 +2836,96 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="20">
         <v>68</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H69" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="20">
         <v>69</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H70" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="20">
         <v>70</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="22">
+        <v>142</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H71" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="20">
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>19</v>
+        <v>143</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>22</v>
@@ -2910,18 +2934,18 @@
         <v>23</v>
       </c>
       <c r="G72" s="21">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="H72" s="20">
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="22">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="20">
         <v>72</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>8</v>
@@ -2936,18 +2960,18 @@
         <v>23</v>
       </c>
       <c r="G73" s="21">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="H73" s="20">
         <v>0.75</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="22">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="20">
         <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>8</v>
@@ -2962,239 +2986,359 @@
         <v>23</v>
       </c>
       <c r="G74" s="21">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="H74" s="20">
         <v>0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="22">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="20">
         <v>74</v>
       </c>
       <c r="B75" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="20">
+        <v>75</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="20">
+        <v>76</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="22">
+        <v>77</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="H78" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="22">
+        <v>78</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="H79" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="22">
+        <v>79</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="H80" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="22">
+        <v>80</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="H81" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="22">
+        <v>81</v>
+      </c>
+      <c r="B82" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C82" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D82" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E82" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F82" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G75" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="H75" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="22">
-        <v>75</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" s="20" t="s">
+      <c r="G82" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="H82" s="20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
         <v>8</v>
       </c>
-      <c r="D76" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E76" s="20" t="s">
+      <c r="B83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="12">
+        <v>20</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F76" s="20" t="s">
+      <c r="F84" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G76" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="H76" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
-        <v>8</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H77" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="12">
-        <v>20</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H78" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="G84" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I84" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96">
         <v>1111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" t="s">
-        <v>71</v>
-      </c>
-      <c r="C96" t="s">
-        <v>72</v>
-      </c>
-      <c r="D96">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" t="s">
-        <v>71</v>
-      </c>
-      <c r="C97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D97" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>77</v>
-      </c>
-      <c r="B99" t="s">
-        <v>78</v>
-      </c>
-      <c r="C99" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>80</v>
-      </c>
-      <c r="B100" t="s">
-        <v>81</v>
-      </c>
-      <c r="C100" t="s">
-        <v>79</v>
-      </c>
-      <c r="D100">
-        <v>0.9</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C101" t="s">
-        <v>108</v>
-      </c>
-      <c r="D101">
-        <v>0.8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D102">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" t="s">
         <v>150</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
         <v>151</v>
       </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+      <c r="B110" t="s">
         <v>152</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C110" t="s">
         <v>153</v>
-      </c>
-      <c r="C104" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -585,95 +585,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉梅师很开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解师很哦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解师很油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拯救师很野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很苦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏师很利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀师很美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉梅师很开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高台师很恶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2471,7 +2471,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>8</v>
@@ -2497,7 +2497,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>8</v>
@@ -2523,7 +2523,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>8</v>
@@ -2549,7 +2549,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>8</v>
@@ -2575,7 +2575,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2589,7 +2589,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2603,7 +2603,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2817,20 +2817,20 @@
       <c r="B68" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="21">
-        <v>0.85</v>
+      <c r="C68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0.75</v>
       </c>
       <c r="H68" s="20">
         <v>0.75</v>
@@ -2919,7 +2919,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>8</v>
@@ -2945,7 +2945,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>8</v>
@@ -2971,7 +2971,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -3011,7 +3011,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -3025,7 +3025,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -3039,7 +3039,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>18</v>
@@ -3065,7 +3065,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>8</v>
@@ -3091,7 +3091,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>8</v>
@@ -3117,7 +3117,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>8</v>
@@ -3143,7 +3143,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>8</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" t="s">
         <v>149</v>
-      </c>
-      <c r="B109" t="s">
-        <v>150</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -3332,13 +3332,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
         <v>151</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>152</v>
-      </c>
-      <c r="C110" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="158">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -495,10 +495,6 @@
   </si>
   <si>
     <t>狗头师很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -780,7 +776,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -795,7 +791,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1113,7 +1108,7 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1831,7 +1826,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1857,7 +1852,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1883,7 +1878,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -1892,7 +1887,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>11</v>
@@ -1905,28 +1900,28 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="E31" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="17">
+      <c r="G31" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="16">
         <v>0.75</v>
       </c>
     </row>
@@ -1935,7 +1930,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
@@ -1957,7 +1952,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1987,7 +1982,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>13</v>
@@ -2009,7 +2004,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="19">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -2039,7 +2034,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2061,11 +2056,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2073,16 +2068,16 @@
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H37" s="17">
+      <c r="G37" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="16">
         <v>0.75</v>
       </c>
     </row>
@@ -2091,7 +2086,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>8</v>
@@ -2099,25 +2094,25 @@
       <c r="D38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H38" s="17">
+      <c r="G38" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H38" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>8</v>
@@ -2125,25 +2120,25 @@
       <c r="D39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H39" s="17">
+      <c r="G39" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="19">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2443,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>8</v>
@@ -2483,7 +2478,7 @@
       <c r="F53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="9">
         <v>0.75</v>
       </c>
       <c r="H53" s="9">
@@ -2524,10 +2519,10 @@
         <v>111</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>9</v>
@@ -2535,8 +2530,8 @@
       <c r="F55" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="14">
-        <v>0.85</v>
+      <c r="G55" s="9">
+        <v>0.75</v>
       </c>
       <c r="H55" s="9">
         <v>0.75</v>
@@ -2561,7 +2556,7 @@
       <c r="F56" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="9">
         <v>0.85</v>
       </c>
       <c r="H56" s="9">
@@ -2576,10 +2571,10 @@
         <v>116</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>9</v>
@@ -2588,7 +2583,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="9">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="H57" s="9">
         <v>0.75</v>
@@ -2627,12 +2622,24 @@
       <c r="B59" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="11"/>
+      <c r="C59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
@@ -2663,330 +2670,330 @@
       <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="20">
+      <c r="A62" s="19">
         <v>61</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H62" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="19">
+        <v>62</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C63" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D63" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E63" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F63" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G63" s="20">
         <v>0.85</v>
       </c>
-      <c r="H62" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="20">
-        <v>62</v>
-      </c>
-      <c r="B63" s="20" t="s">
+      <c r="H63" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="19">
+        <v>63</v>
+      </c>
+      <c r="B64" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C64" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D64" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E64" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F64" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G64" s="20">
         <v>0.85</v>
       </c>
-      <c r="H63" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="20">
-        <v>63</v>
-      </c>
-      <c r="B64" s="20" t="s">
+      <c r="H64" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="19">
+        <v>64</v>
+      </c>
+      <c r="B65" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C65" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D65" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E65" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F65" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G65" s="20">
         <v>0.85</v>
       </c>
-      <c r="H64" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="20">
-        <v>64</v>
-      </c>
-      <c r="B65" s="20" t="s">
+      <c r="H65" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="19">
+        <v>65</v>
+      </c>
+      <c r="B66" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D66" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E66" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F66" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G66" s="20">
         <v>0.85</v>
       </c>
-      <c r="H65" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="20">
-        <v>65</v>
-      </c>
-      <c r="B66" s="20" t="s">
+      <c r="H66" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="19">
+        <v>66</v>
+      </c>
+      <c r="B67" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C67" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D67" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E67" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F67" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G67" s="20">
         <v>0.85</v>
       </c>
-      <c r="H66" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="20">
-        <v>66</v>
-      </c>
-      <c r="B67" s="20" t="s">
+      <c r="H67" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="19">
+        <v>67</v>
+      </c>
+      <c r="B68" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D68" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E68" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F68" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G68" s="20">
         <v>0.85</v>
       </c>
-      <c r="H67" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="20">
-        <v>67</v>
-      </c>
-      <c r="B68" s="20" t="s">
+      <c r="H68" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="19">
+        <v>68</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H68" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="20">
-        <v>68</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
       <c r="G69" s="5"/>
       <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="20">
+      <c r="A70" s="19">
         <v>69</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="B70" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
       <c r="G70" s="5"/>
       <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="20">
+      <c r="A71" s="19">
         <v>70</v>
       </c>
-      <c r="B71" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="B71" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
       <c r="G71" s="5"/>
       <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="22">
+      <c r="A72" s="21">
         <v>71</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H72" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="21">
+        <v>72</v>
+      </c>
+      <c r="B73" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D73" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E73" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F73" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G73" s="20">
         <v>0.85</v>
       </c>
-      <c r="H72" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="22">
-        <v>72</v>
-      </c>
-      <c r="B73" s="20" t="s">
+      <c r="H73" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="21">
+        <v>73</v>
+      </c>
+      <c r="B74" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D74" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E74" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F74" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G74" s="20">
         <v>0.85</v>
       </c>
-      <c r="H73" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="22">
-        <v>73</v>
-      </c>
-      <c r="B74" s="20" t="s">
+      <c r="H74" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="21">
+        <v>74</v>
+      </c>
+      <c r="B75" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D75" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E75" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F75" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G74" s="21">
+      <c r="G75" s="20">
         <v>0.85</v>
       </c>
-      <c r="H74" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="22">
-        <v>74</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H75" s="20">
+      <c r="H75" s="19">
         <v>0.75</v>
       </c>
     </row>
@@ -3133,10 +3140,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s">
         <v>124</v>
-      </c>
-      <c r="B101" t="s">
-        <v>125</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -3147,10 +3154,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" t="s">
         <v>150</v>
-      </c>
-      <c r="B102" t="s">
-        <v>151</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -3158,13 +3165,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" t="s">
         <v>152</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>153</v>
-      </c>
-      <c r="C103" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1141,7 +1141,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2724,10 +2724,10 @@
         <v>116</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>9</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="164">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -490,15 +490,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>狗头师很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1141,7 +1133,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1859,7 +1851,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1885,7 +1877,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1911,7 +1903,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -1920,7 +1912,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>11</v>
@@ -1937,19 +1929,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="F31" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="G31" s="17">
         <v>0.75</v>
@@ -1963,7 +1955,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
@@ -2015,7 +2007,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>13</v>
@@ -2067,7 +2059,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2093,7 +2085,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2102,10 +2094,10 @@
         <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G37" s="17">
         <v>0.75</v>
@@ -2119,7 +2111,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>8</v>
@@ -2128,10 +2120,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G38" s="17">
         <v>0.75</v>
@@ -2145,7 +2137,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>8</v>
@@ -2154,10 +2146,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G39" s="17">
         <v>0.75</v>
@@ -2171,7 +2163,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2445,7 +2437,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>8</v>
@@ -2471,7 +2463,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>8</v>
@@ -2497,7 +2489,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>8</v>
@@ -2523,7 +2515,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>8</v>
@@ -2549,7 +2541,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>8</v>
@@ -2575,7 +2567,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2589,7 +2581,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2603,7 +2595,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2672,10 +2664,10 @@
         <v>111</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>9</v>
@@ -2683,8 +2675,8 @@
       <c r="F61" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="14">
-        <v>0.85</v>
+      <c r="G61" s="9">
+        <v>0.75</v>
       </c>
       <c r="H61" s="9">
         <v>0.75</v>
@@ -2815,7 +2807,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>18</v>
@@ -2841,7 +2833,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>8</v>
@@ -2867,7 +2859,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>8</v>
@@ -2893,7 +2885,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>8</v>
@@ -2919,7 +2911,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>8</v>
@@ -2945,7 +2937,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>8</v>
@@ -2971,7 +2963,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>8</v>
@@ -2997,7 +2989,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -3011,7 +3003,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -3025,7 +3017,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -3039,7 +3031,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>18</v>
@@ -3065,7 +3057,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>8</v>
@@ -3091,7 +3083,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>8</v>
@@ -3117,7 +3109,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>8</v>
@@ -3143,7 +3135,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>8</v>
@@ -3307,10 +3299,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -3321,10 +3313,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -3332,13 +3324,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" t="s">
         <v>150</v>
-      </c>
-      <c r="B110" t="s">
-        <v>151</v>
-      </c>
-      <c r="C110" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2835,11 +2835,11 @@
       <c r="B69" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>68</v>
+      <c r="C69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>22</v>
@@ -2847,8 +2847,8 @@
       <c r="F69" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="21">
-        <v>0.85</v>
+      <c r="G69" s="9">
+        <v>0.75</v>
       </c>
       <c r="H69" s="20">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="163">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -398,51 +398,198 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>#11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头师很差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+  </si>
+  <si>
     <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>师很</t>
+  </si>
+  <si>
+    <t>#140</t>
   </si>
   <si>
     <t>一二(l11l)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水</t>
+    <t>气功师很行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力气师很大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -450,173 +597,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>#422</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>色彩不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗头师很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足巛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶无敌了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水</t>
-  </si>
-  <si>
-    <t>熟练者</t>
-  </si>
-  <si>
-    <t>#81</t>
-  </si>
-  <si>
-    <t>师很</t>
-  </si>
-  <si>
-    <t>#140</t>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很涸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶就是混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力气师很大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解师很哦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解师很油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拯救师很野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无敌师很苦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -666,6 +658,10 @@
   </si>
   <si>
     <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1132,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1432,7 +1428,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>53</v>
@@ -1669,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1851,7 +1847,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1877,7 +1873,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -1903,7 +1899,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -1912,7 +1908,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>11</v>
@@ -1929,19 +1925,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="G31" s="17">
         <v>0.75</v>
@@ -1955,13 +1951,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>10</v>
+        <v>123</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>22</v>
@@ -1983,11 +1979,11 @@
       <c r="B33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>19</v>
+      <c r="C33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>75</v>
@@ -1995,8 +1991,8 @@
       <c r="F33" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="5">
-        <v>0.75</v>
+      <c r="G33" s="8">
+        <v>0.91</v>
       </c>
       <c r="H33">
         <v>0.85</v>
@@ -2007,7 +2003,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>13</v>
@@ -2016,7 +2012,7 @@
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
         <v>68</v>
@@ -2033,13 +2029,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>22</v>
@@ -2059,7 +2055,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2085,7 +2081,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2094,10 +2090,10 @@
         <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="G37" s="17">
         <v>0.75</v>
@@ -2111,7 +2107,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>8</v>
@@ -2120,10 +2116,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="G38" s="17">
         <v>0.75</v>
@@ -2137,7 +2133,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>8</v>
@@ -2146,10 +2142,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="G39" s="17">
         <v>0.75</v>
@@ -2163,14 +2159,26 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
@@ -2281,7 +2289,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>90</v>
@@ -2307,7 +2315,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2333,7 +2341,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -2359,7 +2367,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2385,7 +2393,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2437,7 +2445,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>8</v>
@@ -2463,7 +2471,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>8</v>
@@ -2489,7 +2497,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>8</v>
@@ -2515,7 +2523,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>8</v>
@@ -2541,7 +2549,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>8</v>
@@ -2567,7 +2575,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2581,7 +2589,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2595,7 +2603,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2609,7 +2617,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>90</v>
@@ -2635,7 +2643,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>52</v>
@@ -2661,7 +2669,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>18</v>
@@ -2687,7 +2695,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>8</v>
@@ -2713,7 +2721,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>8</v>
@@ -2739,7 +2747,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>18</v>
@@ -2765,7 +2773,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -2779,7 +2787,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -2793,7 +2801,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -2807,7 +2815,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>18</v>
@@ -2815,11 +2823,11 @@
       <c r="D68" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>11</v>
+      <c r="E68" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G68" s="9">
         <v>0.75</v>
@@ -2833,7 +2841,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>18</v>
@@ -2859,7 +2867,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>8</v>
@@ -2885,7 +2893,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>8</v>
@@ -2911,7 +2919,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>8</v>
@@ -2937,7 +2945,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>8</v>
@@ -2963,7 +2971,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>8</v>
@@ -2989,7 +2997,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
@@ -3003,7 +3011,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
@@ -3017,7 +3025,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
@@ -3031,7 +3039,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>18</v>
@@ -3057,7 +3065,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>8</v>
@@ -3083,7 +3091,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>8</v>
@@ -3109,7 +3117,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>8</v>
@@ -3135,7 +3143,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>8</v>
@@ -3243,7 +3251,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
         <v>71</v>
@@ -3285,13 +3293,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>107</v>
-      </c>
-      <c r="C107" t="s">
-        <v>108</v>
       </c>
       <c r="D107">
         <v>0.8</v>
@@ -3299,10 +3307,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
         <v>121</v>
-      </c>
-      <c r="B108" t="s">
-        <v>122</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -3313,10 +3321,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -3324,13 +3332,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110" t="s">
+        <v>147</v>
+      </c>
+      <c r="C110" t="s">
         <v>148</v>
-      </c>
-      <c r="B110" t="s">
-        <v>149</v>
-      </c>
-      <c r="C110" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -840,7 +840,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -882,7 +882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,7 +917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3067,11 +3067,11 @@
       <c r="B79" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C79" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>68</v>
+      <c r="C79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>22</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -840,7 +840,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -882,7 +882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,7 +917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2473,11 +2473,11 @@
       <c r="B52" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>68</v>
+      <c r="C52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>22</v>
@@ -2485,8 +2485,8 @@
       <c r="F52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="5">
-        <v>0.85</v>
+      <c r="G52" s="6">
+        <v>0.75</v>
       </c>
       <c r="H52" s="11">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2698,10 +2698,10 @@
         <v>111</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>9</v>
@@ -2709,8 +2709,8 @@
       <c r="F62" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="14">
-        <v>0.85</v>
+      <c r="G62" s="9">
+        <v>0.75</v>
       </c>
       <c r="H62" s="9">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1485,11 +1485,11 @@
       <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>34</v>
@@ -1497,8 +1497,8 @@
       <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5">
-        <v>0.75</v>
+      <c r="G14" s="3">
+        <v>0.92</v>
       </c>
       <c r="H14" s="5">
         <v>0.98</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -840,7 +840,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -882,7 +882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,7 +917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1824,10 +1824,10 @@
         <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>22</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -840,7 +840,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -882,7 +882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,7 +917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2447,11 +2447,11 @@
       <c r="B51" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>68</v>
+      <c r="C51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>22</v>
@@ -2459,8 +2459,8 @@
       <c r="F51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G51" s="5">
-        <v>0.85</v>
+      <c r="G51" s="6">
+        <v>0.75</v>
       </c>
       <c r="H51" s="11">
         <v>0.75</v>
@@ -2577,12 +2577,24 @@
       <c r="B56" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="11"/>
+      <c r="C56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="11">
@@ -2591,12 +2603,24 @@
       <c r="B57" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="11"/>
+      <c r="C57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="11">
@@ -2605,12 +2629,24 @@
       <c r="B58" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="11"/>
+      <c r="C58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9">

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,10 +207,6 @@
   </si>
   <si>
     <t>功运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -780,10 +776,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1112,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1158,10 +1153,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1169,10 +1164,10 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1187,7 +1182,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -1195,10 +1190,10 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.92</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.92</v>
       </c>
     </row>
@@ -1213,7 +1208,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1221,10 +1216,10 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.92</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1247,10 +1242,10 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.92</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1265,7 +1260,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1273,10 +1268,10 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.92</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1285,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1299,10 +1294,10 @@
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1310,8 +1305,8 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>92</v>
+      <c r="B8" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -1325,10 +1320,10 @@
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1336,8 +1331,8 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>93</v>
+      <c r="B9" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1351,10 +1346,10 @@
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1365,10 +1360,10 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1377,10 +1372,10 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.92</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1389,33 +1384,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.88</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1429,18 +1424,18 @@
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>0.92</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1449,50 +1444,50 @@
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>0.92</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="4">
         <v>0.98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1501,103 +1496,103 @@
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.88</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>0.81</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>0.92</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>0.81</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.91</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>64</v>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1605,25 +1600,25 @@
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G19" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H19" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>69</v>
+      <c r="B20" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -1631,25 +1626,25 @@
       <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="G20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H20" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>97</v>
+      <c r="B21" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1657,76 +1652,76 @@
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="G21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>0.88</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>0.88</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>0.92</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>0.91</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1735,77 +1730,77 @@
       <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="G24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="7">
         <v>0.81</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>0.95</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>0.85</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>0.95</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>0.91</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>76</v>
+      <c r="B27" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1813,25 +1808,25 @@
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>128</v>
+      <c r="B28" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1839,143 +1834,143 @@
       <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="G28" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
-        <v>30</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G32" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H32" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>74</v>
+      <c r="B33" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>75</v>
+      <c r="E33" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="5">
+        <v>83</v>
+      </c>
+      <c r="G33" s="4">
         <v>0.75</v>
       </c>
       <c r="H33">
@@ -1983,63 +1978,63 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="19">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>137</v>
+      <c r="B36" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2047,25 +2042,25 @@
       <c r="D36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="G36" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H36" s="7">
         <v>0.81</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>135</v>
+      <c r="B37" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2073,221 +2068,221 @@
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H37" s="17">
+      <c r="G37" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H38" s="17">
+      <c r="G38" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H38" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="18">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H39" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="19">
-        <v>39</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="6">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="F42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H42" s="6">
+      <c r="D43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H43" s="5">
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H43" s="6">
+      <c r="E44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H44" s="5">
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="D45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2295,25 +2290,25 @@
       <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H46" s="6">
+      <c r="E46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H46" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>103</v>
+      <c r="B47" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -2321,25 +2316,25 @@
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H47" s="6">
+      <c r="E47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H47" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>104</v>
+      <c r="B48" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2347,25 +2342,25 @@
       <c r="D48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H48" s="6">
+      <c r="E48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H48" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>105</v>
+      <c r="B49" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2373,620 +2368,620 @@
       <c r="D49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H49" s="6">
+      <c r="E49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H49" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="11" t="s">
+      <c r="B50" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="C51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G51" s="4">
         <v>0.85</v>
       </c>
-      <c r="H50" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="11">
-        <v>50</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="H51" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="10">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D55" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="D56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="13">
         <v>0.85</v>
       </c>
-      <c r="H51" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="11">
+      <c r="H56" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="9">
-        <v>52</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D57" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="9">
-        <v>53</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="G57" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="9">
-        <v>54</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="9">
-        <v>55</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="G58" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="9">
-        <v>56</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="9">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="9">
-        <v>58</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="11"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="9">
+      <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="B60" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="11"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="B61" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="11"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="20">
+      <c r="A62" s="19">
         <v>61</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H62" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="19">
+        <v>62</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C63" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D63" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H63" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="19">
+        <v>63</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H64" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="19">
+        <v>64</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H65" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="19">
+        <v>65</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H66" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="19">
+        <v>66</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H67" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="19">
+        <v>67</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H68" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="19">
         <v>68</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="B69" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="19">
+        <v>69</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="19">
+        <v>70</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="21">
+        <v>71</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="20" t="s">
+      <c r="F72" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G72" s="20">
         <v>0.85</v>
       </c>
-      <c r="H62" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="20">
-        <v>62</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="20" t="s">
+      <c r="H72" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="21">
+        <v>72</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="20" t="s">
+      <c r="D73" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F73" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G73" s="20">
         <v>0.85</v>
       </c>
-      <c r="H63" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="20">
-        <v>63</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="20" t="s">
+      <c r="H73" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="21">
+        <v>73</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="20" t="s">
+      <c r="D74" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F74" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G74" s="20">
         <v>0.85</v>
       </c>
-      <c r="H64" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="20">
-        <v>64</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="20" t="s">
+      <c r="H74" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="21">
+        <v>74</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E65" s="20" t="s">
+      <c r="D75" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F75" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G75" s="20">
         <v>0.85</v>
       </c>
-      <c r="H65" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="20">
-        <v>65</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H66" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="20">
-        <v>66</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H67" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="20">
-        <v>67</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H68" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="20">
-        <v>68</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="20">
-        <v>69</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="20">
-        <v>70</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="22">
-        <v>71</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H72" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="22">
-        <v>72</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H73" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="22">
-        <v>73</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H74" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="22">
-        <v>74</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H75" s="20">
+      <c r="H75" s="19">
         <v>0.75</v>
       </c>
     </row>
@@ -2995,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
@@ -3009,19 +3004,19 @@
       <c r="F76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="G76" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H76" s="2">
         <v>0.75</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="12">
+      <c r="A77" s="11">
         <v>20</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>59</v>
+      <c r="B77" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>18</v>
@@ -3029,20 +3024,20 @@
       <c r="D77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G77" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H77" s="5">
+      <c r="G77" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H77" s="4">
         <v>0.75</v>
       </c>
       <c r="I77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -3052,24 +3047,24 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" t="s">
         <v>66</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>67</v>
-      </c>
-      <c r="C94" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" t="s">
         <v>70</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>71</v>
-      </c>
-      <c r="C95" t="s">
-        <v>72</v>
       </c>
       <c r="D95">
         <v>0.85</v>
@@ -3077,27 +3072,27 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" t="s">
         <v>71</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>72</v>
-      </c>
-      <c r="D96" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" t="s">
         <v>77</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>78</v>
-      </c>
-      <c r="C98" t="s">
-        <v>79</v>
       </c>
       <c r="D98">
         <v>0.9</v>
@@ -3105,13 +3100,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" t="s">
         <v>80</v>
       </c>
-      <c r="B99" t="s">
-        <v>81</v>
-      </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D99">
         <v>0.9</v>
@@ -3119,13 +3114,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
         <v>106</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>107</v>
-      </c>
-      <c r="C100" t="s">
-        <v>108</v>
       </c>
       <c r="D100">
         <v>0.8</v>
@@ -3133,10 +3128,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" t="s">
         <v>124</v>
-      </c>
-      <c r="B101" t="s">
-        <v>125</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -3147,10 +3142,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" t="s">
         <v>150</v>
-      </c>
-      <c r="B102" t="s">
-        <v>151</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -3158,13 +3153,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" t="s">
         <v>152</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>153</v>
-      </c>
-      <c r="C103" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="162">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -207,10 +207,6 @@
   </si>
   <si>
     <t>功运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -796,10 +792,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1128,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1174,10 +1169,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1185,10 +1180,10 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1203,7 +1198,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -1211,10 +1206,10 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.92</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.92</v>
       </c>
     </row>
@@ -1229,7 +1224,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1237,10 +1232,10 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>0.92</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1263,10 +1258,10 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.92</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1281,7 +1276,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1289,10 +1284,10 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.92</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1301,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1315,10 +1310,10 @@
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1326,8 +1321,8 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>92</v>
+      <c r="B8" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -1341,10 +1336,10 @@
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1352,8 +1347,8 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>93</v>
+      <c r="B9" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1367,10 +1362,10 @@
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1381,10 +1376,10 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1393,10 +1388,10 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.92</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -1405,33 +1400,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.88</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1445,18 +1440,18 @@
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>0.92</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1465,24 +1460,24 @@
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>0.92</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1491,24 +1486,24 @@
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0.92</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>0.98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1517,103 +1512,103 @@
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>0.88</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>0.81</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>0.92</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>0.81</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>0.91</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>64</v>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1621,25 +1616,25 @@
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G19" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H19" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>69</v>
+      <c r="B20" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -1647,25 +1642,25 @@
       <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="G20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H20" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>96</v>
+      <c r="B21" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1673,76 +1668,76 @@
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="G21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>0.88</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>0.88</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>0.92</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>0.91</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1751,77 +1746,77 @@
       <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="G24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="7">
         <v>0.81</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>0.95</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>0.85</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>0.95</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>0.91</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>76</v>
+      <c r="B27" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>18</v>
@@ -1829,25 +1824,25 @@
       <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>124</v>
+      <c r="B28" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1855,143 +1850,143 @@
       <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="G28" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H28" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="C30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="G30" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
-        <v>30</v>
-      </c>
-      <c r="B31" s="18" t="s">
+      <c r="C32" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G32" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H32" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="F33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="8">
+        <v>83</v>
+      </c>
+      <c r="G33" s="7">
         <v>0.91</v>
       </c>
       <c r="H33">
@@ -1999,63 +1994,63 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="19">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>133</v>
+      <c r="B36" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2063,25 +2058,25 @@
       <c r="D36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="G36" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H36" s="7">
         <v>0.81</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>131</v>
+      <c r="B37" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2089,233 +2084,233 @@
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H37" s="17">
+      <c r="G37" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H38" s="17">
+      <c r="G38" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H38" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H39" s="17">
+      <c r="G39" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="19">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="H40" s="17">
+      <c r="G40" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="H40" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="F42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H42" s="6">
+      <c r="D43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H43" s="5">
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H43" s="6">
+      <c r="E44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H44" s="5">
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="D45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2323,25 +2318,25 @@
       <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H46" s="6">
+      <c r="E46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H46" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>102</v>
+      <c r="B47" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -2349,25 +2344,25 @@
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H47" s="6">
+      <c r="E47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H47" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>103</v>
+      <c r="B48" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2375,25 +2370,25 @@
       <c r="D48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H48" s="6">
+      <c r="E48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H48" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>104</v>
+      <c r="B49" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2401,802 +2396,802 @@
       <c r="D49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H49" s="6">
+      <c r="E49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H49" s="5">
         <v>0.75</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H50" s="11">
+      <c r="G50" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H50" s="10">
         <v>0.75</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G51" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H51" s="11">
+      <c r="G51" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H51" s="10">
         <v>0.75</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="11">
+      <c r="A52" s="10">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="10">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="10">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H58" s="10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D61" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="11">
-        <v>52</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="E61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H53" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="11">
-        <v>53</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="11">
-        <v>54</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H55" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="11">
-        <v>55</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="11">
-        <v>56</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="11">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="9">
-        <v>58</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="D63" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="H59" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="9">
-        <v>59</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" s="9" t="s">
+      <c r="G63" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F64" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H60" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="9">
-        <v>60</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="9">
-        <v>61</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="G64" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="9">
-        <v>62</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H63" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="9">
-        <v>63</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H64" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="9">
-        <v>64</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="11"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="9">
+      <c r="A66" s="8">
         <v>65</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="B66" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="11"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="9">
+      <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+      <c r="B67" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="11"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="20">
+      <c r="A68" s="19">
         <v>67</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H68" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="19">
+        <v>68</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E69" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F69" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H68" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="20">
-        <v>68</v>
-      </c>
-      <c r="B69" s="20" t="s">
+      <c r="G69" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H69" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="19">
+        <v>69</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H70" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="19">
+        <v>70</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H71" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="19">
+        <v>71</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H72" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="19">
+        <v>72</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H73" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="19">
+        <v>73</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H74" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="19">
+        <v>74</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="19">
+        <v>75</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="19">
+        <v>76</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="21">
+        <v>77</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D78" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E78" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F78" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H69" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="20">
-        <v>69</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="20" t="s">
+      <c r="G78" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H78" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="21">
+        <v>78</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H79" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="21">
+        <v>79</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E70" s="20" t="s">
+      <c r="D80" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F80" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H70" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A71" s="20">
-        <v>70</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="20" t="s">
+      <c r="G80" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H80" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="21">
+        <v>80</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E71" s="20" t="s">
+      <c r="D81" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F81" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H71" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A72" s="20">
-        <v>71</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C72" s="20" t="s">
+      <c r="G81" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H81" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="21">
+        <v>81</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E72" s="20" t="s">
+      <c r="D82" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F82" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G72" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H72" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="20">
-        <v>72</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H73" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="20">
-        <v>73</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="H74" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="20">
-        <v>74</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A76" s="20">
-        <v>75</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="20">
-        <v>76</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="22">
-        <v>77</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="H78" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="22">
-        <v>78</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="H79" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A80" s="22">
-        <v>79</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="H80" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="22">
-        <v>80</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="H81" s="20">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="22">
-        <v>81</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="H82" s="20">
+      <c r="G82" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H82" s="19">
         <v>0.75</v>
       </c>
     </row>
@@ -3205,7 +3200,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>8</v>
@@ -3219,19 +3214,19 @@
       <c r="F83" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="G83" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H83" s="2">
         <v>0.75</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="12">
+      <c r="A84" s="11">
         <v>20</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>59</v>
+      <c r="B84" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>18</v>
@@ -3239,20 +3234,20 @@
       <c r="D84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G84" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H84" s="5">
+      <c r="G84" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H84" s="4">
         <v>0.75</v>
       </c>
       <c r="I84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
@@ -3262,24 +3257,24 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
         <v>66</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>67</v>
-      </c>
-      <c r="C101" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" t="s">
         <v>70</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>71</v>
-      </c>
-      <c r="C102" t="s">
-        <v>72</v>
       </c>
       <c r="D102">
         <v>0.85</v>
@@ -3287,27 +3282,27 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" t="s">
         <v>71</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>72</v>
-      </c>
-      <c r="D103" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" t="s">
         <v>77</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>78</v>
-      </c>
-      <c r="C105" t="s">
-        <v>79</v>
       </c>
       <c r="D105">
         <v>0.9</v>
@@ -3315,13 +3310,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" t="s">
         <v>80</v>
       </c>
-      <c r="B106" t="s">
-        <v>81</v>
-      </c>
       <c r="C106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D106">
         <v>0.9</v>
@@ -3329,13 +3324,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>106</v>
-      </c>
-      <c r="C107" t="s">
-        <v>107</v>
       </c>
       <c r="D107">
         <v>0.8</v>
@@ -3343,10 +3338,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" t="s">
         <v>120</v>
-      </c>
-      <c r="B108" t="s">
-        <v>121</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -3357,10 +3352,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" t="s">
         <v>144</v>
-      </c>
-      <c r="B109" t="s">
-        <v>145</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -3368,13 +3363,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B110" t="s">
         <v>146</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>147</v>
-      </c>
-      <c r="C110" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="164">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -658,6 +658,14 @@
   </si>
   <si>
     <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1123,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3255,6 +3263,20 @@
         <v>1111</v>
       </c>
     </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" t="s">
+        <v>163</v>
+      </c>
+      <c r="D100">
+        <v>0.75</v>
+      </c>
+    </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>65</v>
@@ -3264,6 +3286,9 @@
       </c>
       <c r="C101" t="s">
         <v>67</v>
+      </c>
+      <c r="D101">
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="159">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -234,19 +234,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>圣骑士很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1124,7 +1112,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1322,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -1348,13 +1336,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -1400,22 +1388,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="H11" s="2">
         <v>0.75</v>
@@ -1423,7 +1411,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>52</v>
@@ -1536,7 +1524,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>29</v>
@@ -1608,7 +1596,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1634,7 +1622,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -1660,7 +1648,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1686,19 +1674,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G22" s="4">
         <v>0.88</v>
@@ -1816,7 +1804,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>18</v>
@@ -1842,7 +1830,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1868,7 +1856,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1894,7 +1882,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>18</v>
@@ -1903,7 +1891,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
@@ -1920,19 +1908,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="F31" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="G31" s="16">
         <v>0.75</v>
@@ -1946,13 +1934,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="D32" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -1972,7 +1960,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
@@ -1981,10 +1969,10 @@
         <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -1998,7 +1986,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
@@ -2007,10 +1995,10 @@
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G34" s="4">
         <v>0.91</v>
@@ -2024,13 +2012,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -2050,7 +2038,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2076,7 +2064,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2085,10 +2073,10 @@
         <v>19</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2102,7 +2090,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>8</v>
@@ -2111,10 +2099,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2128,7 +2116,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2137,10 +2125,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2154,7 +2142,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2163,10 +2151,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2180,7 +2168,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>18</v>
@@ -2206,7 +2194,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>8</v>
@@ -2215,10 +2203,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" s="5">
         <v>0.75</v>
@@ -2232,19 +2220,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G43" s="5">
         <v>0.75</v>
@@ -2258,19 +2246,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G44" s="5">
         <v>0.75</v>
@@ -2284,19 +2272,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G45" s="5">
         <v>0.75</v>
@@ -2310,7 +2298,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2319,10 +2307,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2336,7 +2324,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -2345,10 +2333,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2362,7 +2350,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2371,10 +2359,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2388,7 +2376,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2397,10 +2385,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2414,7 +2402,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>18</v>
@@ -2440,7 +2428,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>18</v>
@@ -2466,7 +2454,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
@@ -2492,13 +2480,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -2518,13 +2506,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -2544,13 +2532,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -2570,13 +2558,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
@@ -2596,13 +2584,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>22</v>
@@ -2622,13 +2610,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -2648,13 +2636,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>9</v>
@@ -2674,13 +2662,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>9</v>
@@ -2700,7 +2688,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>18</v>
@@ -2726,7 +2714,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>18</v>
@@ -2752,13 +2740,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>9</v>
@@ -2778,7 +2766,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>18</v>
@@ -2804,7 +2792,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2818,7 +2806,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2832,7 +2820,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2846,7 +2834,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>18</v>
@@ -2872,7 +2860,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>18</v>
@@ -2898,13 +2886,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>22</v>
@@ -2924,13 +2912,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>22</v>
@@ -2950,13 +2938,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>22</v>
@@ -2976,13 +2964,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>22</v>
@@ -3002,13 +2990,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>22</v>
@@ -3028,7 +3016,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
@@ -3042,7 +3030,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
@@ -3056,7 +3044,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
@@ -3070,7 +3058,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>18</v>
@@ -3096,7 +3084,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>18</v>
@@ -3122,13 +3110,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>22</v>
@@ -3148,13 +3136,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>22</v>
@@ -3174,13 +3162,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>22</v>
@@ -3226,7 +3214,7 @@
         <v>20</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>18</v>
@@ -3247,7 +3235,7 @@
         <v>0.75</v>
       </c>
       <c r="I84" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
@@ -3257,24 +3245,24 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C101" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B102" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D102">
         <v>0.85</v>
@@ -3282,27 +3270,27 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B103" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C105" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D105">
         <v>0.9</v>
@@ -3310,13 +3298,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C106" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D106">
         <v>0.9</v>
@@ -3324,13 +3312,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C107" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D107">
         <v>0.8</v>
@@ -3338,10 +3326,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -3352,10 +3340,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B109" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -3363,13 +3351,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1930,11 +1930,11 @@
       <c r="B31" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>126</v>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>127</v>
@@ -1942,8 +1942,8 @@
       <c r="F31" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="16">
-        <v>0.75</v>
+      <c r="G31" s="2">
+        <v>0.92</v>
       </c>
       <c r="H31" s="16">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1975,7 +1975,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -1998,10 +1998,13 @@
         <v>0.91</v>
       </c>
       <c r="H33">
+        <v>0.75</v>
+      </c>
+      <c r="I33">
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>47</v>
       </c>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="168">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -666,6 +666,22 @@
   </si>
   <si>
     <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -843,7 +859,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -885,7 +901,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -920,7 +936,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1129,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3204,196 +3220,300 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="1">
+      <c r="A83" s="21">
+        <v>82</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="D83" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H83" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="21">
+        <v>83</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H84" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="21">
+        <v>84</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H85" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="21">
+        <v>85</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H86" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H83" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="11">
+      <c r="G87" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="11">
         <v>20</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="H84" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="E88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I88" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
         <v>1111</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>162</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B104" t="s">
         <v>66</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C104" t="s">
         <v>163</v>
       </c>
-      <c r="D100">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" t="s">
-        <v>67</v>
-      </c>
-      <c r="D101">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>69</v>
-      </c>
-      <c r="B102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C102" t="s">
-        <v>71</v>
-      </c>
-      <c r="D102">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" t="s">
-        <v>70</v>
-      </c>
-      <c r="C103" t="s">
-        <v>71</v>
-      </c>
-      <c r="D103" t="s">
-        <v>72</v>
+      <c r="D104">
+        <v>0.75</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D105">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B106" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C106" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D106">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C107" t="s">
-        <v>106</v>
-      </c>
-      <c r="D107">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>119</v>
-      </c>
-      <c r="B108" t="s">
-        <v>120</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108">
-        <v>0.86</v>
+        <v>71</v>
+      </c>
+      <c r="D107" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="B109" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>78</v>
+      </c>
+      <c r="D109">
+        <v>0.9</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" t="s">
+        <v>78</v>
+      </c>
+      <c r="D110">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>145</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B114" t="s">
         <v>146</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C114" t="s">
         <v>147</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -422,266 +422,266 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>爷的太阳最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头师很差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+  </si>
+  <si>
+    <t>熟练者</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>师很</t>
+  </si>
+  <si>
+    <t>#140</t>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力气师很大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉梅师很开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>爷的圣光最香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗头师很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足巛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶无敌了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水</t>
-  </si>
-  <si>
-    <t>熟练者</t>
-  </si>
-  <si>
-    <t>#81</t>
-  </si>
-  <si>
-    <t>师很</t>
-  </si>
-  <si>
-    <t>#140</t>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很涸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力气师很大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解师很哦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解师很油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拯救师很野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很苦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏师很利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀师很美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉梅师很开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师云起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零零师很辣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可师很说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆帆师很水</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +859,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -901,7 +901,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -936,7 +936,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1866,7 +1866,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1892,7 +1892,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1918,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
@@ -1944,7 +1944,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>13</v>
@@ -1953,10 +1953,10 @@
         <v>25</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G31" s="2">
         <v>0.92</v>
@@ -1970,13 +1970,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -2022,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
@@ -2051,10 +2051,10 @@
         <v>98</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -2074,7 +2074,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2100,7 +2100,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2109,10 +2109,10 @@
         <v>19</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2126,7 +2126,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>8</v>
@@ -2135,10 +2135,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2152,7 +2152,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2161,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2178,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2187,10 +2187,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2256,25 +2256,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="G43" s="5">
         <v>0.75</v>
       </c>
       <c r="H43" s="5">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
@@ -2300,7 +2300,7 @@
         <v>0.75</v>
       </c>
       <c r="H44" s="5">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2360,13 +2360,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>79</v>
@@ -2386,7 +2386,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2412,7 +2412,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2464,7 +2464,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>18</v>
@@ -2490,7 +2490,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
@@ -2516,7 +2516,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>8</v>
@@ -2542,7 +2542,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
@@ -2568,7 +2568,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
@@ -2620,7 +2620,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
@@ -2646,7 +2646,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
@@ -2672,7 +2672,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>89</v>
@@ -2698,7 +2698,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>51</v>
@@ -2724,7 +2724,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>18</v>
@@ -2750,7 +2750,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>18</v>
@@ -2776,7 +2776,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
@@ -2802,7 +2802,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>18</v>
@@ -2828,7 +2828,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2842,7 +2842,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2856,7 +2856,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2870,7 +2870,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>18</v>
@@ -2896,7 +2896,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>18</v>
@@ -2922,7 +2922,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>8</v>
@@ -2948,7 +2948,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>8</v>
@@ -2974,7 +2974,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -3000,7 +3000,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
@@ -3026,7 +3026,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
@@ -3052,7 +3052,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
@@ -3066,7 +3066,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
@@ -3080,7 +3080,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
@@ -3094,7 +3094,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>18</v>
@@ -3120,7 +3120,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>18</v>
@@ -3146,7 +3146,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>8</v>
@@ -3172,7 +3172,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>8</v>
@@ -3198,7 +3198,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>8</v>
@@ -3224,7 +3224,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3250,7 +3250,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3276,7 +3276,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3302,7 +3302,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3385,13 +3385,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B104" t="s">
         <v>66</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D104">
         <v>0.75</v>
@@ -3469,13 +3469,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" t="s">
         <v>104</v>
-      </c>
-      <c r="B111" t="s">
-        <v>105</v>
-      </c>
-      <c r="C111" t="s">
-        <v>106</v>
       </c>
       <c r="D111">
         <v>0.8</v>
@@ -3483,10 +3483,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B113" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3508,13 +3508,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" t="s">
         <v>145</v>
-      </c>
-      <c r="B114" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2206,11 +2206,11 @@
       <c r="B41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>19</v>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>9</v>
@@ -2218,8 +2218,8 @@
       <c r="F41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="5">
-        <v>0.75</v>
+      <c r="G41" s="4">
+        <v>0.91</v>
       </c>
       <c r="H41" s="5">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="168">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -569,119 +569,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉梅师很开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>希腊师很老</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很苦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏师很利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀师很美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉梅师很开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师云起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零零师很辣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可师很说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆帆师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2178,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2256,7 +2256,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>8</v>
@@ -2386,7 +2386,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2490,7 +2490,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
@@ -2516,7 +2516,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>8</v>
@@ -2542,7 +2542,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
@@ -2568,7 +2568,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
@@ -2620,7 +2620,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
@@ -2646,7 +2646,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
@@ -2974,7 +2974,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -3054,47 +3054,83 @@
       <c r="B75" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="10"/>
+      <c r="C75" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H75" s="19">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="19">
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H76" s="19">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="19">
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H77" s="19">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="21">
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>18</v>
@@ -3120,7 +3156,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>18</v>
@@ -3146,7 +3182,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>8</v>
@@ -3172,7 +3208,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>8</v>
@@ -3198,7 +3234,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>8</v>
@@ -3224,7 +3260,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3250,7 +3286,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3276,7 +3312,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3302,7 +3338,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3385,13 +3421,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
         <v>66</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D104">
         <v>0.75</v>
@@ -3497,10 +3533,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B113" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3508,13 +3544,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" t="s">
         <v>143</v>
-      </c>
-      <c r="B114" t="s">
-        <v>144</v>
-      </c>
-      <c r="C114" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="169">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -682,6 +682,10 @@
   </si>
   <si>
     <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1147,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1218,11 +1222,11 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -1231,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="2">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="H3" s="2">
         <v>0.92</v>
@@ -1375,10 +1379,10 @@
         <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -1397,14 +1401,14 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
+      <c r="B10" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1413,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="2">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="H10" s="2">
         <v>0.75</v>
@@ -1424,22 +1428,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="H11" s="2">
         <v>0.75</v>
@@ -3412,6 +3416,32 @@
       </c>
       <c r="I88" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>10</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.75</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="169">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>熟练者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -686,6 +682,10 @@
   </si>
   <si>
     <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足丨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -905,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,7 +940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -1376,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -1402,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1451,10 +1451,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1564,7 +1564,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>29</v>
@@ -1636,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1662,7 +1662,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -1688,7 +1688,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1714,19 +1714,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G22" s="4">
         <v>0.88</v>
@@ -1742,11 +1742,11 @@
       <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>50</v>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>38</v>
@@ -1754,8 +1754,8 @@
       <c r="F23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="7">
-        <v>0.92</v>
+      <c r="G23" s="2">
+        <v>0.88</v>
       </c>
       <c r="H23" s="7">
         <v>0.91</v>
@@ -1769,10 +1769,10 @@
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>31</v>
@@ -1780,11 +1780,11 @@
       <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="7">
-        <v>0.75</v>
+      <c r="G24" s="2">
+        <v>0.92</v>
       </c>
       <c r="H24" s="7">
-        <v>0.81</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1844,7 +1844,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>18</v>
@@ -1870,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1896,7 +1896,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1922,16 +1922,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>119</v>
+        <v>10</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>11</v>
@@ -1940,7 +1940,7 @@
         <v>0.75</v>
       </c>
       <c r="H30" s="4">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1948,7 +1948,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>13</v>
@@ -1957,10 +1957,10 @@
         <v>25</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="G31" s="2">
         <v>0.92</v>
@@ -1974,13 +1974,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -2000,7 +2000,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
@@ -2009,10 +2009,10 @@
         <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -2026,7 +2026,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
@@ -2035,10 +2035,10 @@
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" s="4">
         <v>0.91</v>
@@ -2052,13 +2052,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -2078,7 +2078,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2104,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2113,10 +2113,10 @@
         <v>19</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2130,7 +2130,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>8</v>
@@ -2139,10 +2139,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2156,7 +2156,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2165,10 +2165,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2182,7 +2182,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2191,10 +2191,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2208,7 +2208,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>13</v>
@@ -2234,7 +2234,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>8</v>
@@ -2243,10 +2243,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" s="5">
         <v>0.75</v>
@@ -2260,7 +2260,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>8</v>
@@ -2286,19 +2286,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="D44" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44" s="5">
         <v>0.75</v>
@@ -2312,19 +2312,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="5">
         <v>0.75</v>
@@ -2338,7 +2338,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2347,10 +2347,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2364,7 +2364,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>18</v>
@@ -2373,10 +2373,10 @@
         <v>19</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2390,7 +2390,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2399,10 +2399,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2416,7 +2416,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2425,10 +2425,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2442,7 +2442,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>18</v>
@@ -2468,7 +2468,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>18</v>
@@ -2494,7 +2494,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
@@ -2520,13 +2520,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>67</v>
+        <v>152</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -2534,8 +2534,8 @@
       <c r="F53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="4">
-        <v>0.85</v>
+      <c r="G53" s="5">
+        <v>0.75</v>
       </c>
       <c r="H53" s="10">
         <v>0.75</v>
@@ -2546,13 +2546,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -2572,13 +2572,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -2598,13 +2598,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
@@ -2624,13 +2624,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>22</v>
@@ -2650,13 +2650,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -2676,13 +2676,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>9</v>
@@ -2702,13 +2702,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>9</v>
@@ -2728,7 +2728,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>18</v>
@@ -2754,7 +2754,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>18</v>
@@ -2780,13 +2780,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>9</v>
@@ -2806,7 +2806,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>18</v>
@@ -2832,7 +2832,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2846,7 +2846,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2860,7 +2860,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2874,7 +2874,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>18</v>
@@ -2900,7 +2900,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>18</v>
@@ -2926,13 +2926,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>22</v>
@@ -2952,13 +2952,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>22</v>
@@ -2978,13 +2978,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>22</v>
@@ -3004,13 +3004,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>22</v>
@@ -3030,13 +3030,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>22</v>
@@ -3056,13 +3056,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>22</v>
@@ -3082,13 +3082,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>22</v>
@@ -3108,13 +3108,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>22</v>
@@ -3134,7 +3134,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>18</v>
@@ -3160,7 +3160,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>18</v>
@@ -3186,13 +3186,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>67</v>
+        <v>145</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>22</v>
@@ -3212,13 +3212,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>67</v>
+        <v>146</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>22</v>
@@ -3238,13 +3238,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>67</v>
+        <v>147</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>22</v>
@@ -3264,13 +3264,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>22</v>
@@ -3290,13 +3290,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>22</v>
@@ -3316,13 +3316,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>22</v>
@@ -3342,13 +3342,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>22</v>
@@ -3368,7 +3368,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -3394,7 +3394,7 @@
         <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>18</v>
@@ -3415,7 +3415,7 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -3423,25 +3423,51 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G89" s="2">
         <v>0.88</v>
       </c>
       <c r="H89" s="2">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="8">
+        <v>29</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0.85</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -3451,13 +3477,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" t="s">
         <v>158</v>
-      </c>
-      <c r="B104" t="s">
-        <v>66</v>
-      </c>
-      <c r="C104" t="s">
-        <v>159</v>
       </c>
       <c r="D104">
         <v>0.75</v>
@@ -3465,13 +3491,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" t="s">
         <v>65</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>66</v>
-      </c>
-      <c r="C105" t="s">
-        <v>67</v>
       </c>
       <c r="D105">
         <v>0.95</v>
@@ -3479,13 +3505,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" t="s">
         <v>69</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>70</v>
-      </c>
-      <c r="C106" t="s">
-        <v>71</v>
       </c>
       <c r="D106">
         <v>0.85</v>
@@ -3493,27 +3519,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" t="s">
         <v>70</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>71</v>
-      </c>
-      <c r="D107" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" t="s">
         <v>76</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>77</v>
-      </c>
-      <c r="C109" t="s">
-        <v>78</v>
       </c>
       <c r="D109">
         <v>0.9</v>
@@ -3521,13 +3547,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" t="s">
         <v>79</v>
       </c>
-      <c r="B110" t="s">
-        <v>80</v>
-      </c>
       <c r="C110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D110">
         <v>0.9</v>
@@ -3535,13 +3561,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" t="s">
         <v>102</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>103</v>
-      </c>
-      <c r="C111" t="s">
-        <v>104</v>
       </c>
       <c r="D111">
         <v>0.8</v>
@@ -3549,10 +3575,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
         <v>117</v>
-      </c>
-      <c r="B112" t="s">
-        <v>118</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3563,10 +3589,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" t="s">
         <v>139</v>
-      </c>
-      <c r="B113" t="s">
-        <v>140</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3574,13 +3600,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" t="s">
         <v>141</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>142</v>
-      </c>
-      <c r="C114" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -905,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,7 +940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2928,11 +2928,11 @@
       <c r="B70" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>66</v>
+      <c r="C70" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>22</v>
@@ -2940,8 +2940,8 @@
       <c r="F70" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="20">
-        <v>0.85</v>
+      <c r="G70" s="8">
+        <v>0.75</v>
       </c>
       <c r="H70" s="19">
         <v>0.75</v>
@@ -2954,11 +2954,11 @@
       <c r="B71" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>66</v>
+      <c r="C71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>22</v>
@@ -2966,8 +2966,8 @@
       <c r="F71" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="20">
-        <v>0.85</v>
+      <c r="G71" s="8">
+        <v>0.75</v>
       </c>
       <c r="H71" s="19">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1963,7 +1963,7 @@
         <v>125</v>
       </c>
       <c r="G31" s="2">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="H31" s="16">
         <v>0.75</v>
@@ -2132,11 +2132,11 @@
       <c r="B38" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>10</v>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>124</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="C44" sqref="C44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2284,11 +2284,11 @@
       <c r="B44" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>87</v>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>79</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2876,11 +2876,11 @@
       <c r="B68" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>19</v>
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>22</v>
@@ -2889,7 +2889,7 @@
         <v>23</v>
       </c>
       <c r="G68" s="8">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="H68" s="19">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -905,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,7 +940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1152,20 +1152,20 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1755,13 +1755,13 @@
         <v>39</v>
       </c>
       <c r="G23" s="2">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="H23" s="7">
         <v>0.91</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>77</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>78</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>79</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>80</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>81</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>82</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>83</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>84</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>85</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>20</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>10</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>29</v>
       </c>
@@ -3470,12 +3470,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>157</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>64</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>68</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>95</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>75</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>78</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>138</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>140</v>
       </c>
@@ -3622,7 +3622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3635,7 +3635,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -905,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,7 +940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2210,11 +2210,11 @@
       <c r="B41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>25</v>
+      <c r="C41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>9</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -905,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,7 +940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2029,10 +2029,10 @@
         <v>126</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>96</v>
@@ -2040,8 +2040,8 @@
       <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="4">
-        <v>0.91</v>
+      <c r="G34" s="2">
+        <v>0.88</v>
       </c>
       <c r="H34" s="4">
         <v>0.75</v>
@@ -2262,11 +2262,11 @@
       <c r="B43" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>10</v>
+      <c r="C43" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2288,11 +2288,11 @@
       <c r="B44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>86</v>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>78</v>
@@ -2300,8 +2300,8 @@
       <c r="F44" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="5">
-        <v>0.75</v>
+      <c r="G44" s="7">
+        <v>0.91</v>
       </c>
       <c r="H44" s="5">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2029,10 +2029,10 @@
         <v>126</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>96</v>
@@ -2040,8 +2040,8 @@
       <c r="F34" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="4">
-        <v>0.91</v>
+      <c r="G34" s="2">
+        <v>0.88</v>
       </c>
       <c r="H34" s="4">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="168">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>气功该加强了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1151,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1252,7 +1248,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1304,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1324,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1350,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -1376,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -1402,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1451,10 +1447,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1564,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>29</v>
@@ -1590,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
@@ -1616,7 +1612,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -1636,7 +1632,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1662,7 +1658,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -1688,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1714,19 +1710,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G22" s="4">
         <v>0.88</v>
@@ -1795,13 +1791,13 @@
         <v>41</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
@@ -1820,11 +1816,11 @@
       <c r="B26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>45</v>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>42</v>
@@ -1832,8 +1828,8 @@
       <c r="F26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="7">
-        <v>0.95</v>
+      <c r="G26" s="2">
+        <v>0.88</v>
       </c>
       <c r="H26" s="7">
         <v>0.91</v>
@@ -1844,7 +1840,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>18</v>
@@ -1870,7 +1866,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1896,7 +1892,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1922,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -1948,7 +1944,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>13</v>
@@ -1957,10 +1953,10 @@
         <v>25</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="G31" s="2">
         <v>0.91</v>
@@ -1974,13 +1970,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -2000,7 +1996,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
@@ -2009,10 +2005,10 @@
         <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -2026,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
@@ -2035,10 +2031,10 @@
         <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="4">
         <v>0.91</v>
@@ -2052,13 +2048,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -2078,7 +2074,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2104,7 +2100,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2113,10 +2109,10 @@
         <v>19</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2130,7 +2126,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>18</v>
@@ -2139,10 +2135,10 @@
         <v>19</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2156,7 +2152,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2165,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2182,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2191,10 +2187,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2208,7 +2204,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>18</v>
@@ -2234,7 +2230,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>8</v>
@@ -2243,10 +2239,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" s="5">
         <v>0.75</v>
@@ -2260,7 +2256,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>8</v>
@@ -2286,19 +2282,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="D44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="5">
         <v>0.75</v>
@@ -2312,19 +2308,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="5">
         <v>0.75</v>
@@ -2338,7 +2334,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2347,10 +2343,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2364,7 +2360,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>18</v>
@@ -2373,10 +2369,10 @@
         <v>19</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2390,7 +2386,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2399,10 +2395,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2416,7 +2412,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2425,10 +2421,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2442,7 +2438,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>18</v>
@@ -2468,7 +2464,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>18</v>
@@ -2494,7 +2490,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
@@ -2520,7 +2516,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>18</v>
@@ -2546,13 +2542,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -2572,13 +2568,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -2598,13 +2594,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
@@ -2624,13 +2620,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>22</v>
@@ -2650,13 +2646,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -2676,13 +2672,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>9</v>
@@ -2702,13 +2698,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>9</v>
@@ -2728,7 +2724,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>18</v>
@@ -2754,7 +2750,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>18</v>
@@ -2780,13 +2776,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>9</v>
@@ -2806,7 +2802,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>18</v>
@@ -2832,7 +2828,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2846,7 +2842,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2860,7 +2856,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2874,7 +2870,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
@@ -2900,7 +2896,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>18</v>
@@ -2926,7 +2922,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>18</v>
@@ -2952,7 +2948,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>18</v>
@@ -2978,13 +2974,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>22</v>
@@ -3004,13 +3000,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>22</v>
@@ -3030,13 +3026,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>22</v>
@@ -3056,13 +3052,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>22</v>
@@ -3082,13 +3078,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>22</v>
@@ -3108,13 +3104,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>22</v>
@@ -3134,7 +3130,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>18</v>
@@ -3160,7 +3156,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>18</v>
@@ -3186,7 +3182,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>18</v>
@@ -3212,7 +3208,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>18</v>
@@ -3238,7 +3234,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>18</v>
@@ -3264,13 +3260,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>22</v>
@@ -3290,13 +3286,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>22</v>
@@ -3316,13 +3312,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>22</v>
@@ -3342,13 +3338,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>22</v>
@@ -3368,7 +3364,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -3394,7 +3390,7 @@
         <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>18</v>
@@ -3415,7 +3411,7 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -3423,19 +3419,19 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G89" s="2">
         <v>0.88</v>
@@ -3449,7 +3445,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>18</v>
@@ -3458,7 +3454,7 @@
         <v>19</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3477,13 +3473,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" t="s">
         <v>157</v>
-      </c>
-      <c r="B104" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" t="s">
-        <v>158</v>
       </c>
       <c r="D104">
         <v>0.75</v>
@@ -3491,13 +3487,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" t="s">
         <v>64</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>65</v>
-      </c>
-      <c r="C105" t="s">
-        <v>66</v>
       </c>
       <c r="D105">
         <v>0.95</v>
@@ -3505,13 +3501,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" t="s">
         <v>68</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>69</v>
-      </c>
-      <c r="C106" t="s">
-        <v>70</v>
       </c>
       <c r="D106">
         <v>0.85</v>
@@ -3519,27 +3515,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B107" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" t="s">
         <v>69</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>70</v>
-      </c>
-      <c r="D107" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" t="s">
         <v>75</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>76</v>
-      </c>
-      <c r="C109" t="s">
-        <v>77</v>
       </c>
       <c r="D109">
         <v>0.9</v>
@@ -3547,13 +3543,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" t="s">
         <v>78</v>
       </c>
-      <c r="B110" t="s">
-        <v>79</v>
-      </c>
       <c r="C110" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D110">
         <v>0.9</v>
@@ -3561,13 +3557,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" t="s">
         <v>101</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>102</v>
-      </c>
-      <c r="C111" t="s">
-        <v>103</v>
       </c>
       <c r="D111">
         <v>0.8</v>
@@ -3575,10 +3571,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
         <v>116</v>
-      </c>
-      <c r="B112" t="s">
-        <v>117</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3589,10 +3585,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
+        <v>137</v>
+      </c>
+      <c r="B113" t="s">
         <v>138</v>
-      </c>
-      <c r="B113" t="s">
-        <v>139</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3600,13 +3596,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" t="s">
         <v>140</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>141</v>
-      </c>
-      <c r="C114" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2262,11 +2262,11 @@
       <c r="B43" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>10</v>
+      <c r="C43" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2288,20 +2288,20 @@
       <c r="B44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>86</v>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0.75</v>
+      <c r="F44" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.91</v>
       </c>
       <c r="H44" s="5">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -905,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,7 +940,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3136,11 +3136,11 @@
       <c r="B78" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>19</v>
+      <c r="C78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>22</v>
@@ -3148,8 +3148,8 @@
       <c r="F78" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G78" s="20">
-        <v>0.75</v>
+      <c r="G78" s="8">
+        <v>0.91</v>
       </c>
       <c r="H78" s="19">
         <v>0.75</v>
@@ -3162,11 +3162,11 @@
       <c r="B79" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>19</v>
+      <c r="C79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>22</v>
@@ -3174,8 +3174,8 @@
       <c r="F79" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G79" s="20">
-        <v>0.75</v>
+      <c r="G79" s="8">
+        <v>0.91</v>
       </c>
       <c r="H79" s="19">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1235,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="2">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="H3" s="2">
         <v>0.92</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="171">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -686,6 +686,14 @@
   </si>
   <si>
     <t>睡眠不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1151,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2210,11 +2218,11 @@
       <c r="B41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>19</v>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>9</v>
@@ -2236,11 +2244,11 @@
       <c r="B42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>10</v>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>81</v>
@@ -2248,11 +2256,11 @@
       <c r="F42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G42" s="5">
-        <v>0.75</v>
+      <c r="G42" s="4">
+        <v>0.91</v>
       </c>
       <c r="H42" s="5">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
@@ -2288,11 +2296,11 @@
       <c r="B44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>25</v>
+      <c r="C44" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>78</v>
@@ -2301,7 +2309,7 @@
         <v>66</v>
       </c>
       <c r="G44" s="7">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="H44" s="5">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="173">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -694,6 +694,14 @@
   </si>
   <si>
     <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂丶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1159,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2294,22 +2302,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0.95</v>
+        <v>11</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.75</v>
       </c>
       <c r="H44" s="5">
         <v>0.75</v>
@@ -2320,19 +2328,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G45" s="5">
         <v>0.75</v>
@@ -3476,6 +3484,58 @@
       </c>
       <c r="H90" s="4">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="5">
+        <v>43</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G93" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="5">
+        <v>44</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0.75</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="175">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -702,6 +702,14 @@
   </si>
   <si>
     <t>能量不足♂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改2.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -828,6 +836,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -836,7 +855,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -859,6 +878,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -879,7 +900,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -921,7 +942,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -956,7 +977,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,21 +1188,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1205,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1231,7 +1252,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1257,7 +1278,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1283,7 +1304,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1309,7 +1330,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1335,7 +1356,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1361,7 +1382,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1387,7 +1408,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1413,7 +1434,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1439,7 +1460,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1465,7 +1486,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -1491,7 +1512,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1517,7 +1538,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1543,7 +1564,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1569,7 +1590,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1595,7 +1616,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1621,7 +1642,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1647,7 +1668,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1673,7 +1694,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1699,7 +1720,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1725,7 +1746,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1751,33 +1772,36 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="3" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G23" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1803,7 +1827,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1829,7 +1853,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1855,7 +1879,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1881,7 +1905,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1907,7 +1931,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1933,7 +1957,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1959,7 +1983,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -1985,7 +2009,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2011,7 +2035,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -2037,7 +2061,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2063,7 +2087,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -2089,7 +2113,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2115,7 +2139,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -2141,7 +2165,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -2167,7 +2191,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -2193,7 +2217,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -2219,7 +2243,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2245,7 +2269,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2271,7 +2295,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2297,7 +2321,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2323,7 +2347,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2349,7 +2373,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2375,7 +2399,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2401,7 +2425,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2427,7 +2451,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2453,7 +2477,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -2479,7 +2503,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -2505,7 +2529,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -2531,7 +2555,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -2557,7 +2581,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -2583,7 +2607,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -2609,7 +2633,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -2635,7 +2659,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -2661,7 +2685,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -2687,7 +2711,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -2713,7 +2737,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -2739,7 +2763,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -2765,7 +2789,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -2791,7 +2815,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -2817,7 +2841,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -2843,7 +2867,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -2857,7 +2881,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -2871,7 +2895,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -2885,7 +2909,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -2911,7 +2935,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -2937,7 +2961,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -2963,7 +2987,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -2989,7 +3013,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -3015,7 +3039,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -3041,7 +3065,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -3067,7 +3091,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -3093,7 +3117,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -3119,7 +3143,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -3145,7 +3169,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>77</v>
       </c>
@@ -3171,7 +3195,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>78</v>
       </c>
@@ -3197,7 +3221,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>79</v>
       </c>
@@ -3223,7 +3247,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>80</v>
       </c>
@@ -3249,7 +3273,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>81</v>
       </c>
@@ -3275,7 +3299,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>82</v>
       </c>
@@ -3301,7 +3325,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>83</v>
       </c>
@@ -3327,7 +3351,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>84</v>
       </c>
@@ -3353,7 +3377,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>85</v>
       </c>
@@ -3379,7 +3403,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -3405,7 +3429,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>20</v>
       </c>
@@ -3434,7 +3458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>10</v>
       </c>
@@ -3460,7 +3484,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>29</v>
       </c>
@@ -3486,7 +3510,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>43</v>
       </c>
@@ -3512,7 +3536,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>44</v>
       </c>
@@ -3538,12 +3562,38 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>22</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="H96" s="7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>157</v>
       </c>
@@ -3557,7 +3607,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>64</v>
       </c>
@@ -3571,7 +3621,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>68</v>
       </c>
@@ -3585,7 +3635,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>95</v>
       </c>
@@ -3599,7 +3649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>75</v>
       </c>
@@ -3613,7 +3663,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>78</v>
       </c>
@@ -3627,7 +3677,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -3641,7 +3691,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3655,7 +3705,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>138</v>
       </c>
@@ -3666,7 +3716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>140</v>
       </c>
@@ -3690,7 +3740,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3703,7 +3753,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="170">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,26 +183,6 @@
   </si>
   <si>
     <t>气功运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功该加强了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1188,21 +1168,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1226,7 +1206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1252,7 +1232,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1278,7 +1258,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1289,7 +1269,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1304,7 +1284,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1330,7 +1310,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1341,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1356,12 +1336,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -1382,12 +1362,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -1408,12 +1388,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -1434,12 +1414,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1460,7 +1440,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1486,12 +1466,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1512,7 +1492,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1538,7 +1518,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1564,7 +1544,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1590,7 +1570,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1601,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>29</v>
@@ -1616,7 +1596,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1627,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
@@ -1642,7 +1622,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1653,7 +1633,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -1668,12 +1648,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1694,12 +1674,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -1720,12 +1700,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1746,24 +1726,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G22" s="4">
         <v>0.88</v>
@@ -1772,12 +1752,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1792,99 +1772,99 @@
         <v>11</v>
       </c>
       <c r="G23" s="5">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="H23" s="5">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>45</v>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="H25" s="7">
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.95</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>18</v>
@@ -1905,12 +1885,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1931,12 +1911,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1957,12 +1937,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -1983,12 +1963,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>13</v>
@@ -1997,10 +1977,10 @@
         <v>25</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G31" s="2">
         <v>0.91</v>
@@ -2009,18 +1989,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -2035,12 +2015,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
@@ -2049,10 +2029,10 @@
         <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -2061,12 +2041,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
@@ -2075,10 +2055,10 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G34" s="2">
         <v>0.88</v>
@@ -2087,18 +2067,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -2113,12 +2093,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2139,12 +2119,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2153,10 +2133,10 @@
         <v>19</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2165,12 +2145,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>18</v>
@@ -2179,10 +2159,10 @@
         <v>19</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2191,12 +2171,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2205,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2217,12 +2197,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2231,10 +2211,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2243,12 +2223,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>13</v>
@@ -2269,12 +2249,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -2283,10 +2263,10 @@
         <v>25</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2295,18 +2275,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2321,12 +2301,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2347,12 +2327,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2373,12 +2353,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2387,10 +2367,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2399,12 +2379,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>18</v>
@@ -2413,10 +2393,10 @@
         <v>19</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2425,12 +2405,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2439,10 +2419,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2451,12 +2431,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2465,10 +2445,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2477,12 +2457,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>18</v>
@@ -2503,12 +2483,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="10">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>18</v>
@@ -2529,12 +2509,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="10">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
@@ -2555,12 +2535,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>18</v>
@@ -2581,18 +2561,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -2607,18 +2587,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="10">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -2633,18 +2613,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
@@ -2659,18 +2639,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="10">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>22</v>
@@ -2685,18 +2665,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="10">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -2711,18 +2691,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>9</v>
@@ -2737,18 +2717,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="8">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>9</v>
@@ -2763,12 +2743,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>18</v>
@@ -2789,12 +2769,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="8">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>18</v>
@@ -2815,18 +2795,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="8">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>9</v>
@@ -2841,12 +2821,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="8">
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>18</v>
@@ -2867,12 +2847,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="8">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2881,12 +2861,12 @@
       <c r="G65" s="4"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="8">
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2895,12 +2875,12 @@
       <c r="G66" s="4"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="8">
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2909,12 +2889,12 @@
       <c r="G67" s="4"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="19">
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
@@ -2935,12 +2915,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="19">
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>18</v>
@@ -2961,12 +2941,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="19">
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>18</v>
@@ -2987,12 +2967,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="19">
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>18</v>
@@ -3013,18 +2993,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="19">
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>22</v>
@@ -3039,18 +3019,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="19">
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>22</v>
@@ -3065,18 +3045,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="19">
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>22</v>
@@ -3091,18 +3071,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="19">
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>22</v>
@@ -3117,18 +3097,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="19">
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>22</v>
@@ -3143,18 +3123,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="19">
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>22</v>
@@ -3169,12 +3149,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="21">
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>18</v>
@@ -3195,12 +3175,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="21">
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>18</v>
@@ -3221,12 +3201,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="21">
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>18</v>
@@ -3247,12 +3227,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="21">
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>18</v>
@@ -3273,12 +3253,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="21">
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>18</v>
@@ -3299,18 +3279,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="21">
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>22</v>
@@ -3325,18 +3305,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="21">
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>22</v>
@@ -3351,18 +3331,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="21">
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>22</v>
@@ -3377,18 +3357,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="21">
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>22</v>
@@ -3403,12 +3383,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -3429,12 +3409,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="11">
         <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>18</v>
@@ -3455,27 +3435,27 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G89" s="2">
         <v>0.88</v>
@@ -3484,12 +3464,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="8">
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>18</v>
@@ -3498,7 +3478,7 @@
         <v>19</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3510,24 +3490,24 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3536,24 +3516,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3562,7 +3542,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="8">
         <v>22</v>
       </c>
@@ -3588,115 +3568,115 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D104">
         <v>0.75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D105">
         <v>0.95</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B106" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C106" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D106">
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B107" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
         <v>70</v>
       </c>
-      <c r="D107" t="s">
+      <c r="B109" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>75</v>
-      </c>
-      <c r="B109" t="s">
-        <v>76</v>
-      </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D109">
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D110">
         <v>0.9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D111">
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3705,26 +3685,26 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C114" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3740,7 +3720,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3753,7 +3733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="175">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1188,21 +1188,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="10">
         <v>51</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="10">
         <v>52</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="10">
         <v>57</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -3169,18 +3169,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="21">
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>19</v>
+      <c r="C78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>22</v>
@@ -3195,18 +3195,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="21">
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>19</v>
+      <c r="C79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>22</v>
@@ -3221,18 +3221,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="21">
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>19</v>
+      <c r="C80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>22</v>
@@ -3247,18 +3247,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="21">
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>19</v>
+      <c r="C81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>22</v>
@@ -3273,18 +3273,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="21">
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>19</v>
+      <c r="C82" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>22</v>
@@ -3299,7 +3299,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="21">
         <v>82</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="21">
         <v>83</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="21">
         <v>84</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="21">
         <v>85</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="11">
         <v>20</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>10</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="8">
         <v>29</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>43</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>44</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="8">
         <v>22</v>
       </c>
@@ -3588,12 +3588,12 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>157</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>64</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>68</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>95</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>75</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>78</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>138</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>140</v>
       </c>
@@ -3740,7 +3740,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3753,7 +3753,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="175">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>先驱者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>气功师很烂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -214,43 +210,498 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足旅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟空师很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇特木偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#434</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经验值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色识字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很屌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75-0.79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造就师很狂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头师很差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+  </si>
+  <si>
+    <t>熟练者</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>师很</t>
+  </si>
+  <si>
+    <t>#140</t>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力气师很大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉梅师很开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>#400</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足罗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足旅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣骑士很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟空师很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇特木偶</t>
+    <t>能量不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改2.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -258,458 +709,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>偶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#434</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经验值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景色识字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很屌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75-0.79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>史上最菜气功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造就师很狂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗头师很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足巛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶无敌了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水</t>
-  </si>
-  <si>
-    <t>熟练者</t>
-  </si>
-  <si>
-    <t>#81</t>
-  </si>
-  <si>
-    <t>师很</t>
-  </si>
-  <si>
-    <t>#140</t>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很涸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力气师很大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解师很哦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解师很油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拯救师很野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很苦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏师很利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀师很美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉梅师很开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师云起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零零师很辣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可师很说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆帆师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改2.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
+    <t>更新2.29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -900,7 +900,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -942,7 +942,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,7 +977,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1188,21 +1188,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1226,18 +1226,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
+      <c r="C2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1252,12 +1252,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
@@ -1266,30 +1266,33 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="H3" s="2">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1304,18 +1307,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -1330,18 +1333,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1353,21 +1356,21 @@
         <v>0.92</v>
       </c>
       <c r="H6" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -1382,12 +1385,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -1408,12 +1411,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -1434,12 +1437,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1460,38 +1463,17 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -1512,12 +1494,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1538,7 +1520,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1552,7 +1534,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>25</v>
@@ -1564,12 +1546,12 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
@@ -1590,7 +1572,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1601,7 +1583,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>29</v>
@@ -1616,7 +1598,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1627,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
@@ -1642,18 +1624,18 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>22</v>
@@ -1668,12 +1650,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -1694,12 +1676,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -1720,12 +1702,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1746,24 +1728,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G22" s="4">
         <v>0.88</v>
@@ -1772,12 +1754,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1798,15 +1780,15 @@
         <v>0.75</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -1827,21 +1809,21 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
@@ -1853,21 +1835,21 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>11</v>
@@ -1879,12 +1861,12 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>18</v>
@@ -1905,12 +1887,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1931,12 +1913,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1957,12 +1939,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -1983,12 +1965,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>13</v>
@@ -1997,10 +1979,10 @@
         <v>25</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G31" s="2">
         <v>0.91</v>
@@ -2009,18 +1991,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -2035,12 +2017,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>13</v>
@@ -2049,10 +2031,10 @@
         <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -2061,12 +2043,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
@@ -2075,10 +2057,10 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" s="2">
         <v>0.88</v>
@@ -2087,18 +2069,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -2113,12 +2095,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2139,12 +2121,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2153,10 +2135,10 @@
         <v>19</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2165,12 +2147,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>18</v>
@@ -2179,10 +2161,10 @@
         <v>19</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2191,12 +2173,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2205,10 +2187,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2217,12 +2199,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2231,10 +2213,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2243,12 +2225,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>13</v>
@@ -2269,12 +2251,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -2283,10 +2265,10 @@
         <v>25</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2295,18 +2277,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2321,12 +2303,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2347,12 +2329,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2373,12 +2355,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2387,10 +2369,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2399,12 +2381,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>18</v>
@@ -2413,10 +2395,10 @@
         <v>19</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2425,12 +2407,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2439,10 +2421,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2451,12 +2433,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2465,10 +2447,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2477,12 +2459,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>18</v>
@@ -2503,12 +2485,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="10">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>18</v>
@@ -2529,12 +2511,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="10">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
@@ -2555,12 +2537,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>18</v>
@@ -2581,18 +2563,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>22</v>
@@ -2607,18 +2589,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="10">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>22</v>
@@ -2633,18 +2615,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
@@ -2659,18 +2641,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="10">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>22</v>
@@ -2685,18 +2667,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="10">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>22</v>
@@ -2711,18 +2693,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>9</v>
@@ -2737,18 +2719,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="8">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>9</v>
@@ -2763,12 +2745,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>18</v>
@@ -2789,12 +2771,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="8">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>18</v>
@@ -2815,18 +2797,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="8">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>9</v>
@@ -2841,12 +2823,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="8">
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>18</v>
@@ -2867,12 +2849,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="8">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2881,12 +2863,12 @@
       <c r="G65" s="4"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="8">
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2895,12 +2877,12 @@
       <c r="G66" s="4"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="8">
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2909,12 +2891,12 @@
       <c r="G67" s="4"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="19">
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
@@ -2935,12 +2917,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="19">
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>18</v>
@@ -2961,12 +2943,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="19">
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>18</v>
@@ -2987,12 +2969,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="19">
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>18</v>
@@ -3013,18 +2995,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="19">
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>22</v>
@@ -3039,18 +3021,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="19">
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>22</v>
@@ -3065,18 +3047,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="19">
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>22</v>
@@ -3091,18 +3073,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="19">
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>22</v>
@@ -3117,18 +3099,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="19">
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>22</v>
@@ -3143,18 +3125,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="19">
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>22</v>
@@ -3169,12 +3151,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="21">
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>18</v>
@@ -3195,12 +3177,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="21">
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>18</v>
@@ -3221,12 +3203,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="21">
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>18</v>
@@ -3247,12 +3229,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="21">
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>18</v>
@@ -3273,12 +3255,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="21">
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>18</v>
@@ -3299,18 +3281,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="21">
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>22</v>
@@ -3325,18 +3307,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="21">
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>22</v>
@@ -3351,18 +3333,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="21">
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>22</v>
@@ -3377,18 +3359,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="21">
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>22</v>
@@ -3403,12 +3385,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -3429,12 +3411,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="11">
         <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>18</v>
@@ -3455,27 +3437,27 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G89" s="2">
         <v>0.88</v>
@@ -3484,12 +3466,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="8">
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>18</v>
@@ -3498,7 +3480,7 @@
         <v>19</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3510,24 +3492,24 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3536,24 +3518,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3562,12 +3544,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="8">
         <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>27</v>
@@ -3576,10 +3558,10 @@
         <v>11</v>
       </c>
       <c r="E96" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G96" s="2">
         <v>0.88</v>
@@ -3588,115 +3570,138 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D104">
         <v>0.75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" t="s">
         <v>64</v>
-      </c>
-      <c r="B105" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" t="s">
-        <v>66</v>
       </c>
       <c r="D105">
         <v>0.95</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" t="s">
         <v>68</v>
-      </c>
-      <c r="B106" t="s">
-        <v>69</v>
-      </c>
-      <c r="C106" t="s">
-        <v>70</v>
       </c>
       <c r="D106">
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
         <v>69</v>
       </c>
-      <c r="C107" t="s">
-        <v>70</v>
-      </c>
-      <c r="D107" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
+        <v>73</v>
+      </c>
+      <c r="B109" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" t="s">
         <v>75</v>
-      </c>
-      <c r="B109" t="s">
-        <v>76</v>
-      </c>
-      <c r="C109" t="s">
-        <v>77</v>
       </c>
       <c r="D109">
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D110">
         <v>0.9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s">
         <v>101</v>
-      </c>
-      <c r="B111" t="s">
-        <v>102</v>
-      </c>
-      <c r="C111" t="s">
-        <v>103</v>
       </c>
       <c r="D111">
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3705,26 +3710,26 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>138</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>139</v>
       </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="C114" t="s">
         <v>140</v>
-      </c>
-      <c r="B114" t="s">
-        <v>141</v>
-      </c>
-      <c r="C114" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3740,7 +3745,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3753,7 +3758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="174">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,15 +66,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ll1ll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>先驱者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>像血</t>
+    <t>睡眠不足丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十睡眠不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss睡眠不足ss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师狠烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -82,11 +122,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>睡眠不足丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十睡眠不足</t>
+    <t>士拉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男气功师很菜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先驱者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师狠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很烂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll0110ll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师废了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功该加强了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -94,27 +210,474 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>睡眠不足罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足旅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟空师很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇特木偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#434</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经验值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色识字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很屌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75-0.79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>#81</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>召唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss睡眠不足ss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造就师很狂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头师很差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+  </si>
+  <si>
+    <t>熟练者</t>
+  </si>
+  <si>
+    <t>#81</t>
   </si>
   <si>
     <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师狠烂</t>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力气师很大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉梅师很开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -122,581 +685,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>狂战士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>士拉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男气功师很菜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先驱者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师狠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很烂丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ll0110ll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师废了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功该加强了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足罗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足旅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣骑士很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟空师很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇特木偶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#434</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经验值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景色识字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很屌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75-0.79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>史上最菜气功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造就师很狂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗头师很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足巛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶无敌了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水</t>
-  </si>
-  <si>
-    <t>熟练者</t>
-  </si>
-  <si>
-    <t>#81</t>
-  </si>
-  <si>
-    <t>师很</t>
-  </si>
-  <si>
-    <t>#140</t>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很涸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力气师很大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解师很哦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解师很油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拯救师很野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很苦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏师很利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀师很美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉梅师很开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师云起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零零师很辣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可师很说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆帆师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>能量不足♂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -710,13 +698,21 @@
   </si>
   <si>
     <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追求理想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力不足</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -751,7 +747,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,6 +808,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -855,7 +857,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -880,6 +882,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -900,7 +906,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1188,21 +1194,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1226,70 +1232,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1304,18 +1316,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -1330,18 +1342,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1356,18 +1368,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -1382,18 +1394,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1408,18 +1420,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -1434,12 +1446,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1460,15 +1472,15 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
@@ -1486,18 +1498,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -1512,24 +1524,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2">
         <v>0.92</v>
@@ -1538,24 +1550,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2">
         <v>0.92</v>
@@ -1564,24 +1576,24 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G15" s="4">
         <v>0.75</v>
@@ -1590,24 +1602,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G16" s="4">
         <v>0.88</v>
@@ -1616,24 +1628,24 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G17" s="4">
         <v>0.92</v>
@@ -1642,24 +1654,24 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G18" s="4">
         <v>0.91</v>
@@ -1668,24 +1680,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G19" s="4">
         <v>0.75</v>
@@ -1694,24 +1706,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G20" s="4">
         <v>0.75</v>
@@ -1720,12 +1732,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1734,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G21" s="4">
         <v>0.75</v>
@@ -1746,24 +1758,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G22" s="4">
         <v>0.88</v>
@@ -1772,12 +1784,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1798,24 +1810,24 @@
         <v>0.75</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>11</v>
@@ -1827,21 +1839,21 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
@@ -1853,21 +1865,21 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>11</v>
@@ -1879,24 +1891,24 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G27" s="4">
         <v>0.75</v>
@@ -1905,24 +1917,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G28" s="4">
         <v>0.75</v>
@@ -1931,12 +1943,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1957,12 +1969,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -1983,24 +1995,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>124</v>
-      </c>
       <c r="F31" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G31" s="2">
         <v>0.91</v>
@@ -2009,24 +2021,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="D32" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G32" s="4">
         <v>0.75</v>
@@ -2035,24 +2047,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -2061,24 +2073,24 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G34" s="2">
         <v>0.88</v>
@@ -2087,24 +2099,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G35" s="4">
         <v>0.75</v>
@@ -2113,21 +2125,21 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>11</v>
@@ -2139,24 +2151,24 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2165,24 +2177,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2191,12 +2203,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2205,10 +2217,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2217,12 +2229,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2231,10 +2243,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2243,18 +2255,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>9</v>
@@ -2269,24 +2281,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2295,18 +2307,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2321,12 +2333,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2347,12 +2359,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2373,12 +2385,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2387,10 +2399,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2399,24 +2411,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2425,12 +2437,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2439,10 +2451,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2451,12 +2463,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2465,10 +2477,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2477,24 +2489,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G50" s="5">
         <v>0.75</v>
@@ -2503,24 +2515,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="10">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G51" s="5">
         <v>0.75</v>
@@ -2529,24 +2541,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="10">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G52" s="5">
         <v>0.75</v>
@@ -2555,24 +2567,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G53" s="5">
         <v>0.75</v>
@@ -2581,24 +2593,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G54" s="4">
         <v>0.85</v>
@@ -2607,24 +2619,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="10">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G55" s="4">
         <v>0.85</v>
@@ -2633,24 +2645,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G56" s="4">
         <v>0.85</v>
@@ -2659,24 +2671,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="10">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G57" s="4">
         <v>0.85</v>
@@ -2685,24 +2697,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="10">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G58" s="4">
         <v>0.85</v>
@@ -2711,18 +2723,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>9</v>
@@ -2737,18 +2749,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="8">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>9</v>
@@ -2763,18 +2775,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>9</v>
@@ -2789,18 +2801,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="8">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>9</v>
@@ -2815,18 +2827,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="8">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>9</v>
@@ -2841,18 +2853,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="8">
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>9</v>
@@ -2867,12 +2879,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="8">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2881,12 +2893,12 @@
       <c r="G65" s="4"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="8">
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2895,12 +2907,12 @@
       <c r="G66" s="4"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="8">
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2909,24 +2921,24 @@
       <c r="G67" s="4"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="19">
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G68" s="8">
         <v>0.91</v>
@@ -2935,24 +2947,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="19">
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G69" s="8">
         <v>0.75</v>
@@ -2961,24 +2973,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="19">
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G70" s="8">
         <v>0.75</v>
@@ -2987,24 +2999,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="19">
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G71" s="8">
         <v>0.75</v>
@@ -3013,24 +3025,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="19">
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G72" s="20">
         <v>0.85</v>
@@ -3039,24 +3051,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="19">
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G73" s="20">
         <v>0.85</v>
@@ -3065,24 +3077,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="19">
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G74" s="20">
         <v>0.85</v>
@@ -3091,24 +3103,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="19">
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G75" s="20">
         <v>0.85</v>
@@ -3117,24 +3129,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="19">
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G76" s="20">
         <v>0.85</v>
@@ -3143,24 +3155,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="19">
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G77" s="20">
         <v>0.85</v>
@@ -3169,24 +3181,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="21">
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G78" s="20">
         <v>0.75</v>
@@ -3195,24 +3207,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="21">
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3221,24 +3233,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="21">
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3247,24 +3259,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="21">
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G81" s="20">
         <v>0.75</v>
@@ -3273,24 +3285,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="21">
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G82" s="20">
         <v>0.75</v>
@@ -3299,24 +3311,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="21">
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G83" s="20">
         <v>0.75</v>
@@ -3325,24 +3337,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="21">
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G84" s="20">
         <v>0.75</v>
@@ -3351,24 +3363,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="21">
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G85" s="20">
         <v>0.75</v>
@@ -3377,24 +3389,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="21">
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G86" s="20">
         <v>0.75</v>
@@ -3403,12 +3415,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -3429,24 +3441,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="11">
         <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G88" s="4">
         <v>0.75</v>
@@ -3455,27 +3467,27 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G89" s="2">
         <v>0.88</v>
@@ -3484,21 +3496,21 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="8">
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3510,24 +3522,24 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3536,24 +3548,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3562,24 +3574,24 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="8">
         <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G96" s="2">
         <v>0.88</v>
@@ -3588,115 +3600,115 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D104">
         <v>0.75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D105">
         <v>0.95</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D106">
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B107" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B109" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D109">
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D110">
         <v>0.9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D111">
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3705,26 +3717,26 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C114" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3740,7 +3752,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3753,7 +3765,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="166">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,18 +66,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ll1ll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>先驱者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>像血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#422</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -146,10 +138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>先驱者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>气功师很烂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,10 +175,6 @@
   </si>
   <si>
     <t>功运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -880,7 +864,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -922,7 +906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,7 +941,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1168,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1214,10 +1198,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1237,19 +1221,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2">
         <v>0.88</v>
@@ -1263,13 +1247,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1289,13 +1273,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -1315,13 +1299,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1341,13 +1325,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -1367,13 +1351,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1393,13 +1377,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -1419,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1445,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
@@ -1468,16 +1452,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -1497,19 +1481,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2">
         <v>0.92</v>
@@ -1523,19 +1507,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2">
         <v>0.92</v>
@@ -1549,19 +1533,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="4">
         <v>0.75</v>
@@ -1575,19 +1559,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G16" s="4">
         <v>0.88</v>
@@ -1601,19 +1585,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17" s="4">
         <v>0.92</v>
@@ -1627,19 +1611,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="4">
         <v>0.91</v>
@@ -1653,19 +1637,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G19" s="4">
         <v>0.75</v>
@@ -1679,19 +1663,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G20" s="4">
         <v>0.75</v>
@@ -1705,7 +1689,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1714,10 +1698,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G21" s="4">
         <v>0.75</v>
@@ -1731,19 +1715,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G22" s="4">
         <v>0.88</v>
@@ -1757,7 +1741,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1778,7 +1762,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1786,19 +1770,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G24" s="4">
         <v>0.91</v>
@@ -1812,16 +1796,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
@@ -1838,19 +1822,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G26" s="4">
         <v>0.75</v>
@@ -1864,19 +1848,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G27" s="4">
         <v>0.75</v>
@@ -1890,19 +1874,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G28" s="4">
         <v>0.75</v>
@@ -1916,7 +1900,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1942,7 +1926,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -1968,19 +1952,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="G31" s="2">
         <v>0.91</v>
@@ -1994,19 +1978,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G32" s="4">
         <v>0.75</v>
@@ -2020,19 +2004,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -2046,19 +2030,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G34" s="2">
         <v>0.88</v>
@@ -2072,19 +2056,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G35" s="4">
         <v>0.75</v>
@@ -2098,16 +2082,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>11</v>
@@ -2124,19 +2108,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2150,19 +2134,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2176,7 +2160,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2185,10 +2169,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2202,7 +2186,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2211,10 +2195,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2228,13 +2212,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>9</v>
@@ -2254,19 +2238,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2280,13 +2264,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2306,7 +2290,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2332,7 +2316,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2358,7 +2342,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2367,10 +2351,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2384,19 +2368,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2410,7 +2394,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2419,10 +2403,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2436,7 +2420,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2445,10 +2429,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2462,19 +2446,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G50" s="5">
         <v>0.75</v>
@@ -2488,19 +2472,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G51" s="5">
         <v>0.75</v>
@@ -2514,19 +2498,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G52" s="5">
         <v>0.75</v>
@@ -2540,19 +2524,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G53" s="5">
         <v>0.75</v>
@@ -2566,19 +2550,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G54" s="4">
         <v>0.85</v>
@@ -2592,19 +2576,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G55" s="4">
         <v>0.85</v>
@@ -2618,19 +2602,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G56" s="4">
         <v>0.85</v>
@@ -2644,19 +2628,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G57" s="4">
         <v>0.85</v>
@@ -2670,19 +2654,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G58" s="4">
         <v>0.85</v>
@@ -2696,13 +2680,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>9</v>
@@ -2722,13 +2706,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>9</v>
@@ -2748,13 +2732,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>9</v>
@@ -2774,13 +2758,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>9</v>
@@ -2800,13 +2784,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>9</v>
@@ -2826,13 +2810,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>9</v>
@@ -2852,7 +2836,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2866,7 +2850,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2880,7 +2864,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2894,19 +2878,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G68" s="8">
         <v>0.91</v>
@@ -2920,19 +2904,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G69" s="8">
         <v>0.75</v>
@@ -2946,19 +2930,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G70" s="8">
         <v>0.75</v>
@@ -2972,19 +2956,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G71" s="8">
         <v>0.75</v>
@@ -2998,19 +2982,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G72" s="20">
         <v>0.85</v>
@@ -3024,19 +3008,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G73" s="20">
         <v>0.85</v>
@@ -3050,19 +3034,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G74" s="20">
         <v>0.85</v>
@@ -3076,19 +3060,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G75" s="20">
         <v>0.85</v>
@@ -3102,19 +3086,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G76" s="20">
         <v>0.85</v>
@@ -3128,19 +3112,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G77" s="20">
         <v>0.85</v>
@@ -3154,19 +3138,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G78" s="20">
         <v>0.75</v>
@@ -3180,19 +3164,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3206,19 +3190,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3232,19 +3216,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G81" s="20">
         <v>0.75</v>
@@ -3258,19 +3242,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G82" s="20">
         <v>0.75</v>
@@ -3284,19 +3268,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G83" s="20">
         <v>0.75</v>
@@ -3310,19 +3294,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G84" s="20">
         <v>0.75</v>
@@ -3336,19 +3320,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G85" s="20">
         <v>0.75</v>
@@ -3362,19 +3346,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G86" s="20">
         <v>0.75</v>
@@ -3388,7 +3372,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -3414,19 +3398,19 @@
         <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G88" s="4">
         <v>0.75</v>
@@ -3435,7 +3419,7 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -3443,19 +3427,19 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G89" s="2">
         <v>0.88</v>
@@ -3469,16 +3453,16 @@
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3495,19 +3479,19 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3521,19 +3505,19 @@
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3547,19 +3531,19 @@
         <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G96" s="2">
         <v>0.88</v>
@@ -3575,13 +3559,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D104">
         <v>0.75</v>
@@ -3589,13 +3573,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D105">
         <v>0.95</v>
@@ -3603,13 +3587,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D106">
         <v>0.85</v>
@@ -3617,27 +3601,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D107" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D109">
         <v>0.9</v>
@@ -3645,13 +3629,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B110" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D110">
         <v>0.9</v>
@@ -3659,13 +3643,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B111" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C111" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D111">
         <v>0.8</v>
@@ -3673,10 +3657,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3687,10 +3671,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3698,13 +3682,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C114" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -880,7 +880,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -922,7 +922,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,7 +957,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1970,11 +1970,11 @@
       <c r="B31" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>119</v>
@@ -1982,8 +1982,8 @@
       <c r="F31" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="2">
-        <v>0.91</v>
+      <c r="G31" s="4">
+        <v>0.75</v>
       </c>
       <c r="H31" s="16">
         <v>0.75</v>
@@ -2034,8 +2034,8 @@
       <c r="F33" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="7">
-        <v>0.91</v>
+      <c r="G33" s="4">
+        <v>0.75</v>
       </c>
       <c r="H33">
         <v>0.85</v>
@@ -2074,11 +2074,11 @@
       <c r="B35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>118</v>
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -2086,8 +2086,8 @@
       <c r="F35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="4">
-        <v>0.75</v>
+      <c r="G35" s="2">
+        <v>0.88</v>
       </c>
       <c r="H35" s="4">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="164">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>气功师很水i</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -479,10 +475,6 @@
   </si>
   <si>
     <t>#140</t>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功师很行</t>
@@ -1152,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1403,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1741,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1762,7 +1754,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1822,7 +1814,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
@@ -1874,7 +1866,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -1900,7 +1892,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1926,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -1952,19 +1944,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="G31" s="2">
         <v>0.91</v>
@@ -1978,13 +1970,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>20</v>
@@ -2006,11 +1998,11 @@
       <c r="B33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>23</v>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>64</v>
@@ -2030,21 +2022,21 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="2">
+        <v>157</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4">
         <v>0.88</v>
       </c>
       <c r="H34" s="4">
@@ -2056,13 +2048,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
@@ -2082,7 +2074,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -2108,7 +2100,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
@@ -2117,10 +2109,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2134,7 +2126,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -2143,10 +2135,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2160,7 +2152,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2169,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2186,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2195,10 +2187,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2264,13 +2256,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C43" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2290,7 +2282,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2316,7 +2308,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2342,7 +2334,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2394,7 +2386,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2420,7 +2412,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2472,7 +2464,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>16</v>
@@ -2498,7 +2490,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>16</v>
@@ -2524,7 +2516,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>16</v>
@@ -2550,7 +2542,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
@@ -2576,7 +2568,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2602,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
@@ -2628,7 +2620,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
@@ -2654,7 +2646,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
@@ -2680,7 +2672,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>79</v>
@@ -2706,7 +2698,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>41</v>
@@ -2732,7 +2724,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>16</v>
@@ -2758,7 +2750,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>16</v>
@@ -2784,7 +2776,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
@@ -2810,7 +2802,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -2836,7 +2828,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2850,7 +2842,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2864,7 +2856,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2878,7 +2870,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
@@ -2904,7 +2896,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>16</v>
@@ -2930,7 +2922,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>16</v>
@@ -2956,7 +2948,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -2982,7 +2974,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -3008,7 +3000,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
@@ -3034,7 +3026,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
@@ -3060,7 +3052,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
@@ -3086,7 +3078,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
@@ -3112,7 +3104,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
@@ -3138,7 +3130,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>16</v>
@@ -3164,7 +3156,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>16</v>
@@ -3190,7 +3182,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>16</v>
@@ -3216,7 +3208,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>16</v>
@@ -3242,7 +3234,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>16</v>
@@ -3268,7 +3260,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3294,7 +3286,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3320,7 +3312,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3346,7 +3338,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3453,7 +3445,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>16</v>
@@ -3462,7 +3454,7 @@
         <v>17</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3482,10 +3474,10 @@
         <v>78</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>69</v>
@@ -3505,7 +3497,7 @@
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>79</v>
@@ -3559,13 +3551,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
         <v>56</v>
       </c>
       <c r="C104" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D104">
         <v>0.75</v>
@@ -3643,13 +3635,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" t="s">
         <v>92</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>93</v>
-      </c>
-      <c r="C111" t="s">
-        <v>94</v>
       </c>
       <c r="D111">
         <v>0.8</v>
@@ -3657,10 +3649,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>106</v>
+      </c>
+      <c r="B112" t="s">
         <v>107</v>
-      </c>
-      <c r="B112" t="s">
-        <v>108</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3671,10 +3663,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3682,13 +3674,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" t="s">
+        <v>130</v>
+      </c>
+      <c r="C114" t="s">
         <v>131</v>
-      </c>
-      <c r="B114" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3182,11 +3182,11 @@
       <c r="B79" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>19</v>
+      <c r="C79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>22</v>
@@ -3208,11 +3208,11 @@
       <c r="B80" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>19</v>
+      <c r="C80" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>22</v>
@@ -3221,7 +3221,7 @@
         <v>23</v>
       </c>
       <c r="G80" s="20">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="H80" s="19">
         <v>0.75</v>
@@ -3234,11 +3234,11 @@
       <c r="B81" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>19</v>
+      <c r="C81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>22</v>
@@ -3260,11 +3260,11 @@
       <c r="B82" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>19</v>
+      <c r="C82" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>22</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="174">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ss睡眠不足ss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>师很</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -154,526 +150,562 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>气功师废了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足旅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟空师很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇特木偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#434</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经验值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色识字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很屌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75-0.79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造就师很狂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头师很差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+  </si>
+  <si>
+    <t>熟练者</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>师很</t>
+  </si>
+  <si>
+    <t>#140</t>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力气师很大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉梅师很开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改2.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足招唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ll0110ll</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>数字</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师废了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足罗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足旅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣骑士很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟空师很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇特木偶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#434</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经验值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景色识字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很屌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75-0.79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>史上最菜气功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造就师很狂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗头师很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足巛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶无敌了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水</t>
-  </si>
-  <si>
-    <t>熟练者</t>
-  </si>
-  <si>
-    <t>#81</t>
-  </si>
-  <si>
-    <t>师很</t>
-  </si>
-  <si>
-    <t>#140</t>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很涸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力气师很大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解师很哦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解师很油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拯救师很野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很苦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏师很利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀师很美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉梅师很开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师云起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零零师很辣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可师很说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆帆师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改2.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
+    <t>智力不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不uzi呀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1152,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1197,11 +1229,11 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1224,7 +1256,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -1250,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -1276,7 +1308,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -1298,26 +1330,26 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.75</v>
+      <c r="G6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1325,22 +1357,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="H7" s="2">
         <v>0.75</v>
@@ -1351,13 +1383,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1377,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1403,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1432,7 +1464,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
@@ -1452,16 +1484,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -1481,19 +1513,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2">
         <v>0.92</v>
@@ -1507,19 +1539,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2">
         <v>0.92</v>
@@ -1533,7 +1565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1542,10 +1574,10 @@
         <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="4">
         <v>0.75</v>
@@ -1559,19 +1591,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G16" s="4">
         <v>0.88</v>
@@ -1585,19 +1617,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="4">
         <v>0.92</v>
@@ -1611,19 +1643,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="4">
         <v>0.91</v>
@@ -1637,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
@@ -1646,10 +1678,10 @@
         <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="4">
         <v>0.75</v>
@@ -1663,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
@@ -1672,10 +1704,10 @@
         <v>17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="4">
         <v>0.75</v>
@@ -1689,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1698,10 +1730,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="4">
         <v>0.75</v>
@@ -1715,19 +1747,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G22" s="4">
         <v>0.88</v>
@@ -1741,7 +1773,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1762,7 +1794,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1770,19 +1802,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="4">
         <v>0.91</v>
@@ -1796,16 +1828,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
@@ -1822,7 +1854,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
@@ -1831,10 +1863,10 @@
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="4">
         <v>0.75</v>
@@ -1848,7 +1880,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>16</v>
@@ -1857,10 +1889,10 @@
         <v>17</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="4">
         <v>0.75</v>
@@ -1874,7 +1906,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -1883,10 +1915,10 @@
         <v>17</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" s="4">
         <v>0.75</v>
@@ -1900,7 +1932,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1926,7 +1958,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -1952,19 +1984,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G31" s="2">
         <v>0.91</v>
@@ -1978,19 +2010,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G32" s="4">
         <v>0.75</v>
@@ -2004,19 +2036,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -2030,19 +2062,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G34" s="2">
         <v>0.88</v>
@@ -2056,19 +2088,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" s="4">
         <v>0.75</v>
@@ -2082,7 +2114,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -2091,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>11</v>
@@ -2108,7 +2140,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
@@ -2117,10 +2149,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2134,7 +2166,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -2143,10 +2175,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2160,7 +2192,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2169,10 +2201,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2186,7 +2218,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2195,10 +2227,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2212,13 +2244,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>9</v>
@@ -2238,19 +2270,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2264,13 +2296,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2290,7 +2322,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2316,7 +2348,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2342,7 +2374,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2351,10 +2383,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2368,7 +2400,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>16</v>
@@ -2377,10 +2409,10 @@
         <v>17</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2394,7 +2426,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2403,10 +2435,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2420,7 +2452,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2429,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2446,7 +2478,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>16</v>
@@ -2455,10 +2487,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G50" s="5">
         <v>0.75</v>
@@ -2472,7 +2504,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>16</v>
@@ -2481,10 +2513,10 @@
         <v>17</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G51" s="5">
         <v>0.75</v>
@@ -2498,7 +2530,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>16</v>
@@ -2507,10 +2539,10 @@
         <v>17</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G52" s="5">
         <v>0.75</v>
@@ -2524,7 +2556,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>16</v>
@@ -2533,10 +2565,10 @@
         <v>17</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G53" s="5">
         <v>0.75</v>
@@ -2550,19 +2582,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G54" s="4">
         <v>0.85</v>
@@ -2576,19 +2608,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G55" s="4">
         <v>0.85</v>
@@ -2602,19 +2634,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G56" s="4">
         <v>0.85</v>
@@ -2628,19 +2660,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G57" s="4">
         <v>0.85</v>
@@ -2654,19 +2686,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G58" s="4">
         <v>0.85</v>
@@ -2680,13 +2712,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>9</v>
@@ -2706,13 +2738,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>9</v>
@@ -2732,7 +2764,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>16</v>
@@ -2758,7 +2790,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>16</v>
@@ -2784,13 +2816,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>9</v>
@@ -2810,7 +2842,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -2836,7 +2868,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2850,7 +2882,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2864,7 +2896,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2878,19 +2910,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G68" s="8">
         <v>0.91</v>
@@ -2904,7 +2936,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>16</v>
@@ -2913,10 +2945,10 @@
         <v>17</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G69" s="8">
         <v>0.75</v>
@@ -2930,7 +2962,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>16</v>
@@ -2939,10 +2971,10 @@
         <v>17</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G70" s="8">
         <v>0.75</v>
@@ -2956,7 +2988,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -2965,10 +2997,10 @@
         <v>17</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G71" s="8">
         <v>0.75</v>
@@ -2982,19 +3014,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G72" s="20">
         <v>0.85</v>
@@ -3008,19 +3040,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G73" s="20">
         <v>0.85</v>
@@ -3034,19 +3066,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74" s="20">
         <v>0.85</v>
@@ -3060,19 +3092,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G75" s="20">
         <v>0.85</v>
@@ -3086,19 +3118,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G76" s="20">
         <v>0.85</v>
@@ -3112,19 +3144,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G77" s="20">
         <v>0.85</v>
@@ -3138,7 +3170,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>16</v>
@@ -3147,10 +3179,10 @@
         <v>17</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G78" s="20">
         <v>0.75</v>
@@ -3164,7 +3196,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>16</v>
@@ -3173,10 +3205,10 @@
         <v>17</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3190,7 +3222,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>16</v>
@@ -3199,10 +3231,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3216,7 +3248,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>16</v>
@@ -3225,10 +3257,10 @@
         <v>17</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G81" s="20">
         <v>0.75</v>
@@ -3242,7 +3274,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>16</v>
@@ -3251,10 +3283,10 @@
         <v>17</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G82" s="20">
         <v>0.75</v>
@@ -3268,19 +3300,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G83" s="20">
         <v>0.75</v>
@@ -3294,19 +3326,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G84" s="20">
         <v>0.75</v>
@@ -3320,19 +3352,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G85" s="20">
         <v>0.75</v>
@@ -3346,19 +3378,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G86" s="20">
         <v>0.75</v>
@@ -3372,7 +3404,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -3398,7 +3430,7 @@
         <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>16</v>
@@ -3407,10 +3439,10 @@
         <v>17</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G88" s="4">
         <v>0.75</v>
@@ -3419,7 +3451,7 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -3427,19 +3459,19 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G89" s="2">
         <v>0.88</v>
@@ -3453,7 +3485,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>16</v>
@@ -3462,7 +3494,7 @@
         <v>17</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3479,19 +3511,19 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="F93" s="5" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3505,19 +3537,19 @@
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3531,19 +3563,19 @@
         <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="G96" s="2">
         <v>0.88</v>
@@ -3552,115 +3584,193 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G97" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H97" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G98" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G99" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H99" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D104">
         <v>0.75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D105">
         <v>0.95</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C106" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D106">
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
         <v>61</v>
       </c>
-      <c r="D107" t="s">
+      <c r="B109" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
-        <v>66</v>
-      </c>
-      <c r="B109" t="s">
-        <v>67</v>
-      </c>
       <c r="C109" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D109">
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D110">
         <v>0.9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B111" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C111" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D111">
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3671,10 +3781,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3682,13 +3792,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C114" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2037,7 +2037,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="4">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="H34" s="4">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="172">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -342,10 +342,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>气功师很水i</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -451,10 +447,6 @@
   </si>
   <si>
     <t>#140</t>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>气功师很行</t>
@@ -1184,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1331,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -1435,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1773,7 +1765,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1794,7 +1786,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1854,7 +1846,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
@@ -1906,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -1932,7 +1924,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1958,7 +1950,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -1984,22 +1976,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>22</v>
+        <v>104</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>109</v>
-      </c>
       <c r="G31" s="2">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="H31" s="16">
         <v>0.75</v>
@@ -2010,13 +2002,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>19</v>
@@ -2038,11 +2030,11 @@
       <c r="B33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>22</v>
+      <c r="C33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>59</v>
@@ -2061,23 +2053,23 @@
       <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B34" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" t="s">
-        <v>52</v>
-      </c>
       <c r="G34" s="2">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="H34" s="4">
         <v>0.75</v>
@@ -2088,13 +2080,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>107</v>
+        <v>81</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>19</v>
@@ -2114,7 +2106,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -2140,7 +2132,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
@@ -2149,10 +2141,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2166,7 +2158,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -2175,10 +2167,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2192,7 +2184,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2201,10 +2193,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2218,7 +2210,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2227,10 +2219,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2296,13 +2288,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C43" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2322,7 +2314,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2348,7 +2340,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2374,7 +2366,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2426,7 +2418,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2452,7 +2444,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2504,7 +2496,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>16</v>
@@ -2530,7 +2522,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>16</v>
@@ -2556,7 +2548,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>16</v>
@@ -2582,7 +2574,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
@@ -2608,7 +2600,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2634,7 +2626,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
@@ -2660,7 +2652,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
@@ -2686,7 +2678,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
@@ -2712,7 +2704,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>73</v>
@@ -2738,7 +2730,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>37</v>
@@ -2764,7 +2756,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>16</v>
@@ -2790,7 +2782,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>16</v>
@@ -2816,7 +2808,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
@@ -2842,7 +2834,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -2868,7 +2860,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2882,7 +2874,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2896,7 +2888,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2910,7 +2902,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
@@ -2936,7 +2928,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>16</v>
@@ -2962,7 +2954,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>16</v>
@@ -2988,7 +2980,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -3014,7 +3006,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -3040,7 +3032,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
@@ -3066,7 +3058,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
@@ -3092,7 +3084,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
@@ -3118,7 +3110,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
@@ -3144,7 +3136,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
@@ -3170,7 +3162,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>16</v>
@@ -3196,7 +3188,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>16</v>
@@ -3222,7 +3214,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>16</v>
@@ -3248,7 +3240,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>16</v>
@@ -3274,7 +3266,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>16</v>
@@ -3300,7 +3292,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3326,7 +3318,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3352,7 +3344,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3378,7 +3370,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3485,7 +3477,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>16</v>
@@ -3494,7 +3486,7 @@
         <v>17</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3511,19 +3503,19 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="F93" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3537,19 +3529,19 @@
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="E94" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3563,19 +3555,19 @@
         <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="E96" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="F96" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G96" s="2">
         <v>0.88</v>
@@ -3589,19 +3581,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G97" s="13">
         <v>0.75</v>
@@ -3615,19 +3607,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G98" s="13">
         <v>0.75</v>
@@ -3641,19 +3633,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G99" s="13">
         <v>0.75</v>
@@ -3669,13 +3661,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B104" t="s">
         <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D104">
         <v>0.75</v>
@@ -3753,13 +3745,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" t="s">
         <v>85</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>86</v>
-      </c>
-      <c r="C111" t="s">
-        <v>87</v>
       </c>
       <c r="D111">
         <v>0.8</v>
@@ -3767,10 +3759,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" t="s">
         <v>100</v>
-      </c>
-      <c r="B112" t="s">
-        <v>101</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3781,10 +3773,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3792,13 +3784,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
         <v>124</v>
-      </c>
-      <c r="B114" t="s">
-        <v>125</v>
-      </c>
-      <c r="C114" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="169">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -602,10 +602,6 @@
   </si>
   <si>
     <t>拉梅师很开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -880,7 +876,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -922,7 +918,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,7 +953,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1168,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1419,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1757,7 +1753,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1778,7 +1774,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1942,7 +1938,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -2202,7 +2198,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2280,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>117</v>
@@ -2306,7 +2302,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2332,7 +2328,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2410,7 +2406,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2464,11 +2460,11 @@
       <c r="B50" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>19</v>
+      <c r="C50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>22</v>
@@ -2490,11 +2486,11 @@
       <c r="B51" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>19</v>
+      <c r="C51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>22</v>
@@ -2542,11 +2538,11 @@
       <c r="B53" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>19</v>
+      <c r="C53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>22</v>
@@ -2565,23 +2561,23 @@
       <c r="A54" s="10">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0.85</v>
+      <c r="B54" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.75</v>
       </c>
       <c r="H54" s="10">
         <v>0.75</v>
@@ -2592,7 +2588,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2998,7 +2994,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -3102,7 +3098,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
@@ -3128,7 +3124,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
@@ -3284,7 +3280,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3310,7 +3306,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3336,7 +3332,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3362,7 +3358,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3498,10 +3494,10 @@
         <v>82</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>73</v>
@@ -3575,13 +3571,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
         <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D104">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="172">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -545,159 +545,159 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>建筑师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉梅师很开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>梦想师很阔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改2.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足招唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll0110ll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不uzi呀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>高台师很恶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师云起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零零师很辣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可师很说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆帆师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改2.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足招唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ll0110ll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不uzi呀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
+    <t>γγ不足♂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -1427,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1765,7 +1765,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1950,7 +1950,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -2054,7 +2054,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
@@ -2210,7 +2210,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2288,7 +2288,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>105</v>
@@ -2314,7 +2314,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2340,7 +2340,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2418,7 +2418,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2472,11 +2472,11 @@
       <c r="B50" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>17</v>
+      <c r="C50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>19</v>
@@ -2498,11 +2498,11 @@
       <c r="B51" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>17</v>
+      <c r="C51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>19</v>
@@ -2522,10 +2522,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
@@ -2548,13 +2548,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>17</v>
+        <v>133</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>19</v>
@@ -2574,22 +2574,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>20</v>
+        <v>171</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="G54" s="4">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="H54" s="10">
         <v>0.75</v>
@@ -2600,7 +2600,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2625,9 +2625,7 @@
       <c r="A56" s="10">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="B56" s="10"/>
       <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
@@ -3006,7 +3004,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -3110,7 +3108,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
@@ -3136,7 +3134,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
@@ -3292,7 +3290,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3318,7 +3316,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3344,7 +3342,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3370,7 +3368,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3503,19 +3501,19 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="F93" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3529,19 +3527,19 @@
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3555,19 +3553,19 @@
         <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="F96" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G96" s="2">
         <v>0.88</v>
@@ -3581,19 +3579,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D97" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="G97" s="13">
         <v>0.75</v>
@@ -3607,19 +3605,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D98" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="G98" s="13">
         <v>0.75</v>
@@ -3633,19 +3631,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G99" s="13">
         <v>0.75</v>
@@ -3661,13 +3659,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B104" t="s">
         <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D104">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -557,10 +557,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>储藏师很利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -666,6 +662,10 @@
   </si>
   <si>
     <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很猛丨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -898,7 +898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -933,7 +933,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1395,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1733,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1754,7 +1754,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1918,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -2022,7 +2022,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
@@ -2178,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2256,7 +2256,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>112</v>
@@ -2282,7 +2282,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2308,7 +2308,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2386,7 +2386,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2490,7 +2490,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>16</v>
@@ -2516,7 +2516,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>16</v>
@@ -2542,7 +2542,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
@@ -2568,7 +2568,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
@@ -2620,7 +2620,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
@@ -2646,7 +2646,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
@@ -2974,7 +2974,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -3078,7 +3078,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
@@ -3104,7 +3104,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
@@ -3132,11 +3132,11 @@
       <c r="B78" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>17</v>
+      <c r="C78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>20</v>
@@ -3158,11 +3158,11 @@
       <c r="B79" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>17</v>
+      <c r="C79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>20</v>
@@ -3210,11 +3210,11 @@
       <c r="B81" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>17</v>
+      <c r="C81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>20</v>
@@ -3234,13 +3234,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>17</v>
+        <v>163</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>20</v>
@@ -3260,7 +3260,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3286,7 +3286,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3312,7 +3312,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3338,7 +3338,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3474,10 +3474,10 @@
         <v>78</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>69</v>
@@ -3551,13 +3551,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
         <v>56</v>
       </c>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D104">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="178">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -525,179 +525,203 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改2.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足招唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll0110ll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不uzi呀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>γγ不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>雪域师很水</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏师很利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀师很美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师云起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零零师很辣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可师很说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆帆师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改2.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足招唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ll0110ll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>高手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不uzi呀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>γγ不足♂</t>
+    <t>师很</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +912,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -930,7 +954,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -965,7 +989,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1176,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -1427,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1765,7 +1789,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1786,7 +1810,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1950,7 +1974,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -2054,7 +2078,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
@@ -2210,7 +2234,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2288,7 +2312,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>105</v>
@@ -2314,7 +2338,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2340,7 +2364,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2418,7 +2442,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2522,10 +2546,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
@@ -2548,7 +2572,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2574,7 +2598,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>16</v>
@@ -2600,7 +2624,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2650,7 +2674,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
@@ -2676,7 +2700,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
@@ -3004,7 +3028,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -3108,7 +3132,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
@@ -3134,7 +3158,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
@@ -3162,11 +3186,11 @@
       <c r="B78" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>17</v>
+      <c r="C78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>19</v>
@@ -3188,17 +3212,17 @@
       <c r="B79" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>17</v>
+      <c r="C79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3221,10 +3245,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3238,16 +3262,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>17</v>
+        <v>175</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>20</v>
@@ -3264,7 +3288,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>16</v>
@@ -3290,7 +3314,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3316,7 +3340,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3342,7 +3366,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3368,7 +3392,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3501,19 +3525,19 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="F93" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3527,19 +3551,19 @@
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="E94" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3553,19 +3577,19 @@
         <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="E96" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="F96" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G96" s="2">
         <v>0.88</v>
@@ -3579,19 +3603,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="F97" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G97" s="13">
         <v>0.75</v>
@@ -3605,19 +3629,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>166</v>
-      </c>
       <c r="F98" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G98" s="13">
         <v>0.75</v>
@@ -3631,19 +3655,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>168</v>
-      </c>
       <c r="D99" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G99" s="13">
         <v>0.75</v>
@@ -3659,13 +3683,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
         <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D104">
         <v>0.75</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="169">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -439,10 +439,6 @@
   </si>
   <si>
     <t>淡水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水不足了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -880,7 +876,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -922,7 +918,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,7 +953,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1168,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1419,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1757,7 +1753,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1778,7 +1774,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1838,7 +1834,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>18</v>
@@ -1890,7 +1886,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
@@ -1916,7 +1912,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1942,7 +1938,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -1968,7 +1964,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>13</v>
@@ -1977,10 +1973,10 @@
         <v>25</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="G31" s="2">
         <v>0.91</v>
@@ -1994,13 +1990,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>118</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>22</v>
@@ -2046,7 +2042,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>27</v>
@@ -2075,10 +2071,10 @@
         <v>92</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>118</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>22</v>
@@ -2098,7 +2094,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
@@ -2124,7 +2120,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>18</v>
@@ -2133,10 +2129,10 @@
         <v>19</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2150,7 +2146,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>18</v>
@@ -2159,10 +2155,10 @@
         <v>19</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2176,7 +2172,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2185,10 +2181,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2202,7 +2198,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2211,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2280,13 +2276,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>117</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>118</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2306,7 +2302,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2332,7 +2328,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2410,7 +2406,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2488,7 +2484,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>18</v>
@@ -2514,7 +2510,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>18</v>
@@ -2540,7 +2536,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>18</v>
@@ -2566,7 +2562,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
@@ -2592,7 +2588,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2618,7 +2614,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
@@ -2644,7 +2640,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
@@ -2670,7 +2666,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
@@ -2799,25 +2795,25 @@
       <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="8" t="s">
+      <c r="D63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="H63" s="8">
+      <c r="G63" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H63" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -2826,7 +2822,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>18</v>
@@ -2894,7 +2890,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>13</v>
@@ -2920,7 +2916,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>18</v>
@@ -2946,7 +2942,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>18</v>
@@ -2972,7 +2968,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>18</v>
@@ -2998,7 +2994,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -3024,7 +3020,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
@@ -3050,7 +3046,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
@@ -3076,7 +3072,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
@@ -3102,7 +3098,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
@@ -3128,7 +3124,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
@@ -3154,7 +3150,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>18</v>
@@ -3180,7 +3176,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>18</v>
@@ -3206,7 +3202,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>18</v>
@@ -3232,7 +3228,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>18</v>
@@ -3258,7 +3254,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>18</v>
@@ -3284,7 +3280,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3310,7 +3306,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3336,7 +3332,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3362,7 +3358,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3469,7 +3465,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>18</v>
@@ -3478,7 +3474,7 @@
         <v>19</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3498,10 +3494,10 @@
         <v>82</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>73</v>
@@ -3575,13 +3571,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B104" t="s">
         <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D104">
         <v>0.75</v>
@@ -3673,10 +3669,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
         <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>112</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3687,10 +3683,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" t="s">
         <v>133</v>
-      </c>
-      <c r="B113" t="s">
-        <v>134</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3698,13 +3694,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" t="s">
         <v>135</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>136</v>
-      </c>
-      <c r="C114" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="181">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -166,19 +166,314 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>睡眠不足罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足旅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟空师很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇特木偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#434</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经验值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色识字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很屌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75-0.79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造就师很狂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头师很差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+  </si>
+  <si>
     <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足罗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足旅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣骑士很烂</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>师很</t>
+  </si>
+  <si>
+    <t>#140</t>
+  </si>
+  <si>
+    <t>气功师很行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力气师很大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -186,19 +481,147 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟空师很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇特木偶</t>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改2.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足招唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll0110ll</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -206,103 +629,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>偶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#434</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经验值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景色识字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很屌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75-0.79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>史上最菜气功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最叼</t>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不uzi呀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>γγ不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -310,55 +705,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造就师很狂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
+    <t>不足</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -366,10 +713,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>色彩不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>炼狱不足钢</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -382,346 +725,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>雨水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗头师很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足巛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶无敌了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水</t>
-  </si>
-  <si>
-    <t>熟练者</t>
-  </si>
-  <si>
-    <t>#81</t>
-  </si>
-  <si>
-    <t>师很</t>
-  </si>
-  <si>
-    <t>#140</t>
-  </si>
-  <si>
-    <t>气功师很行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很涸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力气师很大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解师很哦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解师很油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拯救师很野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很苦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏师很利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀师很美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师云起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零零师很辣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可师很说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆帆师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>睡眠不足九</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>睡眠不足丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改2.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足招唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ll0110ll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不uzi呀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>挑战者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>γγ不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
+    <t>#366</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -912,7 +924,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -954,7 +966,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,7 +1001,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1200,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -1373,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
@@ -1382,10 +1394,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G7" s="2">
         <v>0.92</v>
@@ -1399,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
@@ -1425,7 +1437,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1451,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1500,10 +1512,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1613,7 +1625,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>26</v>
@@ -1685,7 +1697,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
@@ -1711,7 +1723,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
@@ -1737,7 +1749,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1763,19 +1775,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="G22" s="4">
         <v>0.88</v>
@@ -1789,7 +1801,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1810,7 +1822,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1870,7 +1882,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
@@ -1896,7 +1908,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>16</v>
@@ -1922,7 +1934,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -1948,7 +1960,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1974,7 +1986,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -2000,7 +2012,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>24</v>
@@ -2009,10 +2021,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G31" s="2">
         <v>0.75</v>
@@ -2026,7 +2038,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
@@ -2052,7 +2064,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>24</v>
@@ -2061,10 +2073,10 @@
         <v>11</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -2078,7 +2090,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
@@ -2104,7 +2116,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
@@ -2130,7 +2142,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -2156,7 +2168,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
@@ -2165,10 +2177,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2182,7 +2194,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -2191,10 +2203,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2208,7 +2220,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2217,10 +2229,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2234,7 +2246,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2243,10 +2255,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2260,7 +2272,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2286,7 +2298,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -2295,10 +2307,10 @@
         <v>22</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2312,13 +2324,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2338,7 +2350,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2364,7 +2376,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2390,7 +2402,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2399,10 +2411,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2416,7 +2428,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>16</v>
@@ -2425,10 +2437,10 @@
         <v>17</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2442,7 +2454,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2451,10 +2463,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2468,7 +2480,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2477,10 +2489,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2494,7 +2506,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>24</v>
@@ -2520,7 +2532,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>24</v>
@@ -2546,10 +2558,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
@@ -2572,7 +2584,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2598,7 +2610,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>16</v>
@@ -2624,13 +2636,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>19</v>
@@ -2654,7 +2666,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>19</v>
@@ -2674,13 +2686,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>19</v>
@@ -2700,13 +2712,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>19</v>
@@ -2726,19 +2738,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G59" s="13">
         <v>0.75</v>
@@ -2752,19 +2764,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G60" s="8">
         <v>0.75</v>
@@ -2778,19 +2790,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G61" s="8">
         <v>0.75</v>
@@ -2804,19 +2816,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="G62" s="8">
         <v>0.75</v>
@@ -2829,25 +2841,25 @@
       <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="H63" s="8">
+      <c r="B63" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H63" s="2">
         <v>0.75</v>
       </c>
     </row>
@@ -2856,7 +2868,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -2882,7 +2894,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2896,7 +2908,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2910,7 +2922,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2924,7 +2936,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
@@ -2950,7 +2962,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>16</v>
@@ -2976,7 +2988,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>16</v>
@@ -3002,7 +3014,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -3028,13 +3040,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>19</v>
@@ -3054,13 +3066,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>19</v>
@@ -3080,13 +3092,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>19</v>
@@ -3106,13 +3118,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>19</v>
@@ -3132,13 +3144,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>19</v>
@@ -3158,13 +3170,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>19</v>
@@ -3184,7 +3196,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>24</v>
@@ -3210,19 +3222,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3236,7 +3248,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>16</v>
@@ -3245,10 +3257,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3262,16 +3274,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>20</v>
@@ -3288,7 +3300,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>16</v>
@@ -3314,13 +3326,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>19</v>
@@ -3340,13 +3352,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>19</v>
@@ -3366,13 +3378,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>19</v>
@@ -3392,13 +3404,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>19</v>
@@ -3418,7 +3430,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -3444,7 +3456,7 @@
         <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>16</v>
@@ -3465,7 +3477,7 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -3473,19 +3485,19 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G89" s="2">
         <v>0.88</v>
@@ -3499,7 +3511,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>16</v>
@@ -3508,7 +3520,7 @@
         <v>17</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3525,19 +3537,19 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3551,19 +3563,19 @@
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3577,19 +3589,19 @@
         <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G96" s="2">
         <v>0.88</v>
@@ -3603,19 +3615,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G97" s="13">
         <v>0.75</v>
@@ -3629,19 +3641,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G98" s="13">
         <v>0.75</v>
@@ -3655,19 +3667,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G99" s="13">
         <v>0.75</v>
@@ -3683,13 +3695,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C104" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D104">
         <v>0.75</v>
@@ -3697,13 +3709,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" t="s">
         <v>50</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>51</v>
-      </c>
-      <c r="C105" t="s">
-        <v>52</v>
       </c>
       <c r="D105">
         <v>0.95</v>
@@ -3711,13 +3723,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" t="s">
         <v>54</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>55</v>
-      </c>
-      <c r="C106" t="s">
-        <v>56</v>
       </c>
       <c r="D106">
         <v>0.85</v>
@@ -3725,27 +3737,27 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" t="s">
         <v>55</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>56</v>
-      </c>
-      <c r="D107" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" t="s">
         <v>61</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>62</v>
-      </c>
-      <c r="C109" t="s">
-        <v>63</v>
       </c>
       <c r="D109">
         <v>0.9</v>
@@ -3753,13 +3765,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" t="s">
         <v>64</v>
       </c>
-      <c r="B110" t="s">
-        <v>65</v>
-      </c>
       <c r="C110" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D110">
         <v>0.9</v>
@@ -3767,13 +3779,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D111">
         <v>0.8</v>
@@ -3781,10 +3793,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3795,10 +3807,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3806,13 +3818,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="163">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -275,10 +275,6 @@
   </si>
   <si>
     <t>快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很送</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -856,7 +852,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -898,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -933,7 +929,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1144,21 +1140,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1182,7 +1178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1208,7 +1204,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1234,7 +1230,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1260,7 +1256,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1286,7 +1282,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1312,7 +1308,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1338,12 +1334,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1364,12 +1360,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1390,12 +1386,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1416,7 +1412,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1442,9 +1438,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
@@ -1468,7 +1464,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1494,7 +1490,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1520,7 +1516,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1546,7 +1542,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1572,7 +1568,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1598,7 +1594,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1624,7 +1620,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -1650,7 +1646,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1676,12 +1672,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1702,18 +1698,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>51</v>
@@ -1728,18 +1724,18 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>10</v>
+        <v>162</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>9</v>
@@ -1754,10 +1750,10 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1783,7 +1779,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1791,10 +1787,10 @@
         <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>39</v>
@@ -1809,12 +1805,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
@@ -1835,38 +1831,38 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -1887,12 +1883,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1913,12 +1909,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -1939,12 +1935,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>25</v>
@@ -1953,10 +1949,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="G31" s="2">
         <v>0.91</v>
@@ -1965,12 +1961,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>25</v>
@@ -1991,7 +1987,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -2008,7 +2004,7 @@
         <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -2017,12 +2013,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
@@ -2043,19 +2039,19 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="E35" s="3" t="s">
         <v>20</v>
       </c>
@@ -2069,12 +2065,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -2095,12 +2091,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
@@ -2109,11 +2105,11 @@
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="G37" s="16">
         <v>0.75</v>
       </c>
@@ -2121,12 +2117,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -2135,11 +2131,11 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="G38" s="16">
         <v>0.75</v>
       </c>
@@ -2147,12 +2143,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2161,11 +2157,11 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="G39" s="16">
         <v>0.75</v>
       </c>
@@ -2173,12 +2169,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2187,11 +2183,11 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="G40" s="16">
         <v>0.75</v>
       </c>
@@ -2199,12 +2195,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2225,12 +2221,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -2239,10 +2235,10 @@
         <v>23</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2251,18 +2247,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2277,12 +2273,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2303,12 +2299,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2329,12 +2325,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2343,7 +2339,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>57</v>
@@ -2355,12 +2351,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>16</v>
@@ -2369,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>57</v>
@@ -2381,12 +2377,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2395,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>57</v>
@@ -2407,12 +2403,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2421,7 +2417,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>57</v>
@@ -2433,12 +2429,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>16</v>
@@ -2459,12 +2455,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>16</v>
@@ -2485,12 +2481,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>16</v>
@@ -2511,12 +2507,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>16</v>
@@ -2537,12 +2533,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
@@ -2563,12 +2559,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2589,12 +2585,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>8</v>
@@ -2615,12 +2611,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
@@ -2641,12 +2637,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
@@ -2667,18 +2663,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>9</v>
@@ -2693,18 +2689,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>9</v>
@@ -2719,12 +2715,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>16</v>
@@ -2745,12 +2741,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>16</v>
@@ -2771,12 +2767,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>8</v>
@@ -2797,12 +2793,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -2823,12 +2819,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2837,12 +2833,12 @@
       <c r="G65" s="4"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2851,12 +2847,12 @@
       <c r="G66" s="4"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2865,12 +2861,12 @@
       <c r="G67" s="4"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
@@ -2891,12 +2887,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>16</v>
@@ -2917,12 +2913,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>16</v>
@@ -2943,12 +2939,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -2969,12 +2965,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -2995,12 +2991,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
@@ -3021,12 +3017,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
@@ -3047,12 +3043,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
@@ -3073,12 +3069,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
@@ -3099,12 +3095,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
@@ -3125,12 +3121,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>16</v>
@@ -3151,12 +3147,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>16</v>
@@ -3177,12 +3173,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>16</v>
@@ -3203,12 +3199,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>16</v>
@@ -3229,12 +3225,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>16</v>
@@ -3255,12 +3251,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3281,12 +3277,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3307,12 +3303,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3333,12 +3329,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3359,7 +3355,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -3385,7 +3381,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>20</v>
       </c>
@@ -3411,10 +3407,10 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>10</v>
       </c>
@@ -3440,12 +3436,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>16</v>
@@ -3454,7 +3450,7 @@
         <v>17</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3466,21 +3462,21 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="E93" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>57</v>
@@ -3492,21 +3488,21 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>57</v>
@@ -3518,7 +3514,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>22</v>
       </c>
@@ -3544,26 +3540,26 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
         <v>56</v>
       </c>
       <c r="C104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D104">
         <v>0.75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>55</v>
       </c>
@@ -3577,7 +3573,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>59</v>
       </c>
@@ -3591,9 +3587,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
         <v>60</v>
@@ -3605,54 +3601,54 @@
         <v>62</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>65</v>
+      </c>
+      <c r="B109" t="s">
         <v>66</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>67</v>
-      </c>
-      <c r="C109" t="s">
-        <v>68</v>
       </c>
       <c r="D109">
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>68</v>
+      </c>
+      <c r="B110" t="s">
         <v>69</v>
       </c>
-      <c r="B110" t="s">
-        <v>70</v>
-      </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D110">
         <v>0.9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" t="s">
         <v>91</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>92</v>
-      </c>
-      <c r="C111" t="s">
-        <v>93</v>
       </c>
       <c r="D111">
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" t="s">
         <v>106</v>
-      </c>
-      <c r="B112" t="s">
-        <v>107</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3661,26 +3657,26 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" t="s">
         <v>127</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>128</v>
       </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
         <v>129</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>130</v>
-      </c>
-      <c r="C114" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3696,7 +3692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3709,7 +3705,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="166">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -666,13 +666,21 @@
   </si>
   <si>
     <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不uzi呀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -898,7 +906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -933,7 +941,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1144,12 +1152,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
@@ -3544,12 +3553,90 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H97" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H99" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>146</v>
       </c>
@@ -3563,7 +3650,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>55</v>
       </c>
@@ -3577,7 +3664,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>59</v>
       </c>
@@ -3591,7 +3678,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -3605,7 +3692,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>66</v>
       </c>
@@ -3619,7 +3706,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -3633,7 +3720,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>91</v>
       </c>
@@ -3647,7 +3734,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>106</v>
       </c>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="198">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,434 +150,642 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足罗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足旅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣骑士很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悟空师很烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇特木偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#434</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经验值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色识字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很屌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75-0.79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造就师很狂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头师很差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+  </si>
+  <si>
+    <t>熟练者</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>师很</t>
+  </si>
+  <si>
+    <t>#140</t>
+  </si>
+  <si>
+    <t>气功师很行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力气师很大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改2.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足招唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll0110ll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不uzi呀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>γγ不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>气功师废了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>先驱者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>气功运气</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>功运</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足罗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足旅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣骑士很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟空师很烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇特木偶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#434</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经验值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景色识字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很屌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75-0.79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>史上最菜气功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>造就师很狂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗头师很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足巛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶无敌了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>气功师很水丨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>气功师很水</t>
-  </si>
-  <si>
     <t>熟练者</t>
-  </si>
-  <si>
-    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#140</t>
-  </si>
-  <si>
-    <t>气功师很行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很涸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力气师很大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解师很哦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解师很油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拯救师很野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很苦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏师很利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀师很美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师云起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零零师很辣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可师很说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆帆师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改2.25</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -585,155 +793,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>睡眠不足招唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ll0110ll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力不足吗</t>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不uzi呀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>γγ不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +992,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -966,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1001,7 +1069,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1212,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1359,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -1385,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
@@ -1394,10 +1462,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <v>0.92</v>
@@ -1411,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
@@ -1437,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1463,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1512,10 +1580,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1625,7 +1693,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>26</v>
@@ -1651,7 +1719,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>28</v>
@@ -1677,7 +1745,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>19</v>
@@ -1697,7 +1765,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
@@ -1723,7 +1791,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
@@ -1749,7 +1817,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1775,19 +1843,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G22" s="4">
         <v>0.88</v>
@@ -1801,19 +1869,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>10</v>
+        <v>176</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="G23" s="5">
         <v>0.9</v>
@@ -1822,7 +1890,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1830,19 +1898,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="G24" s="4">
         <v>0.91</v>
@@ -1856,19 +1924,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7">
         <v>0.91</v>
@@ -1882,19 +1950,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="G26" s="4">
         <v>0.75</v>
@@ -1907,26 +1975,26 @@
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.75</v>
+      <c r="B27" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1934,7 +2002,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -1960,7 +2028,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -1986,7 +2054,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -2012,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>24</v>
@@ -2021,10 +2089,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G31" s="2">
         <v>0.75</v>
@@ -2038,7 +2106,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
@@ -2064,7 +2132,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>24</v>
@@ -2073,10 +2141,10 @@
         <v>11</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -2090,7 +2158,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
@@ -2116,7 +2184,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
@@ -2142,7 +2210,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -2168,7 +2236,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
@@ -2177,10 +2245,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2194,7 +2262,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -2203,10 +2271,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2220,7 +2288,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2229,10 +2297,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2246,7 +2314,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2255,10 +2323,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2272,7 +2340,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2298,7 +2366,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
@@ -2307,10 +2375,10 @@
         <v>22</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2324,13 +2392,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2350,7 +2418,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
@@ -2376,7 +2444,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
@@ -2402,7 +2470,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -2411,10 +2479,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2428,7 +2496,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>16</v>
@@ -2437,10 +2505,10 @@
         <v>17</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2454,7 +2522,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -2463,10 +2531,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2480,7 +2548,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -2489,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2506,7 +2574,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>24</v>
@@ -2532,7 +2600,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>24</v>
@@ -2558,10 +2626,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
@@ -2584,7 +2652,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2610,7 +2678,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>16</v>
@@ -2636,13 +2704,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>19</v>
@@ -2666,7 +2734,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>19</v>
@@ -2686,13 +2754,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>19</v>
@@ -2712,13 +2780,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>19</v>
@@ -2738,19 +2806,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G59" s="13">
         <v>0.75</v>
@@ -2764,19 +2832,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G60" s="8">
         <v>0.75</v>
@@ -2790,19 +2858,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G61" s="8">
         <v>0.75</v>
@@ -2816,19 +2884,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G62" s="8">
         <v>0.75</v>
@@ -2842,19 +2910,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G63" s="2">
         <v>0.75</v>
@@ -2868,7 +2936,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -2894,7 +2962,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2908,7 +2976,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2922,7 +2990,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2936,7 +3004,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
@@ -2962,7 +3030,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>16</v>
@@ -2988,7 +3056,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>16</v>
@@ -3014,7 +3082,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -3040,13 +3108,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>19</v>
@@ -3066,13 +3134,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>19</v>
@@ -3092,13 +3160,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>19</v>
@@ -3118,13 +3186,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>19</v>
@@ -3144,13 +3212,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>19</v>
@@ -3170,13 +3238,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>19</v>
@@ -3196,7 +3264,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>24</v>
@@ -3222,19 +3290,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3248,7 +3316,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>16</v>
@@ -3257,10 +3325,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3274,16 +3342,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>20</v>
@@ -3300,7 +3368,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>16</v>
@@ -3326,13 +3394,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>19</v>
@@ -3352,13 +3420,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>19</v>
@@ -3378,13 +3446,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>19</v>
@@ -3404,13 +3472,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>19</v>
@@ -3430,7 +3498,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -3456,7 +3524,7 @@
         <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>16</v>
@@ -3477,7 +3545,7 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -3485,19 +3553,19 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G89" s="2">
         <v>0.88</v>
@@ -3511,7 +3579,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>16</v>
@@ -3520,7 +3588,7 @@
         <v>17</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3537,19 +3605,19 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3563,19 +3631,19 @@
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3589,19 +3657,19 @@
         <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G96" s="2">
         <v>0.88</v>
@@ -3615,19 +3683,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G97" s="13">
         <v>0.75</v>
@@ -3641,19 +3709,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G98" s="13">
         <v>0.75</v>
@@ -3667,19 +3735,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G99" s="13">
         <v>0.75</v>
@@ -3695,13 +3763,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D104">
         <v>0.75</v>
@@ -3709,13 +3777,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C105" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D105">
         <v>0.95</v>
@@ -3723,13 +3791,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C106" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D106">
         <v>0.85</v>
@@ -3737,27 +3805,27 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C107" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D107" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C109" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D109">
         <v>0.9</v>
@@ -3765,13 +3833,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C110" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D110">
         <v>0.9</v>
@@ -3779,13 +3847,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B111" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C111" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D111">
         <v>0.8</v>
@@ -3793,10 +3861,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3807,10 +3875,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3818,13 +3886,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1268,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="H3" s="2">
         <v>0.92</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="196">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -738,14 +738,6 @@
   </si>
   <si>
     <t>气功师废了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先驱者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1281,7 +1273,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1901,16 +1893,16 @@
         <v>181</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="G24" s="4">
         <v>0.91</v>
@@ -1924,21 +1916,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <v>0.91</v>
       </c>
       <c r="H25" s="7">
@@ -1950,19 +1942,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G26" s="4">
         <v>0.75</v>
@@ -1976,16 +1968,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>180</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1034,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1069,7 +1069,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2808,11 +2808,11 @@
       <c r="B59" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>167</v>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>168</v>
@@ -2834,11 +2834,11 @@
       <c r="B60" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>167</v>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>168</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="196">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1026,7 +1026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1061,7 +1061,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2800,11 +2800,11 @@
       <c r="B59" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>167</v>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>168</v>
@@ -2826,11 +2826,11 @@
       <c r="B60" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>167</v>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>168</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="196">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="197">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -626,10 +626,6 @@
   </si>
   <si>
     <t>睡眠不uzi呀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -808,7 +804,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -992,7 +988,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1280,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1869,19 +1865,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="G23" s="5">
         <v>0.9</v>
@@ -1898,19 +1894,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="G24" s="4">
         <v>0.91</v>
@@ -1924,19 +1920,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7">
         <v>0.91</v>
@@ -1950,19 +1946,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="G26" s="4">
         <v>0.75</v>
@@ -1976,19 +1972,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G27" s="5">
         <v>0.9</v>
@@ -2629,7 +2625,7 @@
         <v>117</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
@@ -2678,7 +2674,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>16</v>
@@ -2704,7 +2700,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2806,19 +2802,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="G59" s="13">
         <v>0.75</v>
@@ -2832,19 +2828,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="F60" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="G60" s="8">
         <v>0.75</v>
@@ -2858,19 +2854,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="F61" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="G61" s="8">
         <v>0.75</v>
@@ -2884,19 +2880,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="G62" s="8">
         <v>0.75</v>
@@ -2910,19 +2906,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="E63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="G63" s="2">
         <v>0.75</v>
@@ -3296,13 +3292,13 @@
         <v>24</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="F79" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3325,10 +3321,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3342,16 +3338,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>20</v>
@@ -3685,11 +3681,11 @@
       <c r="B97" t="s">
         <v>151</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>146</v>
+      <c r="C97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>152</v>
@@ -3737,11 +3733,11 @@
       <c r="B99" t="s">
         <v>153</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>143</v>
+      <c r="C99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>152</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="204">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -262,10 +262,517 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造就师很狂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头师很差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+  </si>
+  <si>
+    <t>熟练者</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>师很</t>
+  </si>
+  <si>
+    <t>#140</t>
+  </si>
+  <si>
+    <t>气功师很行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力气师很大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改2.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足招唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll0110ll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不uzi呀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>γγ不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师废了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>能量不足了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>最</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,11 +781,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>史上最菜气功</t>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -286,39 +809,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>造就师很狂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -326,474 +825,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>水水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗头师很差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足巛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶无敌了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水</t>
-  </si>
-  <si>
-    <t>熟练者</t>
-  </si>
-  <si>
-    <t>#81</t>
-  </si>
-  <si>
-    <t>师很</t>
-  </si>
-  <si>
-    <t>#140</t>
-  </si>
-  <si>
-    <t>气功师很行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很涸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力气师很大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解师很哦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解师很油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拯救师很野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很苦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏师很利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀师很美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师云起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零零师很辣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可师很说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆帆师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改2.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足招唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ll0110ll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不uzi呀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>γγ不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师废了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -984,7 +1016,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1026,7 +1058,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1061,7 +1093,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1272,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1419,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -1471,7 +1503,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
@@ -1497,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1523,7 +1555,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1572,7 +1604,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -1809,7 +1841,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1861,19 +1893,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G23" s="5">
         <v>0.9</v>
@@ -1882,7 +1914,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1890,19 +1922,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G24" s="4">
         <v>0.91</v>
@@ -1916,19 +1948,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G25" s="4">
         <v>0.91</v>
@@ -1942,19 +1974,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G26" s="4">
         <v>0.75</v>
@@ -1968,19 +2000,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G27" s="5">
         <v>0.9</v>
@@ -1994,7 +2026,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -2020,7 +2052,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -2046,7 +2078,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -2072,7 +2104,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>24</v>
@@ -2081,10 +2113,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G31" s="2">
         <v>0.75</v>
@@ -2098,7 +2130,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
@@ -2136,7 +2168,7 @@
         <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7">
         <v>0.91</v>
@@ -2150,7 +2182,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
@@ -2176,7 +2208,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
@@ -2202,7 +2234,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -2228,7 +2260,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
@@ -2237,10 +2269,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2254,7 +2286,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -2263,10 +2295,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2280,7 +2312,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2289,10 +2321,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2306,7 +2338,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2315,10 +2347,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2332,19 +2364,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="G41" s="4">
         <v>0.91</v>
@@ -2358,19 +2390,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2384,19 +2416,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="G43" s="5">
         <v>0.75</v>
@@ -2410,19 +2442,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="G44" s="5">
         <v>0.75</v>
@@ -2436,19 +2468,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="G45" s="5">
         <v>0.75</v>
@@ -2462,19 +2494,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2488,19 +2520,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2514,19 +2546,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2540,19 +2572,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2566,7 +2598,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>24</v>
@@ -2592,7 +2624,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>24</v>
@@ -2618,10 +2650,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
@@ -2644,7 +2676,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
@@ -2670,7 +2702,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>16</v>
@@ -2696,7 +2728,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2746,7 +2778,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
@@ -2772,7 +2804,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
@@ -2798,19 +2830,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G59" s="13">
         <v>0.75</v>
@@ -2824,19 +2856,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G60" s="8">
         <v>0.75</v>
@@ -2850,19 +2882,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G61" s="8">
         <v>0.75</v>
@@ -2876,19 +2908,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G62" s="8">
         <v>0.75</v>
@@ -2902,19 +2934,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G63" s="2">
         <v>0.75</v>
@@ -2928,7 +2960,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -2954,7 +2986,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2968,7 +3000,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2982,7 +3014,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2996,7 +3028,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
@@ -3022,7 +3054,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>16</v>
@@ -3048,7 +3080,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>16</v>
@@ -3074,7 +3106,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -3100,7 +3132,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -3126,7 +3158,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
@@ -3152,7 +3184,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
@@ -3178,7 +3210,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
@@ -3204,7 +3236,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
@@ -3230,7 +3262,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
@@ -3256,7 +3288,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>24</v>
@@ -3282,19 +3314,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3308,7 +3340,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>16</v>
@@ -3317,10 +3349,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3334,16 +3366,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>20</v>
@@ -3360,7 +3392,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>16</v>
@@ -3386,7 +3418,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3412,7 +3444,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3438,7 +3470,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3464,7 +3496,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3537,7 +3569,7 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -3571,7 +3603,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>16</v>
@@ -3580,7 +3612,7 @@
         <v>17</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3597,19 +3629,19 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3623,19 +3655,19 @@
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3649,19 +3681,19 @@
         <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G96" s="2">
         <v>0.88</v>
@@ -3675,19 +3707,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G97" s="13">
         <v>0.75</v>
@@ -3701,19 +3733,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G98" s="13">
         <v>0.75</v>
@@ -3727,19 +3759,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G99" s="13">
         <v>0.75</v>
@@ -3755,13 +3787,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
         <v>47</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D104">
         <v>0.75</v>
@@ -3797,7 +3829,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B107" t="s">
         <v>51</v>
@@ -3839,13 +3871,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C111" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D111">
         <v>0.8</v>
@@ -3853,10 +3885,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -3867,10 +3899,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -3878,13 +3910,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B114" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C114" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="196">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1026,7 +1026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1061,7 +1061,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2139,7 +2139,7 @@
         <v>63</v>
       </c>
       <c r="G33" s="7">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="H33">
         <v>0.85</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60:D60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2800,10 +2800,10 @@
       <c r="B59" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E59" s="8" t="s">
@@ -2826,10 +2826,10 @@
       <c r="B60" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E60" s="8" t="s">

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="195">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -626,10 +626,6 @@
   </si>
   <si>
     <t>睡眠不uzi呀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -800,7 +796,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -984,7 +980,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1272,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1861,19 +1857,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="G23" s="5">
         <v>0.9</v>
@@ -1890,19 +1886,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="G24" s="4">
         <v>0.91</v>
@@ -1916,19 +1912,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="4">
         <v>0.91</v>
@@ -1942,19 +1938,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="G26" s="4">
         <v>0.75</v>
@@ -1968,19 +1964,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G27" s="5">
         <v>0.9</v>
@@ -2621,7 +2617,7 @@
         <v>117</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
@@ -2670,7 +2666,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>16</v>
@@ -2696,7 +2692,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2798,19 +2794,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="G59" s="13">
         <v>0.75</v>
@@ -2824,19 +2820,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="F60" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="G60" s="8">
         <v>0.75</v>
@@ -2850,19 +2846,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="F61" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="G61" s="8">
         <v>0.75</v>
@@ -2876,19 +2872,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="G62" s="8">
         <v>0.75</v>
@@ -2902,19 +2898,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="E63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="G63" s="2">
         <v>0.75</v>
@@ -3288,13 +3284,13 @@
         <v>24</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="F79" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3317,10 +3313,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3334,16 +3330,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>20</v>
@@ -3677,11 +3673,11 @@
       <c r="B97" t="s">
         <v>151</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>146</v>
+      <c r="C97" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>152</v>
@@ -3729,11 +3725,11 @@
       <c r="B99" t="s">
         <v>153</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>143</v>
+      <c r="C99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>152</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="204">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -585,19 +585,103 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>γγ不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>挑战者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>熟练者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>γγ不足♂</t>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -605,6 +689,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>气功师废了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>师很</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -613,23 +701,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>气功运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>师很</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最叼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -641,182 +813,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师废了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>史上最菜气功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>爷的圣光最香</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -826,13 +822,17 @@
   </si>
   <si>
     <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力不足呦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -1058,7 +1058,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1093,7 +1093,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1893,19 +1893,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="G23" s="5">
         <v>0.9</v>
@@ -1922,19 +1922,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="G24" s="4">
         <v>0.91</v>
@@ -1948,19 +1948,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G25" s="4">
         <v>0.91</v>
@@ -1974,19 +1974,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="G26" s="4">
         <v>0.75</v>
@@ -2000,19 +2000,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G27" s="5">
         <v>0.9</v>
@@ -2364,19 +2364,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G41" s="4">
         <v>0.91</v>
@@ -2390,19 +2390,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2416,7 +2416,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>86</v>
@@ -2425,10 +2425,10 @@
         <v>87</v>
       </c>
       <c r="E43" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G43" s="5">
         <v>0.75</v>
@@ -2442,19 +2442,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="E44" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G44" s="5">
         <v>0.75</v>
@@ -2468,19 +2468,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G45" s="5">
         <v>0.75</v>
@@ -2494,19 +2494,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E46" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2520,19 +2520,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="E47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2546,19 +2546,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E48" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2572,19 +2572,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2653,7 +2653,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
@@ -2702,7 +2702,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>16</v>
@@ -2728,7 +2728,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2830,19 +2830,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G59" s="13">
         <v>0.75</v>
@@ -2856,19 +2856,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="F60" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G60" s="8">
         <v>0.75</v>
@@ -2882,19 +2882,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="F61" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G61" s="8">
         <v>0.75</v>
@@ -2908,19 +2908,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G62" s="8">
         <v>0.75</v>
@@ -2934,19 +2934,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G63" s="2">
         <v>0.75</v>
@@ -3320,13 +3320,13 @@
         <v>24</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="F79" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>149</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3349,10 +3349,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3366,16 +3366,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>20</v>
@@ -3709,11 +3709,11 @@
       <c r="B97" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>135</v>
+      <c r="C97" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>141</v>
@@ -3722,7 +3722,7 @@
         <v>138</v>
       </c>
       <c r="G97" s="13">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="H97" s="8">
         <v>0.75</v>
@@ -3761,11 +3761,11 @@
       <c r="B99" t="s">
         <v>142</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>132</v>
+      <c r="C99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>141</v>
@@ -3782,7 +3782,28 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>1111</v>
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H100" s="8">
+        <v>0.75</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="205">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -826,13 +826,17 @@
   </si>
   <si>
     <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">水果不足♂ </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -971,7 +975,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -996,6 +1000,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1058,7 +1065,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1093,7 +1100,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1302,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2184,11 +2191,11 @@
       <c r="B34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>10</v>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>9</v>
@@ -3782,140 +3789,284 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>1111</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H101" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H102" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0.75</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>116</v>
+      <c r="A104">
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>47</v>
-      </c>
-      <c r="C104" t="s">
-        <v>117</v>
-      </c>
-      <c r="D104">
+        <v>142</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H104" s="8">
         <v>0.75</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" t="s">
-        <v>47</v>
-      </c>
-      <c r="C105" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105">
-        <v>0.95</v>
-      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="25"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
-        <v>50</v>
-      </c>
-      <c r="B106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" t="s">
-        <v>52</v>
-      </c>
-      <c r="D106">
-        <v>0.85</v>
-      </c>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="25"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>68</v>
-      </c>
-      <c r="B107" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107" t="s">
-        <v>52</v>
-      </c>
-      <c r="D107" t="s">
-        <v>53</v>
-      </c>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="25"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
-        <v>56</v>
-      </c>
-      <c r="B109" t="s">
-        <v>57</v>
-      </c>
-      <c r="C109" t="s">
-        <v>58</v>
-      </c>
-      <c r="D109">
-        <v>0.9</v>
-      </c>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C110" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="D110">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C111" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D111">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>68</v>
+      </c>
+      <c r="B113" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>59</v>
+      </c>
+      <c r="B116" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" t="s">
+        <v>72</v>
+      </c>
+      <c r="D117">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
         <v>80</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B118" t="s">
         <v>81</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C118" t="s">
         <v>11</v>
       </c>
-      <c r="D112">
+      <c r="D118">
         <v>0.86</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
         <v>101</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B119" t="s">
         <v>102</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C119" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>103</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B120" t="s">
         <v>104</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C120" t="s">
         <v>105</v>
       </c>
     </row>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="207">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -585,19 +585,103 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>γγ不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>挑战者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>熟练者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>γγ不足♂</t>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -605,6 +689,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>气功师废了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>师很</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -613,23 +701,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>气功运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>师很</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最叼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -641,182 +813,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师废了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>史上最菜气功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>爷的圣光最香</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -830,6 +826,18 @@
   </si>
   <si>
     <t xml:space="preserve">水果不足♂ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂ 吖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足呦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1311,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1900,19 +1908,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="G23" s="5">
         <v>0.9</v>
@@ -1929,19 +1937,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="G24" s="4">
         <v>0.91</v>
@@ -1955,19 +1963,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G25" s="4">
         <v>0.91</v>
@@ -1981,19 +1989,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="G26" s="4">
         <v>0.75</v>
@@ -2007,19 +2015,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G27" s="5">
         <v>0.9</v>
@@ -2371,19 +2379,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G41" s="4">
         <v>0.91</v>
@@ -2397,19 +2405,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2423,7 +2431,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>86</v>
@@ -2432,10 +2440,10 @@
         <v>87</v>
       </c>
       <c r="E43" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G43" s="5">
         <v>0.75</v>
@@ -2449,19 +2457,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="E44" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G44" s="5">
         <v>0.75</v>
@@ -2475,19 +2483,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G45" s="5">
         <v>0.75</v>
@@ -2501,19 +2509,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E46" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2527,19 +2535,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="E47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2553,19 +2561,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E48" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2579,19 +2587,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2660,7 +2668,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>17</v>
@@ -2709,7 +2717,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>16</v>
@@ -2735,7 +2743,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2837,19 +2845,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G59" s="13">
         <v>0.75</v>
@@ -2863,19 +2871,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="F60" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G60" s="8">
         <v>0.75</v>
@@ -2889,19 +2897,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="F61" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G61" s="8">
         <v>0.75</v>
@@ -2915,19 +2923,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G62" s="8">
         <v>0.75</v>
@@ -2941,19 +2949,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G63" s="2">
         <v>0.75</v>
@@ -3327,13 +3335,13 @@
         <v>24</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="F79" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>149</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3356,10 +3364,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3373,16 +3381,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>20</v>
@@ -3716,11 +3724,11 @@
       <c r="B97" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>135</v>
+      <c r="C97" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>141</v>
@@ -3729,7 +3737,7 @@
         <v>138</v>
       </c>
       <c r="G97" s="13">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="H97" s="8">
         <v>0.75</v>
@@ -3740,7 +3748,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>134</v>
@@ -3766,13 +3774,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>142</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>132</v>
+        <v>205</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>141</v>
@@ -3791,6 +3799,27 @@
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H100" s="8">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101">
@@ -3849,7 +3878,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>8</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="203">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -586,10 +586,6 @@
   </si>
   <si>
     <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1304,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1893,19 +1889,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="G23" s="5">
         <v>0.9</v>
@@ -1922,19 +1918,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="G24" s="4">
         <v>0.91</v>
@@ -1948,19 +1944,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G25" s="4">
         <v>0.91</v>
@@ -1974,19 +1970,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="G26" s="4">
         <v>0.75</v>
@@ -2000,19 +1996,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G27" s="5">
         <v>0.9</v>
@@ -2364,19 +2360,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G41" s="4">
         <v>0.91</v>
@@ -2390,19 +2386,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2416,7 +2412,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>86</v>
@@ -2425,10 +2421,10 @@
         <v>87</v>
       </c>
       <c r="E43" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G43" s="5">
         <v>0.75</v>
@@ -2442,19 +2438,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="E44" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G44" s="5">
         <v>0.75</v>
@@ -2468,19 +2464,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G45" s="5">
         <v>0.75</v>
@@ -2494,19 +2490,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E46" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2520,19 +2516,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="E47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2546,19 +2542,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E48" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2572,19 +2568,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2652,11 +2648,11 @@
       <c r="B52" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>17</v>
+      <c r="C52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>19</v>
@@ -2665,7 +2661,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="5">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="H52" s="10">
         <v>0.75</v>
@@ -2702,7 +2698,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>16</v>
@@ -2728,7 +2724,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2830,19 +2826,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G59" s="13">
         <v>0.75</v>
@@ -2856,19 +2852,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="F60" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G60" s="8">
         <v>0.75</v>
@@ -2882,19 +2878,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="F61" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G61" s="8">
         <v>0.75</v>
@@ -2908,19 +2904,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G62" s="8">
         <v>0.75</v>
@@ -2934,19 +2930,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G63" s="2">
         <v>0.75</v>
@@ -3320,13 +3316,13 @@
         <v>24</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="F79" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>149</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3349,10 +3345,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3366,16 +3362,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>20</v>

--- a/lw/game_name.xlsx
+++ b/lw/game_name.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="215">
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -266,43 +266,562 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>睡眠不足风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足啊啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很懒1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二(l11l)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足巛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的奶无敌了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很丿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水</t>
+  </si>
+  <si>
+    <t>熟练者</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>师很</t>
+  </si>
+  <si>
+    <t>#140</t>
+  </si>
+  <si>
+    <t>气功师很行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力气师很大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很帅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师很坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很广</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解师很哦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解师很油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拯救师很野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很苦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐乐师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀师很美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器师很牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸造师很气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师云起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很猛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零零师很辣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可师很说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆帆师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊师很老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗师很强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改2.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足招唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll0110ll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力不足吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不uzi呀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高台师很恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪域师很水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩不足啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱不足钢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师废了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功运气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功师很水丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史上最菜气功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量不足♂丶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的曙光最混</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的圣光最香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷的太阳最叼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">水果不足♂ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力不足丨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足♂ 吖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠不足呦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>造就师很狂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>睡眠不足风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足啊啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很懒1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二(l11l)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
+    <t>高手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -310,19 +829,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>雨水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽不足了</t>
+    <t>师很</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#140</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -330,521 +841,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>睡眠不足巛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的奶无敌了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很丿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水</t>
+    <t>储藏师很利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想师很阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>γγ不足♂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>熟练者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#81</t>
-  </si>
-  <si>
-    <t>师很</t>
-  </si>
-  <si>
-    <t>#140</t>
-  </si>
-  <si>
-    <t>气功师很行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很刚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很涸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力气师很大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师很坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解师很哦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解师很油</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拯救师很野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很苦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐乐师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>储藏师很利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀师很美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器师很牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦想师很阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铸造师很气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师云起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很猛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零零师很辣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可师很说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆帆师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>希腊师很老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗师很强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改2.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足招唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ll0110ll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力不足吗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不uzi呀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高台师很恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>γγ不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪域师很水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩不足啊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼狱不足钢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼铁不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师废了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功运气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>气功师很水丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>师很</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>史上最菜气功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#360</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量不足♂丶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的曙光最混</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的圣光最香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爷的太阳最叼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">水果不足♂ </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力不足丨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足♂ 吖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠不足呦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -1073,7 +1105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1108,7 +1140,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1319,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1466,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -1518,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
@@ -1544,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1570,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1619,7 +1651,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -1856,7 +1888,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1908,19 +1940,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G23" s="5">
         <v>0.9</v>
@@ -1929,7 +1961,7 @@
         <v>0.9</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1937,19 +1969,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G24" s="4">
         <v>0.91</v>
@@ -1963,19 +1995,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G25" s="4">
         <v>0.91</v>
@@ -1989,19 +2021,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G26" s="4">
         <v>0.75</v>
@@ -2015,19 +2047,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G27" s="5">
         <v>0.9</v>
@@ -2041,7 +2073,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -2067,7 +2099,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>8</v>
@@ -2093,7 +2125,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>8</v>
@@ -2119,7 +2151,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>24</v>
@@ -2128,10 +2160,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G31" s="2">
         <v>0.75</v>
@@ -2145,7 +2177,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
@@ -2197,7 +2229,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
@@ -2223,7 +2255,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
@@ -2249,7 +2281,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -2275,7 +2307,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
@@ -2284,10 +2316,10 @@
         <v>17</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G37" s="16">
         <v>0.75</v>
@@ -2301,7 +2333,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -2310,10 +2342,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G38" s="16">
         <v>0.75</v>
@@ -2327,7 +2359,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
@@ -2336,10 +2368,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G39" s="16">
         <v>0.75</v>
@@ -2353,7 +2385,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2362,10 +2394,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G40" s="16">
         <v>0.75</v>
@@ -2379,19 +2411,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G41" s="4">
         <v>0.91</v>
@@ -2405,19 +2437,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G42" s="4">
         <v>0.91</v>
@@ -2431,19 +2463,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G43" s="5">
         <v>0.75</v>
@@ -2457,19 +2489,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G44" s="5">
         <v>0.75</v>
@@ -2483,19 +2515,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G45" s="5">
         <v>0.75</v>
@@ -2509,19 +2541,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G46" s="5">
         <v>0.75</v>
@@ -2535,19 +2567,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G47" s="5">
         <v>0.75</v>
@@ -2561,19 +2593,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
@@ -2587,19 +2619,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G49" s="5">
         <v>0.75</v>
@@ -2613,22 +2645,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G50" s="5">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="H50" s="10">
         <v>0.75</v>
@@ -2639,22 +2671,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G51" s="5">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="H51" s="10">
         <v>0.75</v>
@@ -2665,22 +2697,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>17</v>
+        <v>207</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G52" s="5">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="H52" s="10">
         <v>0.75</v>
@@ -2691,22 +2723,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>22</v>
+        <v>210</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G53" s="5">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="H53" s="10">
         <v>0.75</v>
@@ -2717,19 +2749,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="G54" s="4">
         <v>0.75</v>
@@ -2743,7 +2775,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>8</v>
@@ -2793,7 +2825,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>8</v>
@@ -2819,7 +2851,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>8</v>
@@ -2845,19 +2877,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G59" s="13">
         <v>0.75</v>
@@ -2871,19 +2903,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G60" s="8">
         <v>0.75</v>
@@ -2897,19 +2929,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G61" s="8">
         <v>0.75</v>
@@ -2923,19 +2955,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G62" s="8">
         <v>0.75</v>
@@ -2949,19 +2981,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G63" s="2">
         <v>0.75</v>
@@ -2975,7 +3007,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>16</v>
@@ -3001,7 +3033,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -3015,7 +3047,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -3029,7 +3061,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -3043,7 +3075,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>12</v>
@@ -3069,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>16</v>
@@ -3095,7 +3127,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>16</v>
@@ -3121,7 +3153,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>16</v>
@@ -3147,7 +3179,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>8</v>
@@ -3173,7 +3205,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>8</v>
@@ -3199,7 +3231,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>8</v>
@@ -3225,7 +3257,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>8</v>
@@ -3251,7 +3283,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>8</v>
@@ -3277,7 +3309,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>8</v>
@@ -3303,7 +3335,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>24</v>
@@ -3329,19 +3361,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G79" s="20">
         <v>0.75</v>
@@ -3355,7 +3387,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>16</v>
@@ -3364,10 +3396,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G80" s="20">
         <v>0.75</v>
@@ -3381,16 +3413,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F81" s="19" t="s">
         <v>20</v>
@@ -3407,7 +3439,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>16</v>
@@ -3433,7 +3465,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>8</v>
@@ -3459,7 +3491,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>8</v>
@@ -3485,7 +3517,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>8</v>
@@ -3511,7 +3543,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C86" s="19" t="s">
         <v>8</v>
@@ -3584,7 +3616,7 @@
         <v>0.75</v>
       </c>
       <c r="I88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -3618,7 +3650,7 @@
         <v>29</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>16</v>
@@ -3627,7 +3659,7 @@
         <v>17</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>11</v>
@@ -3644,19 +3676,19 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="G93" s="7">
         <v>0.95</v>
@@ -3670,19 +3702,19 @@
         <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G94" s="5">
         <v>0.75</v>
@@ -3696,19 +3728,19 @@
         <v>22</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G96" s="2">
         <v>0.88</v>
@@ -3722,19 +3754,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G97" s="13">
         <v>0.91</v>
@@ -3748,19 +3780,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C98" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>135</v>
-